--- a/output/ervinju01.xlsx
+++ b/output/ervinju01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="97">
   <si>
     <t>Season</t>
   </si>
@@ -245,12 +245,6 @@
   </si>
   <si>
     <t>PS</t>
-  </si>
-  <si>
-    <t>ORtg</t>
-  </si>
-  <si>
-    <t>DRtg</t>
   </si>
   <si>
     <t>PER</t>
@@ -5915,9727 +5909,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE61"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:31">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2">
-        <v>84</v>
-      </c>
-      <c r="I2">
-        <v>3513</v>
-      </c>
-      <c r="J2">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="K2">
-        <v>18.7</v>
-      </c>
-      <c r="L2">
-        <v>0.498</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0.2</v>
-      </c>
-      <c r="O2">
-        <v>0.188</v>
-      </c>
-      <c r="P2">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="Q2">
-        <v>18.5</v>
-      </c>
-      <c r="R2">
-        <v>0.501</v>
-      </c>
-      <c r="S2">
-        <v>4.8</v>
-      </c>
-      <c r="T2">
-        <v>6.4</v>
-      </c>
-      <c r="U2">
-        <v>0.745</v>
-      </c>
-      <c r="V2">
-        <v>4.9</v>
-      </c>
-      <c r="W2">
-        <v>8.6</v>
-      </c>
-      <c r="X2">
-        <v>13.5</v>
-      </c>
-      <c r="Y2">
-        <v>3.4</v>
-      </c>
-      <c r="AB2">
-        <v>3.5</v>
-      </c>
-      <c r="AC2">
-        <v>2.7</v>
-      </c>
-      <c r="AD2">
-        <v>23.5</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>504</v>
-      </c>
-      <c r="J3">
-        <v>10.5</v>
-      </c>
-      <c r="K3">
-        <v>20.3</v>
-      </c>
-      <c r="L3">
-        <v>0.518</v>
-      </c>
-      <c r="M3">
-        <v>0.1</v>
-      </c>
-      <c r="N3">
-        <v>0.3</v>
-      </c>
-      <c r="O3">
-        <v>0.25</v>
-      </c>
-      <c r="P3">
-        <v>10.4</v>
-      </c>
-      <c r="Q3">
-        <v>20</v>
-      </c>
-      <c r="R3">
-        <v>0.521</v>
-      </c>
-      <c r="S3">
-        <v>5.1</v>
-      </c>
-      <c r="T3">
-        <v>6.1</v>
-      </c>
-      <c r="U3">
-        <v>0.835</v>
-      </c>
-      <c r="X3">
-        <v>16</v>
-      </c>
-      <c r="Y3">
-        <v>5.1</v>
-      </c>
-      <c r="AB3">
-        <v>3.9</v>
-      </c>
-      <c r="AC3">
-        <v>1.9</v>
-      </c>
-      <c r="AD3">
-        <v>26.1</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>-3009</v>
-      </c>
-      <c r="J4">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="K4">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="L4">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="M4">
-        <v>0.1</v>
-      </c>
-      <c r="N4">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="O4">
-        <v>0.062</v>
-      </c>
-      <c r="P4">
-        <v>1.1</v>
-      </c>
-      <c r="Q4">
-        <v>1.5</v>
-      </c>
-      <c r="R4">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="S4">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="T4">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="U4">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="X4">
-        <v>2.5</v>
-      </c>
-      <c r="Y4">
-        <v>1.7</v>
-      </c>
-      <c r="AB4">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="AC4">
-        <v>-0.8000000000000003</v>
-      </c>
-      <c r="AD4">
-        <v>2.600000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5">
-        <v>71</v>
-      </c>
-      <c r="I5">
-        <v>2993</v>
-      </c>
-      <c r="J5">
-        <v>10.8</v>
-      </c>
-      <c r="K5">
-        <v>21.7</v>
-      </c>
-      <c r="L5">
-        <v>0.496</v>
-      </c>
-      <c r="M5">
-        <v>0.1</v>
-      </c>
-      <c r="N5">
-        <v>0.3</v>
-      </c>
-      <c r="O5">
-        <v>0.208</v>
-      </c>
-      <c r="P5">
-        <v>10.7</v>
-      </c>
-      <c r="Q5">
-        <v>21.4</v>
-      </c>
-      <c r="R5">
-        <v>0.499</v>
-      </c>
-      <c r="S5">
-        <v>5.7</v>
-      </c>
-      <c r="T5">
-        <v>7.4</v>
-      </c>
-      <c r="U5">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="V5">
-        <v>3.2</v>
-      </c>
-      <c r="W5">
-        <v>7.3</v>
-      </c>
-      <c r="X5">
-        <v>10.4</v>
-      </c>
-      <c r="Y5">
-        <v>3.6</v>
-      </c>
-      <c r="Z5">
-        <v>2.2</v>
-      </c>
-      <c r="AA5">
-        <v>1.5</v>
-      </c>
-      <c r="AB5">
-        <v>3.9</v>
-      </c>
-      <c r="AC5">
-        <v>2.4</v>
-      </c>
-      <c r="AD5">
-        <v>27.3</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>219</v>
-      </c>
-      <c r="J6">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K6">
-        <v>18.4</v>
-      </c>
-      <c r="L6">
-        <v>0.527</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0.5</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="Q6">
-        <v>17.9</v>
-      </c>
-      <c r="R6">
-        <v>0.541</v>
-      </c>
-      <c r="S6">
-        <v>4.9</v>
-      </c>
-      <c r="T6">
-        <v>6.6</v>
-      </c>
-      <c r="U6">
-        <v>0.75</v>
-      </c>
-      <c r="V6">
-        <v>2.3</v>
-      </c>
-      <c r="W6">
-        <v>5.1</v>
-      </c>
-      <c r="X6">
-        <v>7.4</v>
-      </c>
-      <c r="Y6">
-        <v>2.6</v>
-      </c>
-      <c r="AB6">
-        <v>2.8</v>
-      </c>
-      <c r="AC6">
-        <v>2.6</v>
-      </c>
-      <c r="AD6">
-        <v>24.3</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>-2774</v>
-      </c>
-      <c r="J7">
-        <v>-1.100000000000001</v>
-      </c>
-      <c r="K7">
-        <v>-3.300000000000001</v>
-      </c>
-      <c r="L7">
-        <v>0.03100000000000003</v>
-      </c>
-      <c r="M7">
-        <v>-0.1</v>
-      </c>
-      <c r="N7">
-        <v>0.2</v>
-      </c>
-      <c r="O7">
-        <v>-0.208</v>
-      </c>
-      <c r="P7">
-        <v>-1</v>
-      </c>
-      <c r="Q7">
-        <v>-3.5</v>
-      </c>
-      <c r="R7">
-        <v>0.04200000000000004</v>
-      </c>
-      <c r="S7">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="T7">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="U7">
-        <v>-0.02599999999999991</v>
-      </c>
-      <c r="V7">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="W7">
-        <v>-2.2</v>
-      </c>
-      <c r="X7">
-        <v>-3</v>
-      </c>
-      <c r="Y7">
-        <v>-1</v>
-      </c>
-      <c r="AB7">
-        <v>-1.1</v>
-      </c>
-      <c r="AC7">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="AD7">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8">
-        <v>84</v>
-      </c>
-      <c r="I8">
-        <v>3398</v>
-      </c>
-      <c r="J8">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K8">
-        <v>18.9</v>
-      </c>
-      <c r="L8">
-        <v>0.512</v>
-      </c>
-      <c r="M8">
-        <v>0.2</v>
-      </c>
-      <c r="N8">
-        <v>0.5</v>
-      </c>
-      <c r="O8">
-        <v>0.395</v>
-      </c>
-      <c r="P8">
-        <v>9.5</v>
-      </c>
-      <c r="Q8">
-        <v>18.5</v>
-      </c>
-      <c r="R8">
-        <v>0.515</v>
-      </c>
-      <c r="S8">
-        <v>4.8</v>
-      </c>
-      <c r="T8">
-        <v>6.3</v>
-      </c>
-      <c r="U8">
-        <v>0.7659999999999999</v>
-      </c>
-      <c r="V8">
-        <v>2.8</v>
-      </c>
-      <c r="W8">
-        <v>6.7</v>
-      </c>
-      <c r="X8">
-        <v>9.5</v>
-      </c>
-      <c r="Y8">
-        <v>4.6</v>
-      </c>
-      <c r="Z8">
-        <v>2</v>
-      </c>
-      <c r="AA8">
-        <v>2.2</v>
-      </c>
-      <c r="AB8">
-        <v>3.6</v>
-      </c>
-      <c r="AC8">
-        <v>2.9</v>
-      </c>
-      <c r="AD8">
-        <v>24.4</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9">
-        <v>14</v>
-      </c>
-      <c r="I9">
-        <v>579</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-      <c r="K9">
-        <v>19</v>
-      </c>
-      <c r="L9">
-        <v>0.528</v>
-      </c>
-      <c r="M9">
-        <v>0.3</v>
-      </c>
-      <c r="N9">
-        <v>0.7</v>
-      </c>
-      <c r="O9">
-        <v>0.455</v>
-      </c>
-      <c r="P9">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="Q9">
-        <v>18.3</v>
-      </c>
-      <c r="R9">
-        <v>0.531</v>
-      </c>
-      <c r="S9">
-        <v>3.9</v>
-      </c>
-      <c r="T9">
-        <v>5.3</v>
-      </c>
-      <c r="U9">
-        <v>0.741</v>
-      </c>
-      <c r="V9">
-        <v>2.7</v>
-      </c>
-      <c r="W9">
-        <v>5.7</v>
-      </c>
-      <c r="X9">
-        <v>8.4</v>
-      </c>
-      <c r="Y9">
-        <v>4.2</v>
-      </c>
-      <c r="Z9">
-        <v>1.4</v>
-      </c>
-      <c r="AA9">
-        <v>1.2</v>
-      </c>
-      <c r="AB9">
-        <v>3.2</v>
-      </c>
-      <c r="AC9">
-        <v>2.5</v>
-      </c>
-      <c r="AD9">
-        <v>24.2</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <v>-2819</v>
-      </c>
-      <c r="J10">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="K10">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="L10">
-        <v>0.01600000000000001</v>
-      </c>
-      <c r="M10">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="N10">
-        <v>0.2</v>
-      </c>
-      <c r="O10">
-        <v>0.06</v>
-      </c>
-      <c r="P10">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="Q10">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="R10">
-        <v>0.01600000000000001</v>
-      </c>
-      <c r="S10">
-        <v>-0.8999999999999999</v>
-      </c>
-      <c r="T10">
-        <v>-1</v>
-      </c>
-      <c r="U10">
-        <v>-0.02499999999999991</v>
-      </c>
-      <c r="V10">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="W10">
-        <v>-1</v>
-      </c>
-      <c r="X10">
-        <v>-1.1</v>
-      </c>
-      <c r="Y10">
-        <v>-0.3999999999999995</v>
-      </c>
-      <c r="Z10">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="AA10">
-        <v>-1</v>
-      </c>
-      <c r="AB10">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="AC10">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="AD10">
-        <v>-0.1999999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11">
-        <v>84</v>
-      </c>
-      <c r="I11">
-        <v>3402</v>
-      </c>
-      <c r="J11">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K11">
-        <v>19.1</v>
-      </c>
-      <c r="L11">
-        <v>0.506</v>
-      </c>
-      <c r="M11">
-        <v>0.3</v>
-      </c>
-      <c r="N11">
-        <v>0.9</v>
-      </c>
-      <c r="O11">
-        <v>0.333</v>
-      </c>
-      <c r="P11">
-        <v>9.4</v>
-      </c>
-      <c r="Q11">
-        <v>18.2</v>
-      </c>
-      <c r="R11">
-        <v>0.515</v>
-      </c>
-      <c r="S11">
-        <v>5.1</v>
-      </c>
-      <c r="T11">
-        <v>6.4</v>
-      </c>
-      <c r="U11">
-        <v>0.799</v>
-      </c>
-      <c r="V11">
-        <v>3</v>
-      </c>
-      <c r="W11">
-        <v>6.7</v>
-      </c>
-      <c r="X11">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="Y11">
-        <v>4.9</v>
-      </c>
-      <c r="Z11">
-        <v>2</v>
-      </c>
-      <c r="AA11">
-        <v>1.7</v>
-      </c>
-      <c r="AB11">
-        <v>3.2</v>
-      </c>
-      <c r="AC11">
-        <v>2.7</v>
-      </c>
-      <c r="AD11">
-        <v>24.8</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="I12">
-        <v>211</v>
-      </c>
-      <c r="J12">
-        <v>9.4</v>
-      </c>
-      <c r="K12">
-        <v>20.6</v>
-      </c>
-      <c r="L12">
-        <v>0.455</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1.4</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>9.4</v>
-      </c>
-      <c r="Q12">
-        <v>19.3</v>
-      </c>
-      <c r="R12">
-        <v>0.487</v>
-      </c>
-      <c r="S12">
-        <v>4.6</v>
-      </c>
-      <c r="T12">
-        <v>5.5</v>
-      </c>
-      <c r="U12">
-        <v>0.8440000000000001</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
-      <c r="W12">
-        <v>6.3</v>
-      </c>
-      <c r="X12">
-        <v>8.4</v>
-      </c>
-      <c r="Y12">
-        <v>4.8</v>
-      </c>
-      <c r="Z12">
-        <v>0.9</v>
-      </c>
-      <c r="AA12">
-        <v>1.5</v>
-      </c>
-      <c r="AB12">
-        <v>3.2</v>
-      </c>
-      <c r="AC12">
-        <v>3.1</v>
-      </c>
-      <c r="AD12">
-        <v>23.4</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="I13">
-        <v>-3191</v>
-      </c>
-      <c r="J13">
-        <v>-0.2999999999999989</v>
-      </c>
-      <c r="K13">
-        <v>1.5</v>
-      </c>
-      <c r="L13">
-        <v>-0.05099999999999999</v>
-      </c>
-      <c r="M13">
-        <v>-0.3</v>
-      </c>
-      <c r="N13">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="O13">
-        <v>-0.333</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="R13">
-        <v>-0.02799999999999997</v>
-      </c>
-      <c r="S13">
-        <v>-0.5</v>
-      </c>
-      <c r="T13">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="U13">
-        <v>0.04500000000000004</v>
-      </c>
-      <c r="V13">
-        <v>-1</v>
-      </c>
-      <c r="W13">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="X13">
-        <v>-1.299999999999999</v>
-      </c>
-      <c r="Y13">
-        <v>-0.1000000000000005</v>
-      </c>
-      <c r="Z13">
-        <v>-1.1</v>
-      </c>
-      <c r="AA13">
-        <v>-0.2</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="AD13">
-        <v>-1.400000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14">
-        <v>84</v>
-      </c>
-      <c r="I14">
-        <v>3244</v>
-      </c>
-      <c r="J14">
-        <v>10.5</v>
-      </c>
-      <c r="K14">
-        <v>20.8</v>
-      </c>
-      <c r="L14">
-        <v>0.507</v>
-      </c>
-      <c r="M14">
-        <v>0.4</v>
-      </c>
-      <c r="N14">
-        <v>1.1</v>
-      </c>
-      <c r="O14">
-        <v>0.33</v>
-      </c>
-      <c r="P14">
-        <v>10.2</v>
-      </c>
-      <c r="Q14">
-        <v>19.6</v>
-      </c>
-      <c r="R14">
-        <v>0.517</v>
-      </c>
-      <c r="S14">
-        <v>5.9</v>
-      </c>
-      <c r="T14">
-        <v>7.3</v>
-      </c>
-      <c r="U14">
-        <v>0.8009999999999999</v>
-      </c>
-      <c r="V14">
-        <v>3.7</v>
-      </c>
-      <c r="W14">
-        <v>6.5</v>
-      </c>
-      <c r="X14">
-        <v>10.3</v>
-      </c>
-      <c r="Y14">
-        <v>4.7</v>
-      </c>
-      <c r="Z14">
-        <v>2.3</v>
-      </c>
-      <c r="AA14">
-        <v>1.8</v>
-      </c>
-      <c r="AB14">
-        <v>3.4</v>
-      </c>
-      <c r="AC14">
-        <v>2.5</v>
-      </c>
-      <c r="AD14">
-        <v>27.3</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15">
-        <v>13</v>
-      </c>
-      <c r="I15">
-        <v>551</v>
-      </c>
-      <c r="J15">
-        <v>10.5</v>
-      </c>
-      <c r="K15">
-        <v>19.6</v>
-      </c>
-      <c r="L15">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="M15">
-        <v>0.3</v>
-      </c>
-      <c r="N15">
-        <v>0.9</v>
-      </c>
-      <c r="O15">
-        <v>0.286</v>
-      </c>
-      <c r="P15">
-        <v>10.2</v>
-      </c>
-      <c r="Q15">
-        <v>18.7</v>
-      </c>
-      <c r="R15">
-        <v>0.545</v>
-      </c>
-      <c r="S15">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="T15">
-        <v>10.3</v>
-      </c>
-      <c r="U15">
-        <v>0.804</v>
-      </c>
-      <c r="V15">
-        <v>4.2</v>
-      </c>
-      <c r="W15">
-        <v>6.5</v>
-      </c>
-      <c r="X15">
-        <v>10.7</v>
-      </c>
-      <c r="Y15">
-        <v>4.2</v>
-      </c>
-      <c r="Z15">
-        <v>1.6</v>
-      </c>
-      <c r="AA15">
-        <v>1.7</v>
-      </c>
-      <c r="AB15">
-        <v>2.5</v>
-      </c>
-      <c r="AC15">
-        <v>2.7</v>
-      </c>
-      <c r="AD15">
-        <v>29.5</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="I16">
-        <v>-2693</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="L16">
-        <v>0.02599999999999991</v>
-      </c>
-      <c r="M16">
-        <v>-0.1</v>
-      </c>
-      <c r="N16">
-        <v>-0.2000000000000001</v>
-      </c>
-      <c r="O16">
-        <v>-0.04399999999999998</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>-0.9000000000000021</v>
-      </c>
-      <c r="R16">
-        <v>0.02800000000000002</v>
-      </c>
-      <c r="S16">
-        <v>2.4</v>
-      </c>
-      <c r="T16">
-        <v>3.000000000000001</v>
-      </c>
-      <c r="U16">
-        <v>0.003000000000000114</v>
-      </c>
-      <c r="V16">
-        <v>0.5</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="Y16">
-        <v>-0.5</v>
-      </c>
-      <c r="Z16">
-        <v>-0.6999999999999997</v>
-      </c>
-      <c r="AA16">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AB16">
-        <v>-0.8999999999999999</v>
-      </c>
-      <c r="AC16">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="AD16">
-        <v>2.199999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17">
-        <v>82</v>
-      </c>
-      <c r="H17">
-        <v>77</v>
-      </c>
-      <c r="I17">
-        <v>2940</v>
-      </c>
-      <c r="J17">
-        <v>8.4</v>
-      </c>
-      <c r="K17">
-        <v>16.8</v>
-      </c>
-      <c r="L17">
-        <v>0.499</v>
-      </c>
-      <c r="P17">
-        <v>8.4</v>
-      </c>
-      <c r="Q17">
-        <v>16.8</v>
-      </c>
-      <c r="R17">
-        <v>0.499</v>
-      </c>
-      <c r="S17">
-        <v>4.9</v>
-      </c>
-      <c r="T17">
-        <v>6.3</v>
-      </c>
-      <c r="U17">
-        <v>0.777</v>
-      </c>
-      <c r="V17">
-        <v>2.4</v>
-      </c>
-      <c r="W17">
-        <v>6.2</v>
-      </c>
-      <c r="X17">
-        <v>8.5</v>
-      </c>
-      <c r="Y17">
-        <v>3.7</v>
-      </c>
-      <c r="Z17">
-        <v>1.9</v>
-      </c>
-      <c r="AA17">
-        <v>1.4</v>
-      </c>
-      <c r="AC17">
-        <v>3.1</v>
-      </c>
-      <c r="AD17">
-        <v>21.7</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18">
-        <v>19</v>
-      </c>
-      <c r="I18">
-        <v>758</v>
-      </c>
-      <c r="J18">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K18">
-        <v>18.5</v>
-      </c>
-      <c r="L18">
-        <v>0.523</v>
-      </c>
-      <c r="P18">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="Q18">
-        <v>18.5</v>
-      </c>
-      <c r="R18">
-        <v>0.523</v>
-      </c>
-      <c r="S18">
-        <v>5.2</v>
-      </c>
-      <c r="T18">
-        <v>6.4</v>
-      </c>
-      <c r="U18">
-        <v>0.821</v>
-      </c>
-      <c r="V18">
-        <v>1.9</v>
-      </c>
-      <c r="W18">
-        <v>3.8</v>
-      </c>
-      <c r="X18">
-        <v>5.8</v>
-      </c>
-      <c r="Y18">
-        <v>4</v>
-      </c>
-      <c r="Z18">
-        <v>1.9</v>
-      </c>
-      <c r="AA18">
-        <v>1.1</v>
-      </c>
-      <c r="AC18">
-        <v>2.1</v>
-      </c>
-      <c r="AD18">
-        <v>24.6</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="I19">
-        <v>-2182</v>
-      </c>
-      <c r="J19">
-        <v>1.299999999999999</v>
-      </c>
-      <c r="K19">
-        <v>1.699999999999999</v>
-      </c>
-      <c r="L19">
-        <v>0.02400000000000002</v>
-      </c>
-      <c r="P19">
-        <v>1.299999999999999</v>
-      </c>
-      <c r="Q19">
-        <v>1.699999999999999</v>
-      </c>
-      <c r="R19">
-        <v>0.02400000000000002</v>
-      </c>
-      <c r="S19">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="T19">
-        <v>0.1000000000000005</v>
-      </c>
-      <c r="U19">
-        <v>0.04399999999999993</v>
-      </c>
-      <c r="V19">
-        <v>-0.5</v>
-      </c>
-      <c r="W19">
-        <v>-2.4</v>
-      </c>
-      <c r="X19">
-        <v>-2.7</v>
-      </c>
-      <c r="Y19">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="AC19">
-        <v>-1</v>
-      </c>
-      <c r="AD19">
-        <v>2.900000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20">
-        <v>74</v>
-      </c>
-      <c r="H20">
-        <v>68</v>
-      </c>
-      <c r="I20">
-        <v>2429</v>
-      </c>
-      <c r="J20">
-        <v>9.1</v>
-      </c>
-      <c r="K20">
-        <v>18</v>
-      </c>
-      <c r="L20">
-        <v>0.502</v>
-      </c>
-      <c r="P20">
-        <v>9.1</v>
-      </c>
-      <c r="Q20">
-        <v>18</v>
-      </c>
-      <c r="R20">
-        <v>0.502</v>
-      </c>
-      <c r="S20">
-        <v>4.5</v>
-      </c>
-      <c r="T20">
-        <v>5.4</v>
-      </c>
-      <c r="U20">
-        <v>0.845</v>
-      </c>
-      <c r="V20">
-        <v>2.7</v>
-      </c>
-      <c r="W20">
-        <v>4.5</v>
-      </c>
-      <c r="X20">
-        <v>7.1</v>
-      </c>
-      <c r="Y20">
-        <v>4.1</v>
-      </c>
-      <c r="Z20">
-        <v>2</v>
-      </c>
-      <c r="AA20">
-        <v>1.4</v>
-      </c>
-      <c r="AB20">
-        <v>3.5</v>
-      </c>
-      <c r="AC20">
-        <v>3.1</v>
-      </c>
-      <c r="AD20">
-        <v>22.6</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21">
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <v>358</v>
-      </c>
-      <c r="J21">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="K21">
-        <v>18.1</v>
-      </c>
-      <c r="L21">
-        <v>0.489</v>
-      </c>
-      <c r="P21">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Q21">
-        <v>18.1</v>
-      </c>
-      <c r="R21">
-        <v>0.489</v>
-      </c>
-      <c r="S21">
-        <v>4.2</v>
-      </c>
-      <c r="T21">
-        <v>5.6</v>
-      </c>
-      <c r="U21">
-        <v>0.75</v>
-      </c>
-      <c r="V21">
-        <v>4</v>
-      </c>
-      <c r="W21">
-        <v>5.7</v>
-      </c>
-      <c r="X21">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y21">
-        <v>4</v>
-      </c>
-      <c r="Z21">
-        <v>1.5</v>
-      </c>
-      <c r="AA21">
-        <v>1.8</v>
-      </c>
-      <c r="AB21">
-        <v>3.5</v>
-      </c>
-      <c r="AC21">
-        <v>3</v>
-      </c>
-      <c r="AD21">
-        <v>21.9</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="I22">
-        <v>-2071</v>
-      </c>
-      <c r="J22">
-        <v>-0.2999999999999989</v>
-      </c>
-      <c r="K22">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="L22">
-        <v>-0.01300000000000001</v>
-      </c>
-      <c r="P22">
-        <v>-0.2999999999999989</v>
-      </c>
-      <c r="Q22">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="R22">
-        <v>-0.01300000000000001</v>
-      </c>
-      <c r="S22">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="T22">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="U22">
-        <v>-0.09499999999999997</v>
-      </c>
-      <c r="V22">
-        <v>1.3</v>
-      </c>
-      <c r="W22">
-        <v>1.2</v>
-      </c>
-      <c r="X22">
-        <v>2.700000000000001</v>
-      </c>
-      <c r="Y22">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="Z22">
-        <v>-0.5</v>
-      </c>
-      <c r="AA22">
-        <v>0.4000000000000001</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AD22">
-        <v>-0.7000000000000028</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23">
-        <v>78</v>
-      </c>
-      <c r="H23">
-        <v>76</v>
-      </c>
-      <c r="I23">
-        <v>2802</v>
-      </c>
-      <c r="J23">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K23">
-        <v>18.7</v>
-      </c>
-      <c r="L23">
-        <v>0.491</v>
-      </c>
-      <c r="P23">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Q23">
-        <v>18.7</v>
-      </c>
-      <c r="R23">
-        <v>0.491</v>
-      </c>
-      <c r="S23">
-        <v>4.8</v>
-      </c>
-      <c r="T23">
-        <v>6.4</v>
-      </c>
-      <c r="U23">
-        <v>0.745</v>
-      </c>
-      <c r="V23">
-        <v>2.5</v>
-      </c>
-      <c r="W23">
-        <v>4.7</v>
-      </c>
-      <c r="X23">
-        <v>7.2</v>
-      </c>
-      <c r="Y23">
-        <v>4.6</v>
-      </c>
-      <c r="Z23">
-        <v>1.7</v>
-      </c>
-      <c r="AA23">
-        <v>1.3</v>
-      </c>
-      <c r="AB23">
-        <v>4</v>
-      </c>
-      <c r="AC23">
-        <v>2.7</v>
-      </c>
-      <c r="AD23">
-        <v>23.2</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24">
-        <v>9</v>
-      </c>
-      <c r="I24">
-        <v>372</v>
-      </c>
-      <c r="J24">
-        <v>8.6</v>
-      </c>
-      <c r="K24">
-        <v>16.6</v>
-      </c>
-      <c r="L24">
-        <v>0.517</v>
-      </c>
-      <c r="P24">
-        <v>8.6</v>
-      </c>
-      <c r="Q24">
-        <v>16.6</v>
-      </c>
-      <c r="R24">
-        <v>0.517</v>
-      </c>
-      <c r="S24">
-        <v>4.9</v>
-      </c>
-      <c r="T24">
-        <v>6.5</v>
-      </c>
-      <c r="U24">
-        <v>0.7609999999999999</v>
-      </c>
-      <c r="V24">
-        <v>2.8</v>
-      </c>
-      <c r="W24">
-        <v>4</v>
-      </c>
-      <c r="X24">
-        <v>6.8</v>
-      </c>
-      <c r="Y24">
-        <v>5.1</v>
-      </c>
-      <c r="Z24">
-        <v>1.7</v>
-      </c>
-      <c r="AA24">
-        <v>1.6</v>
-      </c>
-      <c r="AB24">
-        <v>3.7</v>
-      </c>
-      <c r="AC24">
-        <v>2.1</v>
-      </c>
-      <c r="AD24">
-        <v>22.2</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="I25">
-        <v>-2430</v>
-      </c>
-      <c r="J25">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="K25">
-        <v>-2.099999999999998</v>
-      </c>
-      <c r="L25">
-        <v>0.02600000000000002</v>
-      </c>
-      <c r="P25">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="Q25">
-        <v>-2.099999999999998</v>
-      </c>
-      <c r="R25">
-        <v>0.02600000000000002</v>
-      </c>
-      <c r="S25">
-        <v>0.1000000000000005</v>
-      </c>
-      <c r="T25">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="U25">
-        <v>0.0159999999999999</v>
-      </c>
-      <c r="V25">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="W25">
-        <v>-0.7000000000000002</v>
-      </c>
-      <c r="X25">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="Y25">
-        <v>0.5</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0.3</v>
-      </c>
-      <c r="AB25">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="AC25">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="AD25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26">
-        <v>78</v>
-      </c>
-      <c r="H26">
-        <v>78</v>
-      </c>
-      <c r="I26">
-        <v>2812</v>
-      </c>
-      <c r="J26">
-        <v>10.7</v>
-      </c>
-      <c r="K26">
-        <v>20.7</v>
-      </c>
-      <c r="L26">
-        <v>0.519</v>
-      </c>
-      <c r="M26">
-        <v>0.1</v>
-      </c>
-      <c r="N26">
-        <v>0.3</v>
-      </c>
-      <c r="O26">
-        <v>0.2</v>
-      </c>
-      <c r="P26">
-        <v>10.7</v>
-      </c>
-      <c r="Q26">
-        <v>20.4</v>
-      </c>
-      <c r="R26">
-        <v>0.523</v>
-      </c>
-      <c r="S26">
-        <v>5.4</v>
-      </c>
-      <c r="T26">
-        <v>6.8</v>
-      </c>
-      <c r="U26">
-        <v>0.787</v>
-      </c>
-      <c r="V26">
-        <v>2.8</v>
-      </c>
-      <c r="W26">
-        <v>4.6</v>
-      </c>
-      <c r="X26">
-        <v>7.4</v>
-      </c>
-      <c r="Y26">
-        <v>4.5</v>
-      </c>
-      <c r="Z26">
-        <v>2.2</v>
-      </c>
-      <c r="AA26">
-        <v>1.8</v>
-      </c>
-      <c r="AB26">
-        <v>3.6</v>
-      </c>
-      <c r="AC26">
-        <v>2.7</v>
-      </c>
-      <c r="AD26">
-        <v>26.9</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27">
-        <v>18</v>
-      </c>
-      <c r="I27">
-        <v>694</v>
-      </c>
-      <c r="J27">
-        <v>8.6</v>
-      </c>
-      <c r="K27">
-        <v>17.5</v>
-      </c>
-      <c r="L27">
-        <v>0.488</v>
-      </c>
-      <c r="M27">
-        <v>0.1</v>
-      </c>
-      <c r="N27">
-        <v>0.5</v>
-      </c>
-      <c r="O27">
-        <v>0.222</v>
-      </c>
-      <c r="P27">
-        <v>8.5</v>
-      </c>
-      <c r="Q27">
-        <v>17.1</v>
-      </c>
-      <c r="R27">
-        <v>0.495</v>
-      </c>
-      <c r="S27">
-        <v>5.6</v>
-      </c>
-      <c r="T27">
-        <v>7.1</v>
-      </c>
-      <c r="U27">
-        <v>0.794</v>
-      </c>
-      <c r="V27">
-        <v>1.6</v>
-      </c>
-      <c r="W27">
-        <v>5.4</v>
-      </c>
-      <c r="X27">
-        <v>7.1</v>
-      </c>
-      <c r="Y27">
-        <v>4.1</v>
-      </c>
-      <c r="Z27">
-        <v>1.9</v>
-      </c>
-      <c r="AA27">
-        <v>1.9</v>
-      </c>
-      <c r="AB27">
-        <v>2.9</v>
-      </c>
-      <c r="AC27">
-        <v>2.9</v>
-      </c>
-      <c r="AD27">
-        <v>22.8</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="I28">
-        <v>-2118</v>
-      </c>
-      <c r="J28">
-        <v>-2.1</v>
-      </c>
-      <c r="K28">
-        <v>-3.199999999999999</v>
-      </c>
-      <c r="L28">
-        <v>-0.03100000000000003</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0.2</v>
-      </c>
-      <c r="O28">
-        <v>0.02199999999999999</v>
-      </c>
-      <c r="P28">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="Q28">
-        <v>-3.299999999999997</v>
-      </c>
-      <c r="R28">
-        <v>-0.02800000000000002</v>
-      </c>
-      <c r="S28">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="T28">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="U28">
-        <v>0.007000000000000006</v>
-      </c>
-      <c r="V28">
-        <v>-1.2</v>
-      </c>
-      <c r="W28">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="X28">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="Y28">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="Z28">
-        <v>-0.3000000000000003</v>
-      </c>
-      <c r="AA28">
-        <v>0.09999999999999987</v>
-      </c>
-      <c r="AB28">
-        <v>-0.7000000000000002</v>
-      </c>
-      <c r="AC28">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="AD28">
-        <v>-4.099999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29">
-        <v>82</v>
-      </c>
-      <c r="H29">
-        <v>82</v>
-      </c>
-      <c r="I29">
-        <v>2874</v>
-      </c>
-      <c r="J29">
-        <v>9.9</v>
-      </c>
-      <c r="K29">
-        <v>19.1</v>
-      </c>
-      <c r="L29">
-        <v>0.521</v>
-      </c>
-      <c r="M29">
-        <v>0.1</v>
-      </c>
-      <c r="N29">
-        <v>0.2</v>
-      </c>
-      <c r="O29">
-        <v>0.222</v>
-      </c>
-      <c r="P29">
-        <v>9.9</v>
-      </c>
-      <c r="Q29">
-        <v>18.9</v>
-      </c>
-      <c r="R29">
-        <v>0.525</v>
-      </c>
-      <c r="S29">
-        <v>5.3</v>
-      </c>
-      <c r="T29">
-        <v>6.7</v>
-      </c>
-      <c r="U29">
-        <v>0.787</v>
-      </c>
-      <c r="V29">
-        <v>3.1</v>
-      </c>
-      <c r="W29">
-        <v>5.2</v>
-      </c>
-      <c r="X29">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Y29">
-        <v>4.6</v>
-      </c>
-      <c r="Z29">
-        <v>2.2</v>
-      </c>
-      <c r="AA29">
-        <v>1.8</v>
-      </c>
-      <c r="AB29">
-        <v>3.3</v>
-      </c>
-      <c r="AC29">
-        <v>2.9</v>
-      </c>
-      <c r="AD29">
-        <v>25.2</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30">
-        <v>16</v>
-      </c>
-      <c r="I30">
-        <v>592</v>
-      </c>
-      <c r="J30">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="K30">
-        <v>18.3</v>
-      </c>
-      <c r="L30">
-        <v>0.475</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0.1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Q30">
-        <v>18.2</v>
-      </c>
-      <c r="R30">
-        <v>0.477</v>
-      </c>
-      <c r="S30">
-        <v>4.9</v>
-      </c>
-      <c r="T30">
-        <v>6.5</v>
-      </c>
-      <c r="U30">
-        <v>0.757</v>
-      </c>
-      <c r="V30">
-        <v>3.2</v>
-      </c>
-      <c r="W30">
-        <v>3.8</v>
-      </c>
-      <c r="X30">
-        <v>6.9</v>
-      </c>
-      <c r="Y30">
-        <v>3.3</v>
-      </c>
-      <c r="Z30">
-        <v>1.3</v>
-      </c>
-      <c r="AA30">
-        <v>2.5</v>
-      </c>
-      <c r="AB30">
-        <v>3.3</v>
-      </c>
-      <c r="AC30">
-        <v>3.3</v>
-      </c>
-      <c r="AD30">
-        <v>22.3</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="I31">
-        <v>-2282</v>
-      </c>
-      <c r="J31">
-        <v>-1.200000000000001</v>
-      </c>
-      <c r="K31">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="L31">
-        <v>-0.04600000000000004</v>
-      </c>
-      <c r="M31">
-        <v>-0.1</v>
-      </c>
-      <c r="N31">
-        <v>-0.1</v>
-      </c>
-      <c r="O31">
-        <v>-0.222</v>
-      </c>
-      <c r="P31">
-        <v>-1.200000000000001</v>
-      </c>
-      <c r="Q31">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="R31">
-        <v>-0.04799999999999999</v>
-      </c>
-      <c r="S31">
-        <v>-0.3999999999999995</v>
-      </c>
-      <c r="T31">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="U31">
-        <v>-0.03000000000000003</v>
-      </c>
-      <c r="V31">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="W31">
-        <v>-1.4</v>
-      </c>
-      <c r="X31">
-        <v>-1.299999999999999</v>
-      </c>
-      <c r="Y31">
-        <v>-1.3</v>
-      </c>
-      <c r="Z31">
-        <v>-0.9000000000000001</v>
-      </c>
-      <c r="AA31">
-        <v>0.7</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="AD31">
-        <v>-2.899999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32">
-        <v>81</v>
-      </c>
-      <c r="H32">
-        <v>81</v>
-      </c>
-      <c r="I32">
-        <v>2789</v>
-      </c>
-      <c r="J32">
-        <v>10.1</v>
-      </c>
-      <c r="K32">
-        <v>18.4</v>
-      </c>
-      <c r="L32">
-        <v>0.546</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0.1</v>
-      </c>
-      <c r="O32">
-        <v>0.273</v>
-      </c>
-      <c r="P32">
-        <v>10</v>
-      </c>
-      <c r="Q32">
-        <v>18.3</v>
-      </c>
-      <c r="R32">
-        <v>0.5479999999999999</v>
-      </c>
-      <c r="S32">
-        <v>5.3</v>
-      </c>
-      <c r="T32">
-        <v>7</v>
-      </c>
-      <c r="U32">
-        <v>0.763</v>
-      </c>
-      <c r="V32">
-        <v>2.8</v>
-      </c>
-      <c r="W32">
-        <v>4.3</v>
-      </c>
-      <c r="X32">
-        <v>7.2</v>
-      </c>
-      <c r="Y32">
-        <v>4.1</v>
-      </c>
-      <c r="Z32">
-        <v>2.1</v>
-      </c>
-      <c r="AA32">
-        <v>1.8</v>
-      </c>
-      <c r="AB32">
-        <v>2.8</v>
-      </c>
-      <c r="AC32">
-        <v>3</v>
-      </c>
-      <c r="AD32">
-        <v>25.5</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33">
-        <v>21</v>
-      </c>
-      <c r="I33">
-        <v>780</v>
-      </c>
-      <c r="J33">
-        <v>7.8</v>
-      </c>
-      <c r="K33">
-        <v>15</v>
-      </c>
-      <c r="L33">
-        <v>0.519</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0.3</v>
-      </c>
-      <c r="O33">
-        <v>0.167</v>
-      </c>
-      <c r="P33">
-        <v>7.7</v>
-      </c>
-      <c r="Q33">
-        <v>14.7</v>
-      </c>
-      <c r="R33">
-        <v>0.525</v>
-      </c>
-      <c r="S33">
-        <v>5.7</v>
-      </c>
-      <c r="T33">
-        <v>7.6</v>
-      </c>
-      <c r="U33">
-        <v>0.752</v>
-      </c>
-      <c r="V33">
-        <v>2.6</v>
-      </c>
-      <c r="W33">
-        <v>4.6</v>
-      </c>
-      <c r="X33">
-        <v>7.2</v>
-      </c>
-      <c r="Y33">
-        <v>4.6</v>
-      </c>
-      <c r="Z33">
-        <v>1.7</v>
-      </c>
-      <c r="AA33">
-        <v>1.7</v>
-      </c>
-      <c r="AB33">
-        <v>3.1</v>
-      </c>
-      <c r="AC33">
-        <v>2.5</v>
-      </c>
-      <c r="AD33">
-        <v>21.3</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="I34">
-        <v>-2009</v>
-      </c>
-      <c r="J34">
-        <v>-2.3</v>
-      </c>
-      <c r="K34">
-        <v>-3.399999999999999</v>
-      </c>
-      <c r="L34">
-        <v>-0.02700000000000002</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0.2</v>
-      </c>
-      <c r="O34">
-        <v>-0.106</v>
-      </c>
-      <c r="P34">
-        <v>-2.3</v>
-      </c>
-      <c r="Q34">
-        <v>-3.600000000000001</v>
-      </c>
-      <c r="R34">
-        <v>-0.02299999999999991</v>
-      </c>
-      <c r="S34">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="T34">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="U34">
-        <v>-0.01100000000000001</v>
-      </c>
-      <c r="V34">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="W34">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0.5</v>
-      </c>
-      <c r="Z34">
-        <v>-0.4000000000000001</v>
-      </c>
-      <c r="AA34">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AB34">
-        <v>0.3000000000000003</v>
-      </c>
-      <c r="AC34">
-        <v>-0.5</v>
-      </c>
-      <c r="AD34">
-        <v>-4.199999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35">
-        <v>72</v>
-      </c>
-      <c r="H35">
-        <v>72</v>
-      </c>
-      <c r="I35">
-        <v>2421</v>
-      </c>
-      <c r="J35">
-        <v>9</v>
-      </c>
-      <c r="K35">
-        <v>17.4</v>
-      </c>
-      <c r="L35">
-        <v>0.517</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0.1</v>
-      </c>
-      <c r="O35">
-        <v>0.286</v>
-      </c>
-      <c r="P35">
-        <v>9</v>
-      </c>
-      <c r="Q35">
-        <v>17.3</v>
-      </c>
-      <c r="R35">
-        <v>0.518</v>
-      </c>
-      <c r="S35">
-        <v>4.9</v>
-      </c>
-      <c r="T35">
-        <v>6.5</v>
-      </c>
-      <c r="U35">
-        <v>0.759</v>
-      </c>
-      <c r="V35">
-        <v>2.6</v>
-      </c>
-      <c r="W35">
-        <v>4.7</v>
-      </c>
-      <c r="X35">
-        <v>7.3</v>
-      </c>
-      <c r="Y35">
-        <v>3.9</v>
-      </c>
-      <c r="Z35">
-        <v>1.7</v>
-      </c>
-      <c r="AA35">
-        <v>1.9</v>
-      </c>
-      <c r="AB35">
-        <v>2.9</v>
-      </c>
-      <c r="AC35">
-        <v>3</v>
-      </c>
-      <c r="AD35">
-        <v>22.9</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36">
-        <v>13</v>
-      </c>
-      <c r="I36">
-        <v>493</v>
-      </c>
-      <c r="J36">
-        <v>6.9</v>
-      </c>
-      <c r="K36">
-        <v>15.4</v>
-      </c>
-      <c r="L36">
-        <v>0.45</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0.1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>6.9</v>
-      </c>
-      <c r="Q36">
-        <v>15.3</v>
-      </c>
-      <c r="R36">
-        <v>0.452</v>
-      </c>
-      <c r="S36">
-        <v>3.6</v>
-      </c>
-      <c r="T36">
-        <v>5</v>
-      </c>
-      <c r="U36">
-        <v>0.721</v>
-      </c>
-      <c r="V36">
-        <v>2.3</v>
-      </c>
-      <c r="W36">
-        <v>4.9</v>
-      </c>
-      <c r="X36">
-        <v>7.2</v>
-      </c>
-      <c r="Y36">
-        <v>3.2</v>
-      </c>
-      <c r="Z36">
-        <v>1.1</v>
-      </c>
-      <c r="AA36">
-        <v>2</v>
-      </c>
-      <c r="AB36">
-        <v>2.8</v>
-      </c>
-      <c r="AC36">
-        <v>3.1</v>
-      </c>
-      <c r="AD36">
-        <v>17.5</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="I37">
-        <v>-1928</v>
-      </c>
-      <c r="J37">
-        <v>-2.1</v>
-      </c>
-      <c r="K37">
-        <v>-1.999999999999998</v>
-      </c>
-      <c r="L37">
-        <v>-0.067</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>-0.286</v>
-      </c>
-      <c r="P37">
-        <v>-2.1</v>
-      </c>
-      <c r="Q37">
-        <v>-2</v>
-      </c>
-      <c r="R37">
-        <v>-0.066</v>
-      </c>
-      <c r="S37">
-        <v>-1.3</v>
-      </c>
-      <c r="T37">
-        <v>-1.5</v>
-      </c>
-      <c r="U37">
-        <v>-0.03800000000000003</v>
-      </c>
-      <c r="V37">
-        <v>-0.3000000000000003</v>
-      </c>
-      <c r="W37">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="X37">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="Y37">
-        <v>-0.6999999999999997</v>
-      </c>
-      <c r="Z37">
-        <v>-0.5999999999999999</v>
-      </c>
-      <c r="AA37">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AB37">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AC37">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AD37">
-        <v>-5.399999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38">
-        <v>77</v>
-      </c>
-      <c r="H38">
-        <v>77</v>
-      </c>
-      <c r="I38">
-        <v>2683</v>
-      </c>
-      <c r="J38">
-        <v>9.1</v>
-      </c>
-      <c r="K38">
-        <v>17.8</v>
-      </c>
-      <c r="L38">
-        <v>0.512</v>
-      </c>
-      <c r="M38">
-        <v>0.1</v>
-      </c>
-      <c r="N38">
-        <v>0.3</v>
-      </c>
-      <c r="O38">
-        <v>0.333</v>
-      </c>
-      <c r="P38">
-        <v>9</v>
-      </c>
-      <c r="Q38">
-        <v>17.5</v>
-      </c>
-      <c r="R38">
-        <v>0.515</v>
-      </c>
-      <c r="S38">
-        <v>4.9</v>
-      </c>
-      <c r="T38">
-        <v>6.5</v>
-      </c>
-      <c r="U38">
-        <v>0.754</v>
-      </c>
-      <c r="V38">
-        <v>2.5</v>
-      </c>
-      <c r="W38">
-        <v>4.6</v>
-      </c>
-      <c r="X38">
-        <v>7.1</v>
-      </c>
-      <c r="Y38">
-        <v>4.1</v>
-      </c>
-      <c r="Z38">
-        <v>1.9</v>
-      </c>
-      <c r="AA38">
-        <v>1.9</v>
-      </c>
-      <c r="AB38">
-        <v>3.1</v>
-      </c>
-      <c r="AC38">
-        <v>2.9</v>
-      </c>
-      <c r="AD38">
-        <v>23.2</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39">
-        <v>5</v>
-      </c>
-      <c r="I39">
-        <v>194</v>
-      </c>
-      <c r="J39">
-        <v>6.7</v>
-      </c>
-      <c r="K39">
-        <v>14.1</v>
-      </c>
-      <c r="L39">
-        <v>0.474</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0.2</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>6.7</v>
-      </c>
-      <c r="Q39">
-        <v>13.9</v>
-      </c>
-      <c r="R39">
-        <v>0.48</v>
-      </c>
-      <c r="S39">
-        <v>3.5</v>
-      </c>
-      <c r="T39">
-        <v>4.1</v>
-      </c>
-      <c r="U39">
-        <v>0.8640000000000001</v>
-      </c>
-      <c r="V39">
-        <v>1.7</v>
-      </c>
-      <c r="W39">
-        <v>4.3</v>
-      </c>
-      <c r="X39">
-        <v>5.9</v>
-      </c>
-      <c r="Y39">
-        <v>4.6</v>
-      </c>
-      <c r="Z39">
-        <v>1.5</v>
-      </c>
-      <c r="AA39">
-        <v>1.1</v>
-      </c>
-      <c r="AB39">
-        <v>3.9</v>
-      </c>
-      <c r="AC39">
-        <v>2.6</v>
-      </c>
-      <c r="AD39">
-        <v>16.9</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="I40">
-        <v>-2489</v>
-      </c>
-      <c r="J40">
-        <v>-2.399999999999999</v>
-      </c>
-      <c r="K40">
-        <v>-3.700000000000001</v>
-      </c>
-      <c r="L40">
-        <v>-0.03800000000000003</v>
-      </c>
-      <c r="M40">
-        <v>-0.1</v>
-      </c>
-      <c r="N40">
-        <v>-0.09999999999999998</v>
-      </c>
-      <c r="O40">
-        <v>-0.333</v>
-      </c>
-      <c r="P40">
-        <v>-2.3</v>
-      </c>
-      <c r="Q40">
-        <v>-3.6</v>
-      </c>
-      <c r="R40">
-        <v>-0.03500000000000003</v>
-      </c>
-      <c r="S40">
-        <v>-1.4</v>
-      </c>
-      <c r="T40">
-        <v>-2.4</v>
-      </c>
-      <c r="U40">
-        <v>0.1100000000000001</v>
-      </c>
-      <c r="V40">
-        <v>-0.8</v>
-      </c>
-      <c r="W40">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="X40">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="Y40">
-        <v>0.5</v>
-      </c>
-      <c r="Z40">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="AA40">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="AB40">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="AC40">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="AD40">
-        <v>-6.300000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41">
-        <v>78</v>
-      </c>
-      <c r="H41">
-        <v>78</v>
-      </c>
-      <c r="I41">
-        <v>2535</v>
-      </c>
-      <c r="J41">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="K41">
-        <v>17.6</v>
-      </c>
-      <c r="L41">
-        <v>0.494</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0.2</v>
-      </c>
-      <c r="O41">
-        <v>0.214</v>
-      </c>
-      <c r="P41">
-        <v>8.6</v>
-      </c>
-      <c r="Q41">
-        <v>17.4</v>
-      </c>
-      <c r="R41">
-        <v>0.4970000000000001</v>
-      </c>
-      <c r="S41">
-        <v>4.8</v>
-      </c>
-      <c r="T41">
-        <v>6.3</v>
-      </c>
-      <c r="U41">
-        <v>0.765</v>
-      </c>
-      <c r="V41">
-        <v>2.4</v>
-      </c>
-      <c r="W41">
-        <v>3.4</v>
-      </c>
-      <c r="X41">
-        <v>5.9</v>
-      </c>
-      <c r="Y41">
-        <v>3.3</v>
-      </c>
-      <c r="Z41">
-        <v>1.9</v>
-      </c>
-      <c r="AA41">
-        <v>1.5</v>
-      </c>
-      <c r="AB41">
-        <v>3</v>
-      </c>
-      <c r="AC41">
-        <v>2.8</v>
-      </c>
-      <c r="AD41">
-        <v>22.2</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42">
-        <v>13</v>
-      </c>
-      <c r="H42">
-        <v>13</v>
-      </c>
-      <c r="I42">
-        <v>434</v>
-      </c>
-      <c r="J42">
-        <v>7</v>
-      </c>
-      <c r="K42">
-        <v>15.5</v>
-      </c>
-      <c r="L42">
-        <v>0.449</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0.1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>7</v>
-      </c>
-      <c r="Q42">
-        <v>15.4</v>
-      </c>
-      <c r="R42">
-        <v>0.452</v>
-      </c>
-      <c r="S42">
-        <v>4.5</v>
-      </c>
-      <c r="T42">
-        <v>5.2</v>
-      </c>
-      <c r="U42">
-        <v>0.857</v>
-      </c>
-      <c r="V42">
-        <v>2.4</v>
-      </c>
-      <c r="W42">
-        <v>3.6</v>
-      </c>
-      <c r="X42">
-        <v>6.1</v>
-      </c>
-      <c r="Y42">
-        <v>4</v>
-      </c>
-      <c r="Z42">
-        <v>2.1</v>
-      </c>
-      <c r="AA42">
-        <v>0.9</v>
-      </c>
-      <c r="AB42">
-        <v>3.1</v>
-      </c>
-      <c r="AC42">
-        <v>2.8</v>
-      </c>
-      <c r="AD42">
-        <v>18.4</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="I43">
-        <v>-2101</v>
-      </c>
-      <c r="J43">
-        <v>-1.699999999999999</v>
-      </c>
-      <c r="K43">
-        <v>-2.100000000000001</v>
-      </c>
-      <c r="L43">
-        <v>-0.04499999999999998</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>-0.1</v>
-      </c>
-      <c r="O43">
-        <v>-0.214</v>
-      </c>
-      <c r="P43">
-        <v>-1.6</v>
-      </c>
-      <c r="Q43">
-        <v>-1.999999999999998</v>
-      </c>
-      <c r="R43">
-        <v>-0.04500000000000004</v>
-      </c>
-      <c r="S43">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="T43">
-        <v>-1.1</v>
-      </c>
-      <c r="U43">
-        <v>0.09199999999999997</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="X43">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="Y43">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="Z43">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="AA43">
-        <v>-0.6</v>
-      </c>
-      <c r="AB43">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>-3.800000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" t="s">
-        <v>73</v>
-      </c>
-      <c r="G44">
-        <v>74</v>
-      </c>
-      <c r="H44">
-        <v>74</v>
-      </c>
-      <c r="I44">
-        <v>2474</v>
-      </c>
-      <c r="J44">
-        <v>7.6</v>
-      </c>
-      <c r="K44">
-        <v>15.8</v>
-      </c>
-      <c r="L44">
-        <v>0.48</v>
-      </c>
-      <c r="M44">
-        <v>0.1</v>
-      </c>
-      <c r="N44">
-        <v>0.5</v>
-      </c>
-      <c r="O44">
-        <v>0.281</v>
-      </c>
-      <c r="P44">
-        <v>7.5</v>
-      </c>
-      <c r="Q44">
-        <v>15.3</v>
-      </c>
-      <c r="R44">
-        <v>0.486</v>
-      </c>
-      <c r="S44">
-        <v>4.2</v>
-      </c>
-      <c r="T44">
-        <v>5.4</v>
-      </c>
-      <c r="U44">
-        <v>0.785</v>
-      </c>
-      <c r="V44">
-        <v>2.5</v>
-      </c>
-      <c r="W44">
-        <v>2.9</v>
-      </c>
-      <c r="X44">
-        <v>5.4</v>
-      </c>
-      <c r="Y44">
-        <v>3.6</v>
-      </c>
-      <c r="Z44">
-        <v>1.6</v>
-      </c>
-      <c r="AA44">
-        <v>1.2</v>
-      </c>
-      <c r="AB44">
-        <v>3.1</v>
-      </c>
-      <c r="AC44">
-        <v>2.9</v>
-      </c>
-      <c r="AD44">
-        <v>19.5</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" t="s">
-        <v>73</v>
-      </c>
-      <c r="G45">
-        <v>12</v>
-      </c>
-      <c r="H45">
-        <v>12</v>
-      </c>
-      <c r="I45">
-        <v>433</v>
-      </c>
-      <c r="J45">
-        <v>6.7</v>
-      </c>
-      <c r="K45">
-        <v>15</v>
-      </c>
-      <c r="L45">
-        <v>0.45</v>
-      </c>
-      <c r="M45">
-        <v>0.2</v>
-      </c>
-      <c r="N45">
-        <v>0.9</v>
-      </c>
-      <c r="O45">
-        <v>0.182</v>
-      </c>
-      <c r="P45">
-        <v>6.6</v>
-      </c>
-      <c r="Q45">
-        <v>14.1</v>
-      </c>
-      <c r="R45">
-        <v>0.467</v>
-      </c>
-      <c r="S45">
-        <v>4</v>
-      </c>
-      <c r="T45">
-        <v>5.4</v>
-      </c>
-      <c r="U45">
-        <v>0.738</v>
-      </c>
-      <c r="V45">
-        <v>2.2</v>
-      </c>
-      <c r="W45">
-        <v>3.7</v>
-      </c>
-      <c r="X45">
-        <v>5.8</v>
-      </c>
-      <c r="Y45">
-        <v>4.2</v>
-      </c>
-      <c r="Z45">
-        <v>0.9</v>
-      </c>
-      <c r="AA45">
-        <v>1.3</v>
-      </c>
-      <c r="AB45">
-        <v>3.2</v>
-      </c>
-      <c r="AC45">
-        <v>2.7</v>
-      </c>
-      <c r="AD45">
-        <v>17.6</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="I46">
-        <v>-2041</v>
-      </c>
-      <c r="J46">
-        <v>-0.8999999999999995</v>
-      </c>
-      <c r="K46">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="L46">
-        <v>-0.02999999999999997</v>
-      </c>
-      <c r="M46">
-        <v>0.1</v>
-      </c>
-      <c r="N46">
-        <v>0.4</v>
-      </c>
-      <c r="O46">
-        <v>-0.09900000000000003</v>
-      </c>
-      <c r="P46">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="Q46">
-        <v>-1.200000000000001</v>
-      </c>
-      <c r="R46">
-        <v>-0.01899999999999996</v>
-      </c>
-      <c r="S46">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>-0.04700000000000004</v>
-      </c>
-      <c r="V46">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="W46">
-        <v>0.8000000000000003</v>
-      </c>
-      <c r="X46">
-        <v>0.3999999999999995</v>
-      </c>
-      <c r="Y46">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="Z46">
-        <v>-0.7000000000000001</v>
-      </c>
-      <c r="AA46">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AB46">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AC46">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="AD46">
-        <v>-1.899999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47">
-        <v>60</v>
-      </c>
-      <c r="H47">
-        <v>60</v>
-      </c>
-      <c r="I47">
-        <v>1918</v>
-      </c>
-      <c r="J47">
-        <v>7.5</v>
-      </c>
-      <c r="K47">
-        <v>16</v>
-      </c>
-      <c r="L47">
-        <v>0.471</v>
-      </c>
-      <c r="M47">
-        <v>0.3</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0.264</v>
-      </c>
-      <c r="P47">
-        <v>7.2</v>
-      </c>
-      <c r="Q47">
-        <v>15</v>
-      </c>
-      <c r="R47">
-        <v>0.484</v>
-      </c>
-      <c r="S47">
-        <v>3.6</v>
-      </c>
-      <c r="T47">
-        <v>4.4</v>
-      </c>
-      <c r="U47">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="V47">
-        <v>2.2</v>
-      </c>
-      <c r="W47">
-        <v>2.8</v>
-      </c>
-      <c r="X47">
-        <v>5</v>
-      </c>
-      <c r="Y47">
-        <v>3.6</v>
-      </c>
-      <c r="Z47">
-        <v>1.4</v>
-      </c>
-      <c r="AA47">
-        <v>1.8</v>
-      </c>
-      <c r="AB47">
-        <v>3</v>
-      </c>
-      <c r="AC47">
-        <v>2.6</v>
-      </c>
-      <c r="AD47">
-        <v>18.9</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48">
-        <v>5</v>
-      </c>
-      <c r="H48">
-        <v>5</v>
-      </c>
-      <c r="I48">
-        <v>180</v>
-      </c>
-      <c r="J48">
-        <v>6.8</v>
-      </c>
-      <c r="K48">
-        <v>16.4</v>
-      </c>
-      <c r="L48">
-        <v>0.415</v>
-      </c>
-      <c r="M48">
-        <v>0.4</v>
-      </c>
-      <c r="N48">
-        <v>1.2</v>
-      </c>
-      <c r="O48">
-        <v>0.333</v>
-      </c>
-      <c r="P48">
-        <v>6.4</v>
-      </c>
-      <c r="Q48">
-        <v>15.2</v>
-      </c>
-      <c r="R48">
-        <v>0.421</v>
-      </c>
-      <c r="S48">
-        <v>4.2</v>
-      </c>
-      <c r="T48">
-        <v>5</v>
-      </c>
-      <c r="U48">
-        <v>0.84</v>
-      </c>
-      <c r="V48">
-        <v>2.8</v>
-      </c>
-      <c r="W48">
-        <v>2.2</v>
-      </c>
-      <c r="X48">
-        <v>5</v>
-      </c>
-      <c r="Y48">
-        <v>3.4</v>
-      </c>
-      <c r="Z48">
-        <v>1.4</v>
-      </c>
-      <c r="AA48">
-        <v>1.2</v>
-      </c>
-      <c r="AB48">
-        <v>1.8</v>
-      </c>
-      <c r="AC48">
-        <v>3.8</v>
-      </c>
-      <c r="AD48">
-        <v>18.2</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="I49">
-        <v>-1738</v>
-      </c>
-      <c r="J49">
-        <v>-0.7000000000000002</v>
-      </c>
-      <c r="K49">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="L49">
-        <v>-0.05600000000000005</v>
-      </c>
-      <c r="M49">
-        <v>0.1</v>
-      </c>
-      <c r="N49">
-        <v>0.2</v>
-      </c>
-      <c r="O49">
-        <v>0.06899999999999995</v>
-      </c>
-      <c r="P49">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="Q49">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="R49">
-        <v>-0.06299999999999994</v>
-      </c>
-      <c r="S49">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="T49">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="U49">
-        <v>0.02700000000000002</v>
-      </c>
-      <c r="V49">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="W49">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="AB49">
-        <v>-1.2</v>
-      </c>
-      <c r="AC49">
-        <v>1.2</v>
-      </c>
-      <c r="AD49">
-        <v>-0.6999999999999993</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50">
-        <v>252</v>
-      </c>
-      <c r="I50">
-        <v>10044</v>
-      </c>
-      <c r="J50">
-        <v>10</v>
-      </c>
-      <c r="K50">
-        <v>19.6</v>
-      </c>
-      <c r="L50">
-        <v>0.508</v>
-      </c>
-      <c r="M50">
-        <v>0.3</v>
-      </c>
-      <c r="N50">
-        <v>0.8</v>
-      </c>
-      <c r="O50">
-        <v>0.343</v>
-      </c>
-      <c r="P50">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="Q50">
-        <v>18.7</v>
-      </c>
-      <c r="R50">
-        <v>0.516</v>
-      </c>
-      <c r="S50">
-        <v>5.3</v>
-      </c>
-      <c r="T50">
-        <v>6.7</v>
-      </c>
-      <c r="U50">
-        <v>0.789</v>
-      </c>
-      <c r="V50">
-        <v>3.2</v>
-      </c>
-      <c r="W50">
-        <v>6.6</v>
-      </c>
-      <c r="X50">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y50">
-        <v>4.7</v>
-      </c>
-      <c r="Z50">
-        <v>2.1</v>
-      </c>
-      <c r="AA50">
-        <v>1.9</v>
-      </c>
-      <c r="AB50">
-        <v>3.4</v>
-      </c>
-      <c r="AC50">
-        <v>2.7</v>
-      </c>
-      <c r="AD50">
-        <v>25.5</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" t="s">
-        <v>70</v>
-      </c>
-      <c r="G51">
-        <v>32</v>
-      </c>
-      <c r="I51">
-        <v>1341</v>
-      </c>
-      <c r="J51">
-        <v>10.1</v>
-      </c>
-      <c r="K51">
-        <v>19.5</v>
-      </c>
-      <c r="L51">
-        <v>0.518</v>
-      </c>
-      <c r="M51">
-        <v>0.2</v>
-      </c>
-      <c r="N51">
-        <v>0.9</v>
-      </c>
-      <c r="O51">
-        <v>0.273</v>
-      </c>
-      <c r="P51">
-        <v>9.9</v>
-      </c>
-      <c r="Q51">
-        <v>18.6</v>
-      </c>
-      <c r="R51">
-        <v>0.53</v>
-      </c>
-      <c r="S51">
-        <v>5.8</v>
-      </c>
-      <c r="T51">
-        <v>7.4</v>
-      </c>
-      <c r="U51">
-        <v>0.789</v>
-      </c>
-      <c r="V51">
-        <v>3.2</v>
-      </c>
-      <c r="W51">
-        <v>6.1</v>
-      </c>
-      <c r="X51">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="Y51">
-        <v>4.3</v>
-      </c>
-      <c r="Z51">
-        <v>1.4</v>
-      </c>
-      <c r="AA51">
-        <v>1.4</v>
-      </c>
-      <c r="AB51">
-        <v>2.9</v>
-      </c>
-      <c r="AC51">
-        <v>2.7</v>
-      </c>
-      <c r="AD51">
-        <v>26.3</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="I52">
-        <v>-8703</v>
-      </c>
-      <c r="J52">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="K52">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="L52">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="M52">
-        <v>-0.09999999999999998</v>
-      </c>
-      <c r="N52">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="O52">
-        <v>-0.06999999999999995</v>
-      </c>
-      <c r="P52">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="Q52">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="R52">
-        <v>0.01400000000000001</v>
-      </c>
-      <c r="S52">
-        <v>0.5</v>
-      </c>
-      <c r="T52">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>-0.5</v>
-      </c>
-      <c r="X52">
-        <v>-0.5</v>
-      </c>
-      <c r="Y52">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="Z52">
-        <v>-0.7000000000000002</v>
-      </c>
-      <c r="AA52">
-        <v>-0.5</v>
-      </c>
-      <c r="AB52">
-        <v>-0.5</v>
-      </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>0.8000000000000007</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" t="s">
-        <v>71</v>
-      </c>
-      <c r="G53">
-        <v>836</v>
-      </c>
-      <c r="H53">
-        <v>823</v>
-      </c>
-      <c r="I53">
-        <v>28677</v>
-      </c>
-      <c r="J53">
-        <v>9.1</v>
-      </c>
-      <c r="K53">
-        <v>17.9</v>
-      </c>
-      <c r="L53">
-        <v>0.507</v>
-      </c>
-      <c r="M53">
-        <v>0.1</v>
-      </c>
-      <c r="N53">
-        <v>0.3</v>
-      </c>
-      <c r="O53">
-        <v>0.261</v>
-      </c>
-      <c r="P53">
-        <v>9</v>
-      </c>
-      <c r="Q53">
-        <v>17.7</v>
-      </c>
-      <c r="R53">
-        <v>0.51</v>
-      </c>
-      <c r="S53">
-        <v>4.8</v>
-      </c>
-      <c r="T53">
-        <v>6.2</v>
-      </c>
-      <c r="U53">
-        <v>0.777</v>
-      </c>
-      <c r="V53">
-        <v>2.6</v>
-      </c>
-      <c r="W53">
-        <v>4.4</v>
-      </c>
-      <c r="X53">
-        <v>7</v>
-      </c>
-      <c r="Y53">
-        <v>4</v>
-      </c>
-      <c r="Z53">
-        <v>1.9</v>
-      </c>
-      <c r="AA53">
-        <v>1.6</v>
-      </c>
-      <c r="AB53">
-        <v>3.2</v>
-      </c>
-      <c r="AC53">
-        <v>2.9</v>
-      </c>
-      <c r="AD53">
-        <v>23.1</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" t="s">
-        <v>71</v>
-      </c>
-      <c r="G54">
-        <v>141</v>
-      </c>
-      <c r="H54">
-        <v>30</v>
-      </c>
-      <c r="I54">
-        <v>5288</v>
-      </c>
-      <c r="J54">
-        <v>8.1</v>
-      </c>
-      <c r="K54">
-        <v>16.6</v>
-      </c>
-      <c r="L54">
-        <v>0.486</v>
-      </c>
-      <c r="M54">
-        <v>0.1</v>
-      </c>
-      <c r="N54">
-        <v>0.3</v>
-      </c>
-      <c r="O54">
-        <v>0.194</v>
-      </c>
-      <c r="P54">
-        <v>8</v>
-      </c>
-      <c r="Q54">
-        <v>16.4</v>
-      </c>
-      <c r="R54">
-        <v>0.491</v>
-      </c>
-      <c r="S54">
-        <v>4.8</v>
-      </c>
-      <c r="T54">
-        <v>6.2</v>
-      </c>
-      <c r="U54">
-        <v>0.779</v>
-      </c>
-      <c r="V54">
-        <v>2.5</v>
-      </c>
-      <c r="W54">
-        <v>4.3</v>
-      </c>
-      <c r="X54">
-        <v>6.8</v>
-      </c>
-      <c r="Y54">
-        <v>4</v>
-      </c>
-      <c r="Z54">
-        <v>1.6</v>
-      </c>
-      <c r="AA54">
-        <v>1.6</v>
-      </c>
-      <c r="AB54">
-        <v>3.1</v>
-      </c>
-      <c r="AC54">
-        <v>2.7</v>
-      </c>
-      <c r="AD54">
-        <v>21</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="I55">
-        <v>-23389</v>
-      </c>
-      <c r="J55">
-        <v>-1</v>
-      </c>
-      <c r="K55">
-        <v>-1.299999999999997</v>
-      </c>
-      <c r="L55">
-        <v>-0.02100000000000002</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>-0.06700000000000003</v>
-      </c>
-      <c r="P55">
-        <v>-1</v>
-      </c>
-      <c r="Q55">
-        <v>-1.300000000000001</v>
-      </c>
-      <c r="R55">
-        <v>-0.01900000000000002</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0.002000000000000002</v>
-      </c>
-      <c r="V55">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="W55">
-        <v>-0.1000000000000005</v>
-      </c>
-      <c r="X55">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AC55">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="AD55">
-        <v>-2.100000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" t="s">
-        <v>70</v>
-      </c>
-      <c r="G56">
-        <v>155</v>
-      </c>
-      <c r="I56">
-        <v>6506</v>
-      </c>
-      <c r="J56">
-        <v>10</v>
-      </c>
-      <c r="K56">
-        <v>20.1</v>
-      </c>
-      <c r="L56">
-        <v>0.4970000000000001</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0.2</v>
-      </c>
-      <c r="O56">
-        <v>0.2</v>
-      </c>
-      <c r="P56">
-        <v>9.9</v>
-      </c>
-      <c r="Q56">
-        <v>19.9</v>
-      </c>
-      <c r="R56">
-        <v>0.5</v>
-      </c>
-      <c r="S56">
-        <v>5.2</v>
-      </c>
-      <c r="T56">
-        <v>6.9</v>
-      </c>
-      <c r="U56">
-        <v>0.76</v>
-      </c>
-      <c r="V56">
-        <v>4.1</v>
-      </c>
-      <c r="W56">
-        <v>8</v>
-      </c>
-      <c r="X56">
-        <v>12.1</v>
-      </c>
-      <c r="Y56">
-        <v>3.5</v>
-      </c>
-      <c r="Z56">
-        <v>2.2</v>
-      </c>
-      <c r="AA56">
-        <v>1.5</v>
-      </c>
-      <c r="AB56">
-        <v>3.7</v>
-      </c>
-      <c r="AC56">
-        <v>2.6</v>
-      </c>
-      <c r="AD56">
-        <v>25.2</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G57">
-        <v>16</v>
-      </c>
-      <c r="I57">
-        <v>723</v>
-      </c>
-      <c r="J57">
-        <v>10.3</v>
-      </c>
-      <c r="K57">
-        <v>19.7</v>
-      </c>
-      <c r="L57">
-        <v>0.52</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0.3</v>
-      </c>
-      <c r="O57">
-        <v>0.143</v>
-      </c>
-      <c r="P57">
-        <v>10.2</v>
-      </c>
-      <c r="Q57">
-        <v>19.4</v>
-      </c>
-      <c r="R57">
-        <v>0.527</v>
-      </c>
-      <c r="S57">
-        <v>5</v>
-      </c>
-      <c r="T57">
-        <v>6.2</v>
-      </c>
-      <c r="U57">
-        <v>0.8079999999999999</v>
-      </c>
-      <c r="V57">
-        <v>2.3</v>
-      </c>
-      <c r="W57">
-        <v>5.1</v>
-      </c>
-      <c r="X57">
-        <v>13.4</v>
-      </c>
-      <c r="Y57">
-        <v>4.4</v>
-      </c>
-      <c r="AB57">
-        <v>3.6</v>
-      </c>
-      <c r="AC57">
-        <v>2.1</v>
-      </c>
-      <c r="AD57">
-        <v>25.6</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="I58">
-        <v>-5783</v>
-      </c>
-      <c r="J58">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="K58">
-        <v>-0.4000000000000021</v>
-      </c>
-      <c r="L58">
-        <v>0.02299999999999996</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="O58">
-        <v>-0.057</v>
-      </c>
-      <c r="P58">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="Q58">
-        <v>-0.5</v>
-      </c>
-      <c r="R58">
-        <v>0.02700000000000002</v>
-      </c>
-      <c r="S58">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="T58">
-        <v>-0.7000000000000002</v>
-      </c>
-      <c r="U58">
-        <v>0.04799999999999993</v>
-      </c>
-      <c r="V58">
-        <v>-1.8</v>
-      </c>
-      <c r="W58">
-        <v>-2.9</v>
-      </c>
-      <c r="X58">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="Y58">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="AB58">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AC58">
-        <v>-0.5</v>
-      </c>
-      <c r="AD58">
-        <v>0.4000000000000021</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>50</v>
-      </c>
-      <c r="E59" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59">
-        <v>1243</v>
-      </c>
-      <c r="H59">
-        <v>823</v>
-      </c>
-      <c r="I59">
-        <v>45227</v>
-      </c>
-      <c r="J59">
-        <v>9.4</v>
-      </c>
-      <c r="K59">
-        <v>18.6</v>
-      </c>
-      <c r="L59">
-        <v>0.506</v>
-      </c>
-      <c r="M59">
-        <v>0.1</v>
-      </c>
-      <c r="N59">
-        <v>0.4</v>
-      </c>
-      <c r="O59">
-        <v>0.298</v>
-      </c>
-      <c r="P59">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="Q59">
-        <v>18.2</v>
-      </c>
-      <c r="R59">
-        <v>0.51</v>
-      </c>
-      <c r="S59">
-        <v>5</v>
-      </c>
-      <c r="T59">
-        <v>6.4</v>
-      </c>
-      <c r="U59">
-        <v>0.777</v>
-      </c>
-      <c r="V59">
-        <v>2.9</v>
-      </c>
-      <c r="W59">
-        <v>5.4</v>
-      </c>
-      <c r="X59">
-        <v>8.4</v>
-      </c>
-      <c r="Y59">
-        <v>4.1</v>
-      </c>
-      <c r="Z59">
-        <v>2</v>
-      </c>
-      <c r="AA59">
-        <v>1.7</v>
-      </c>
-      <c r="AB59">
-        <v>3.4</v>
-      </c>
-      <c r="AC59">
-        <v>2.8</v>
-      </c>
-      <c r="AD59">
-        <v>23.9</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60">
-        <v>189</v>
-      </c>
-      <c r="H60">
-        <v>30</v>
-      </c>
-      <c r="I60">
-        <v>7352</v>
-      </c>
-      <c r="J60">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="K60">
-        <v>17.4</v>
-      </c>
-      <c r="L60">
-        <v>0.496</v>
-      </c>
-      <c r="M60">
-        <v>0.1</v>
-      </c>
-      <c r="N60">
-        <v>0.5</v>
-      </c>
-      <c r="O60">
-        <v>0.224</v>
-      </c>
-      <c r="P60">
-        <v>8.6</v>
-      </c>
-      <c r="Q60">
-        <v>17.1</v>
-      </c>
-      <c r="R60">
-        <v>0.502</v>
-      </c>
-      <c r="S60">
-        <v>5</v>
-      </c>
-      <c r="T60">
-        <v>6.4</v>
-      </c>
-      <c r="U60">
-        <v>0.784</v>
-      </c>
-      <c r="V60">
-        <v>2.6</v>
-      </c>
-      <c r="W60">
-        <v>4.7</v>
-      </c>
-      <c r="X60">
-        <v>7.9</v>
-      </c>
-      <c r="Y60">
-        <v>4.1</v>
-      </c>
-      <c r="Z60">
-        <v>1.6</v>
-      </c>
-      <c r="AA60">
-        <v>1.6</v>
-      </c>
-      <c r="AB60">
-        <v>3.2</v>
-      </c>
-      <c r="AC60">
-        <v>2.7</v>
-      </c>
-      <c r="AD60">
-        <v>22.4</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="I61">
-        <v>-37875</v>
-      </c>
-      <c r="J61">
-        <v>-0.7000000000000011</v>
-      </c>
-      <c r="K61">
-        <v>-1.200000000000003</v>
-      </c>
-      <c r="L61">
-        <v>-0.01000000000000001</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="O61">
-        <v>-0.07400000000000001</v>
-      </c>
-      <c r="P61">
-        <v>-0.7000000000000011</v>
-      </c>
-      <c r="Q61">
-        <v>-1.099999999999998</v>
-      </c>
-      <c r="R61">
-        <v>-0.008000000000000007</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0.007000000000000006</v>
-      </c>
-      <c r="V61">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="W61">
-        <v>-0.7000000000000002</v>
-      </c>
-      <c r="X61">
-        <v>-0.5</v>
-      </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
-      <c r="Z61">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="AA61">
-        <v>-0.09999999999999987</v>
-      </c>
-      <c r="AB61">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="AC61">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="AD61">
-        <v>-1.5</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:34">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2">
-        <v>84</v>
-      </c>
-      <c r="I2">
-        <v>3398</v>
-      </c>
-      <c r="J2">
-        <v>12.3</v>
-      </c>
-      <c r="K2">
-        <v>24</v>
-      </c>
-      <c r="L2">
-        <v>0.512</v>
-      </c>
-      <c r="M2">
-        <v>0.2</v>
-      </c>
-      <c r="N2">
-        <v>0.6</v>
-      </c>
-      <c r="O2">
-        <v>0.395</v>
-      </c>
-      <c r="P2">
-        <v>12.1</v>
-      </c>
-      <c r="Q2">
-        <v>23.4</v>
-      </c>
-      <c r="R2">
-        <v>0.515</v>
-      </c>
-      <c r="S2">
-        <v>6.1</v>
-      </c>
-      <c r="T2">
-        <v>8</v>
-      </c>
-      <c r="U2">
-        <v>0.7659999999999999</v>
-      </c>
-      <c r="V2">
-        <v>3.5</v>
-      </c>
-      <c r="W2">
-        <v>8.6</v>
-      </c>
-      <c r="X2">
-        <v>12.1</v>
-      </c>
-      <c r="Y2">
-        <v>5.8</v>
-      </c>
-      <c r="Z2">
-        <v>2.6</v>
-      </c>
-      <c r="AA2">
-        <v>2.7</v>
-      </c>
-      <c r="AB2">
-        <v>4.6</v>
-      </c>
-      <c r="AC2">
-        <v>3.6</v>
-      </c>
-      <c r="AD2">
-        <v>30.9</v>
-      </c>
-      <c r="AF2">
-        <v>111</v>
-      </c>
-      <c r="AG2">
-        <v>94</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3">
-        <v>14</v>
-      </c>
-      <c r="I3">
-        <v>579</v>
-      </c>
-      <c r="J3">
-        <v>13.3</v>
-      </c>
-      <c r="K3">
-        <v>25.3</v>
-      </c>
-      <c r="L3">
-        <v>0.528</v>
-      </c>
-      <c r="M3">
-        <v>0.4</v>
-      </c>
-      <c r="N3">
-        <v>0.9</v>
-      </c>
-      <c r="O3">
-        <v>0.455</v>
-      </c>
-      <c r="P3">
-        <v>12.9</v>
-      </c>
-      <c r="Q3">
-        <v>24.4</v>
-      </c>
-      <c r="R3">
-        <v>0.531</v>
-      </c>
-      <c r="S3">
-        <v>5.2</v>
-      </c>
-      <c r="T3">
-        <v>7</v>
-      </c>
-      <c r="U3">
-        <v>0.741</v>
-      </c>
-      <c r="V3">
-        <v>3.6</v>
-      </c>
-      <c r="W3">
-        <v>7.6</v>
-      </c>
-      <c r="X3">
-        <v>11.2</v>
-      </c>
-      <c r="Y3">
-        <v>5.6</v>
-      </c>
-      <c r="Z3">
-        <v>1.8</v>
-      </c>
-      <c r="AA3">
-        <v>1.6</v>
-      </c>
-      <c r="AB3">
-        <v>4.2</v>
-      </c>
-      <c r="AC3">
-        <v>3.3</v>
-      </c>
-      <c r="AD3">
-        <v>32.3</v>
-      </c>
-      <c r="AF3">
-        <v>113</v>
-      </c>
-      <c r="AG3">
-        <v>95</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>-2819</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="L4">
-        <v>0.01600000000000001</v>
-      </c>
-      <c r="M4">
-        <v>0.2</v>
-      </c>
-      <c r="N4">
-        <v>0.3</v>
-      </c>
-      <c r="O4">
-        <v>0.06</v>
-      </c>
-      <c r="P4">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>0.01600000000000001</v>
-      </c>
-      <c r="S4">
-        <v>-0.8999999999999995</v>
-      </c>
-      <c r="T4">
-        <v>-1</v>
-      </c>
-      <c r="U4">
-        <v>-0.02499999999999991</v>
-      </c>
-      <c r="V4">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
-      <c r="X4">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="Y4">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="Z4">
-        <v>-0.8</v>
-      </c>
-      <c r="AA4">
-        <v>-1.1</v>
-      </c>
-      <c r="AB4">
-        <v>-0.3999999999999995</v>
-      </c>
-      <c r="AC4">
-        <v>-0.3000000000000003</v>
-      </c>
-      <c r="AD4">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="AF4">
-        <v>2</v>
-      </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5">
-        <v>84</v>
-      </c>
-      <c r="I5">
-        <v>3402</v>
-      </c>
-      <c r="J5">
-        <v>12.5</v>
-      </c>
-      <c r="K5">
-        <v>24.7</v>
-      </c>
-      <c r="L5">
-        <v>0.506</v>
-      </c>
-      <c r="M5">
-        <v>0.4</v>
-      </c>
-      <c r="N5">
-        <v>1.2</v>
-      </c>
-      <c r="O5">
-        <v>0.333</v>
-      </c>
-      <c r="P5">
-        <v>12.1</v>
-      </c>
-      <c r="Q5">
-        <v>23.5</v>
-      </c>
-      <c r="R5">
-        <v>0.515</v>
-      </c>
-      <c r="S5">
-        <v>6.6</v>
-      </c>
-      <c r="T5">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="U5">
-        <v>0.799</v>
-      </c>
-      <c r="V5">
-        <v>3.9</v>
-      </c>
-      <c r="W5">
-        <v>8.6</v>
-      </c>
-      <c r="X5">
-        <v>12.5</v>
-      </c>
-      <c r="Y5">
-        <v>6.3</v>
-      </c>
-      <c r="Z5">
-        <v>2.5</v>
-      </c>
-      <c r="AA5">
-        <v>2.1</v>
-      </c>
-      <c r="AB5">
-        <v>4.1</v>
-      </c>
-      <c r="AC5">
-        <v>3.5</v>
-      </c>
-      <c r="AD5">
-        <v>32</v>
-      </c>
-      <c r="AF5">
-        <v>114</v>
-      </c>
-      <c r="AG5">
-        <v>96</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>211</v>
-      </c>
-      <c r="J6">
-        <v>12.3</v>
-      </c>
-      <c r="K6">
-        <v>27.1</v>
-      </c>
-      <c r="L6">
-        <v>0.455</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>1.8</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>12.3</v>
-      </c>
-      <c r="Q6">
-        <v>25.3</v>
-      </c>
-      <c r="R6">
-        <v>0.487</v>
-      </c>
-      <c r="S6">
-        <v>6</v>
-      </c>
-      <c r="T6">
-        <v>7.2</v>
-      </c>
-      <c r="U6">
-        <v>0.8440000000000001</v>
-      </c>
-      <c r="V6">
-        <v>2.7</v>
-      </c>
-      <c r="W6">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="X6">
-        <v>11</v>
-      </c>
-      <c r="Y6">
-        <v>6.3</v>
-      </c>
-      <c r="Z6">
-        <v>1.1</v>
-      </c>
-      <c r="AA6">
-        <v>2</v>
-      </c>
-      <c r="AB6">
-        <v>4.2</v>
-      </c>
-      <c r="AC6">
-        <v>4</v>
-      </c>
-      <c r="AD6">
-        <v>30.6</v>
-      </c>
-      <c r="AF6">
-        <v>102</v>
-      </c>
-      <c r="AG6">
-        <v>105</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>-3191</v>
-      </c>
-      <c r="J7">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="K7">
-        <v>2.400000000000002</v>
-      </c>
-      <c r="L7">
-        <v>-0.05099999999999999</v>
-      </c>
-      <c r="M7">
-        <v>-0.4</v>
-      </c>
-      <c r="N7">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="O7">
-        <v>-0.333</v>
-      </c>
-      <c r="P7">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="Q7">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="R7">
-        <v>-0.02799999999999997</v>
-      </c>
-      <c r="S7">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="T7">
-        <v>-1.100000000000001</v>
-      </c>
-      <c r="U7">
-        <v>0.04500000000000004</v>
-      </c>
-      <c r="V7">
-        <v>-1.2</v>
-      </c>
-      <c r="W7">
-        <v>-0.2999999999999989</v>
-      </c>
-      <c r="X7">
-        <v>-1.5</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>-1.4</v>
-      </c>
-      <c r="AA7">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AB7">
-        <v>0.1000000000000005</v>
-      </c>
-      <c r="AC7">
-        <v>0.5</v>
-      </c>
-      <c r="AD7">
-        <v>-1.399999999999999</v>
-      </c>
-      <c r="AF7">
-        <v>-12</v>
-      </c>
-      <c r="AG7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8">
-        <v>84</v>
-      </c>
-      <c r="I8">
-        <v>3244</v>
-      </c>
-      <c r="J8">
-        <v>13.3</v>
-      </c>
-      <c r="K8">
-        <v>26.2</v>
-      </c>
-      <c r="L8">
-        <v>0.507</v>
-      </c>
-      <c r="M8">
-        <v>0.5</v>
-      </c>
-      <c r="N8">
-        <v>1.4</v>
-      </c>
-      <c r="O8">
-        <v>0.33</v>
-      </c>
-      <c r="P8">
-        <v>12.8</v>
-      </c>
-      <c r="Q8">
-        <v>24.7</v>
-      </c>
-      <c r="R8">
-        <v>0.517</v>
-      </c>
-      <c r="S8">
-        <v>7.4</v>
-      </c>
-      <c r="T8">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="U8">
-        <v>0.8009999999999999</v>
-      </c>
-      <c r="V8">
-        <v>4.7</v>
-      </c>
-      <c r="W8">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="X8">
-        <v>12.9</v>
-      </c>
-      <c r="Y8">
-        <v>5.9</v>
-      </c>
-      <c r="Z8">
-        <v>2.9</v>
-      </c>
-      <c r="AA8">
-        <v>2.2</v>
-      </c>
-      <c r="AB8">
-        <v>4.3</v>
-      </c>
-      <c r="AC8">
-        <v>3.1</v>
-      </c>
-      <c r="AD8">
-        <v>34.4</v>
-      </c>
-      <c r="AF8">
-        <v>116</v>
-      </c>
-      <c r="AG8">
-        <v>97</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9">
-        <v>13</v>
-      </c>
-      <c r="I9">
-        <v>551</v>
-      </c>
-      <c r="J9">
-        <v>13.3</v>
-      </c>
-      <c r="K9">
-        <v>24.9</v>
-      </c>
-      <c r="L9">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="M9">
-        <v>0.3</v>
-      </c>
-      <c r="N9">
-        <v>1.2</v>
-      </c>
-      <c r="O9">
-        <v>0.286</v>
-      </c>
-      <c r="P9">
-        <v>12.9</v>
-      </c>
-      <c r="Q9">
-        <v>23.7</v>
-      </c>
-      <c r="R9">
-        <v>0.545</v>
-      </c>
-      <c r="S9">
-        <v>10.5</v>
-      </c>
-      <c r="T9">
-        <v>13.1</v>
-      </c>
-      <c r="U9">
-        <v>0.804</v>
-      </c>
-      <c r="V9">
-        <v>5.4</v>
-      </c>
-      <c r="W9">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="X9">
-        <v>13.6</v>
-      </c>
-      <c r="Y9">
-        <v>5.3</v>
-      </c>
-      <c r="Z9">
-        <v>2.1</v>
-      </c>
-      <c r="AA9">
-        <v>2.2</v>
-      </c>
-      <c r="AB9">
-        <v>3.2</v>
-      </c>
-      <c r="AC9">
-        <v>3.4</v>
-      </c>
-      <c r="AD9">
-        <v>37.4</v>
-      </c>
-      <c r="AF9">
-        <v>128</v>
-      </c>
-      <c r="AG9">
-        <v>103</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <v>-2693</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>-1.300000000000001</v>
-      </c>
-      <c r="L10">
-        <v>0.02599999999999991</v>
-      </c>
-      <c r="M10">
-        <v>-0.2</v>
-      </c>
-      <c r="N10">
-        <v>-0.2</v>
-      </c>
-      <c r="O10">
-        <v>-0.04399999999999998</v>
-      </c>
-      <c r="P10">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="Q10">
-        <v>-1</v>
-      </c>
-      <c r="R10">
-        <v>0.02800000000000002</v>
-      </c>
-      <c r="S10">
-        <v>3.1</v>
-      </c>
-      <c r="T10">
-        <v>3.799999999999999</v>
-      </c>
-      <c r="U10">
-        <v>0.003000000000000114</v>
-      </c>
-      <c r="V10">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="Y10">
-        <v>-0.6000000000000005</v>
-      </c>
-      <c r="Z10">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>-1.1</v>
-      </c>
-      <c r="AC10">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="AD10">
-        <v>3</v>
-      </c>
-      <c r="AF10">
-        <v>12</v>
-      </c>
-      <c r="AG10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11">
-        <v>82</v>
-      </c>
-      <c r="H11">
-        <v>77</v>
-      </c>
-      <c r="I11">
-        <v>2940</v>
-      </c>
-      <c r="J11">
-        <v>10.3</v>
-      </c>
-      <c r="K11">
-        <v>20.7</v>
-      </c>
-      <c r="L11">
-        <v>0.499</v>
-      </c>
-      <c r="P11">
-        <v>10.3</v>
-      </c>
-      <c r="Q11">
-        <v>20.7</v>
-      </c>
-      <c r="R11">
-        <v>0.499</v>
-      </c>
-      <c r="S11">
-        <v>6</v>
-      </c>
-      <c r="T11">
-        <v>7.8</v>
-      </c>
-      <c r="U11">
-        <v>0.777</v>
-      </c>
-      <c r="V11">
-        <v>2.9</v>
-      </c>
-      <c r="W11">
-        <v>7.6</v>
-      </c>
-      <c r="X11">
-        <v>10.5</v>
-      </c>
-      <c r="Y11">
-        <v>4.6</v>
-      </c>
-      <c r="Z11">
-        <v>2.4</v>
-      </c>
-      <c r="AA11">
-        <v>1.7</v>
-      </c>
-      <c r="AC11">
-        <v>3.8</v>
-      </c>
-      <c r="AD11">
-        <v>26.7</v>
-      </c>
-      <c r="AG11">
-        <v>95</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12">
-        <v>19</v>
-      </c>
-      <c r="I12">
-        <v>758</v>
-      </c>
-      <c r="J12">
-        <v>12</v>
-      </c>
-      <c r="K12">
-        <v>23</v>
-      </c>
-      <c r="L12">
-        <v>0.523</v>
-      </c>
-      <c r="P12">
-        <v>12</v>
-      </c>
-      <c r="Q12">
-        <v>23</v>
-      </c>
-      <c r="R12">
-        <v>0.523</v>
-      </c>
-      <c r="S12">
-        <v>6.5</v>
-      </c>
-      <c r="T12">
-        <v>7.9</v>
-      </c>
-      <c r="U12">
-        <v>0.821</v>
-      </c>
-      <c r="V12">
-        <v>2.4</v>
-      </c>
-      <c r="W12">
-        <v>4.8</v>
-      </c>
-      <c r="X12">
-        <v>7.2</v>
-      </c>
-      <c r="Y12">
-        <v>5</v>
-      </c>
-      <c r="Z12">
-        <v>2.4</v>
-      </c>
-      <c r="AA12">
-        <v>1.4</v>
-      </c>
-      <c r="AC12">
-        <v>2.7</v>
-      </c>
-      <c r="AD12">
-        <v>30.6</v>
-      </c>
-      <c r="AG12">
-        <v>99</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="I13">
-        <v>-2182</v>
-      </c>
-      <c r="J13">
-        <v>1.699999999999999</v>
-      </c>
-      <c r="K13">
-        <v>2.300000000000001</v>
-      </c>
-      <c r="L13">
-        <v>0.02400000000000002</v>
-      </c>
-      <c r="P13">
-        <v>1.699999999999999</v>
-      </c>
-      <c r="Q13">
-        <v>2.300000000000001</v>
-      </c>
-      <c r="R13">
-        <v>0.02400000000000002</v>
-      </c>
-      <c r="S13">
-        <v>0.5</v>
-      </c>
-      <c r="T13">
-        <v>0.1000000000000005</v>
-      </c>
-      <c r="U13">
-        <v>0.04399999999999993</v>
-      </c>
-      <c r="V13">
-        <v>-0.5</v>
-      </c>
-      <c r="W13">
-        <v>-2.8</v>
-      </c>
-      <c r="X13">
-        <v>-3.3</v>
-      </c>
-      <c r="Y13">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>-0.3</v>
-      </c>
-      <c r="AC13">
-        <v>-1.1</v>
-      </c>
-      <c r="AD13">
-        <v>3.900000000000002</v>
-      </c>
-      <c r="AG13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14">
-        <v>74</v>
-      </c>
-      <c r="H14">
-        <v>68</v>
-      </c>
-      <c r="I14">
-        <v>2429</v>
-      </c>
-      <c r="J14">
-        <v>11.1</v>
-      </c>
-      <c r="K14">
-        <v>22.2</v>
-      </c>
-      <c r="L14">
-        <v>0.502</v>
-      </c>
-      <c r="P14">
-        <v>11.1</v>
-      </c>
-      <c r="Q14">
-        <v>22.2</v>
-      </c>
-      <c r="R14">
-        <v>0.502</v>
-      </c>
-      <c r="S14">
-        <v>5.6</v>
-      </c>
-      <c r="T14">
-        <v>6.6</v>
-      </c>
-      <c r="U14">
-        <v>0.845</v>
-      </c>
-      <c r="V14">
-        <v>3.3</v>
-      </c>
-      <c r="W14">
-        <v>5.5</v>
-      </c>
-      <c r="X14">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y14">
-        <v>5.1</v>
-      </c>
-      <c r="Z14">
-        <v>2.5</v>
-      </c>
-      <c r="AA14">
-        <v>1.8</v>
-      </c>
-      <c r="AB14">
-        <v>4.3</v>
-      </c>
-      <c r="AC14">
-        <v>3.8</v>
-      </c>
-      <c r="AD14">
-        <v>27.9</v>
-      </c>
-      <c r="AF14">
-        <v>109</v>
-      </c>
-      <c r="AG14">
-        <v>99</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <v>358</v>
-      </c>
-      <c r="J15">
-        <v>10.8</v>
-      </c>
-      <c r="K15">
-        <v>22.2</v>
-      </c>
-      <c r="L15">
-        <v>0.489</v>
-      </c>
-      <c r="P15">
-        <v>10.8</v>
-      </c>
-      <c r="Q15">
-        <v>22.2</v>
-      </c>
-      <c r="R15">
-        <v>0.489</v>
-      </c>
-      <c r="S15">
-        <v>5.2</v>
-      </c>
-      <c r="T15">
-        <v>6.9</v>
-      </c>
-      <c r="U15">
-        <v>0.75</v>
-      </c>
-      <c r="V15">
-        <v>4.9</v>
-      </c>
-      <c r="W15">
-        <v>7</v>
-      </c>
-      <c r="X15">
-        <v>11.9</v>
-      </c>
-      <c r="Y15">
-        <v>4.9</v>
-      </c>
-      <c r="Z15">
-        <v>1.8</v>
-      </c>
-      <c r="AA15">
-        <v>2.2</v>
-      </c>
-      <c r="AB15">
-        <v>4.3</v>
-      </c>
-      <c r="AC15">
-        <v>3.7</v>
-      </c>
-      <c r="AD15">
-        <v>26.8</v>
-      </c>
-      <c r="AF15">
-        <v>106</v>
-      </c>
-      <c r="AG15">
-        <v>97</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="I16">
-        <v>-2071</v>
-      </c>
-      <c r="J16">
-        <v>-0.2999999999999989</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>-0.01300000000000001</v>
-      </c>
-      <c r="P16">
-        <v>-0.2999999999999989</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>-0.01300000000000001</v>
-      </c>
-      <c r="S16">
-        <v>-0.3999999999999995</v>
-      </c>
-      <c r="T16">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="U16">
-        <v>-0.09499999999999997</v>
-      </c>
-      <c r="V16">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="W16">
-        <v>1.5</v>
-      </c>
-      <c r="X16">
-        <v>3.1</v>
-      </c>
-      <c r="Y16">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="Z16">
-        <v>-0.7</v>
-      </c>
-      <c r="AA16">
-        <v>0.4000000000000001</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="AD16">
-        <v>-1.099999999999998</v>
-      </c>
-      <c r="AF16">
-        <v>-3</v>
-      </c>
-      <c r="AG16">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17">
-        <v>78</v>
-      </c>
-      <c r="H17">
-        <v>76</v>
-      </c>
-      <c r="I17">
-        <v>2802</v>
-      </c>
-      <c r="J17">
-        <v>11.5</v>
-      </c>
-      <c r="K17">
-        <v>23.4</v>
-      </c>
-      <c r="L17">
-        <v>0.491</v>
-      </c>
-      <c r="P17">
-        <v>11.5</v>
-      </c>
-      <c r="Q17">
-        <v>23.4</v>
-      </c>
-      <c r="R17">
-        <v>0.491</v>
-      </c>
-      <c r="S17">
-        <v>6</v>
-      </c>
-      <c r="T17">
-        <v>8</v>
-      </c>
-      <c r="U17">
-        <v>0.745</v>
-      </c>
-      <c r="V17">
-        <v>3.2</v>
-      </c>
-      <c r="W17">
-        <v>5.9</v>
-      </c>
-      <c r="X17">
-        <v>9.1</v>
-      </c>
-      <c r="Y17">
-        <v>5.7</v>
-      </c>
-      <c r="Z17">
-        <v>2.1</v>
-      </c>
-      <c r="AA17">
-        <v>1.6</v>
-      </c>
-      <c r="AB17">
-        <v>5.1</v>
-      </c>
-      <c r="AC17">
-        <v>3.3</v>
-      </c>
-      <c r="AD17">
-        <v>28.9</v>
-      </c>
-      <c r="AF17">
-        <v>103</v>
-      </c>
-      <c r="AG17">
-        <v>100</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18">
-        <v>9</v>
-      </c>
-      <c r="I18">
-        <v>372</v>
-      </c>
-      <c r="J18">
-        <v>10.9</v>
-      </c>
-      <c r="K18">
-        <v>21</v>
-      </c>
-      <c r="L18">
-        <v>0.517</v>
-      </c>
-      <c r="P18">
-        <v>10.9</v>
-      </c>
-      <c r="Q18">
-        <v>21</v>
-      </c>
-      <c r="R18">
-        <v>0.517</v>
-      </c>
-      <c r="S18">
-        <v>6.2</v>
-      </c>
-      <c r="T18">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="U18">
-        <v>0.7609999999999999</v>
-      </c>
-      <c r="V18">
-        <v>3.5</v>
-      </c>
-      <c r="W18">
-        <v>5</v>
-      </c>
-      <c r="X18">
-        <v>8.5</v>
-      </c>
-      <c r="Y18">
-        <v>6.5</v>
-      </c>
-      <c r="Z18">
-        <v>2.2</v>
-      </c>
-      <c r="AA18">
-        <v>2.1</v>
-      </c>
-      <c r="AB18">
-        <v>4.6</v>
-      </c>
-      <c r="AC18">
-        <v>2.7</v>
-      </c>
-      <c r="AD18">
-        <v>27.9</v>
-      </c>
-      <c r="AF18">
-        <v>111</v>
-      </c>
-      <c r="AG18">
-        <v>103</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="I19">
-        <v>-2430</v>
-      </c>
-      <c r="J19">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="K19">
-        <v>-2.399999999999999</v>
-      </c>
-      <c r="L19">
-        <v>0.02600000000000002</v>
-      </c>
-      <c r="P19">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="Q19">
-        <v>-2.399999999999999</v>
-      </c>
-      <c r="R19">
-        <v>0.02600000000000002</v>
-      </c>
-      <c r="S19">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="T19">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="U19">
-        <v>0.0159999999999999</v>
-      </c>
-      <c r="V19">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="W19">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="X19">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="Y19">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="Z19">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AA19">
-        <v>0.5</v>
-      </c>
-      <c r="AB19">
-        <v>-0.5</v>
-      </c>
-      <c r="AC19">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="AD19">
-        <v>-1</v>
-      </c>
-      <c r="AF19">
-        <v>8</v>
-      </c>
-      <c r="AG19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20">
-        <v>78</v>
-      </c>
-      <c r="H20">
-        <v>78</v>
-      </c>
-      <c r="I20">
-        <v>2812</v>
-      </c>
-      <c r="J20">
-        <v>13.9</v>
-      </c>
-      <c r="K20">
-        <v>26.7</v>
-      </c>
-      <c r="L20">
-        <v>0.519</v>
-      </c>
-      <c r="M20">
-        <v>0.1</v>
-      </c>
-      <c r="N20">
-        <v>0.3</v>
-      </c>
-      <c r="O20">
-        <v>0.2</v>
-      </c>
-      <c r="P20">
-        <v>13.8</v>
-      </c>
-      <c r="Q20">
-        <v>26.4</v>
-      </c>
-      <c r="R20">
-        <v>0.523</v>
-      </c>
-      <c r="S20">
-        <v>7</v>
-      </c>
-      <c r="T20">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="U20">
-        <v>0.787</v>
-      </c>
-      <c r="V20">
-        <v>3.6</v>
-      </c>
-      <c r="W20">
-        <v>6</v>
-      </c>
-      <c r="X20">
-        <v>9.5</v>
-      </c>
-      <c r="Y20">
-        <v>5.9</v>
-      </c>
-      <c r="Z20">
-        <v>2.8</v>
-      </c>
-      <c r="AA20">
-        <v>2.3</v>
-      </c>
-      <c r="AB20">
-        <v>4.7</v>
-      </c>
-      <c r="AC20">
-        <v>3.4</v>
-      </c>
-      <c r="AD20">
-        <v>34.8</v>
-      </c>
-      <c r="AF20">
-        <v>111</v>
-      </c>
-      <c r="AG20">
-        <v>99</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21">
-        <v>18</v>
-      </c>
-      <c r="I21">
-        <v>694</v>
-      </c>
-      <c r="J21">
-        <v>11.5</v>
-      </c>
-      <c r="K21">
-        <v>23.6</v>
-      </c>
-      <c r="L21">
-        <v>0.488</v>
-      </c>
-      <c r="M21">
-        <v>0.1</v>
-      </c>
-      <c r="N21">
-        <v>0.6</v>
-      </c>
-      <c r="O21">
-        <v>0.222</v>
-      </c>
-      <c r="P21">
-        <v>11.4</v>
-      </c>
-      <c r="Q21">
-        <v>23</v>
-      </c>
-      <c r="R21">
-        <v>0.495</v>
-      </c>
-      <c r="S21">
-        <v>7.5</v>
-      </c>
-      <c r="T21">
-        <v>9.5</v>
-      </c>
-      <c r="U21">
-        <v>0.794</v>
-      </c>
-      <c r="V21">
-        <v>2.2</v>
-      </c>
-      <c r="W21">
-        <v>7.3</v>
-      </c>
-      <c r="X21">
-        <v>9.5</v>
-      </c>
-      <c r="Y21">
-        <v>5.5</v>
-      </c>
-      <c r="Z21">
-        <v>2.5</v>
-      </c>
-      <c r="AA21">
-        <v>2.6</v>
-      </c>
-      <c r="AB21">
-        <v>3.9</v>
-      </c>
-      <c r="AC21">
-        <v>3.9</v>
-      </c>
-      <c r="AD21">
-        <v>30.7</v>
-      </c>
-      <c r="AF21">
-        <v>108</v>
-      </c>
-      <c r="AG21">
-        <v>99</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="I22">
-        <v>-2118</v>
-      </c>
-      <c r="J22">
-        <v>-2.4</v>
-      </c>
-      <c r="K22">
-        <v>-3.099999999999998</v>
-      </c>
-      <c r="L22">
-        <v>-0.03100000000000003</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0.3</v>
-      </c>
-      <c r="O22">
-        <v>0.02199999999999999</v>
-      </c>
-      <c r="P22">
-        <v>-2.4</v>
-      </c>
-      <c r="Q22">
-        <v>-3.399999999999999</v>
-      </c>
-      <c r="R22">
-        <v>-0.02800000000000002</v>
-      </c>
-      <c r="S22">
-        <v>0.5</v>
-      </c>
-      <c r="T22">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="U22">
-        <v>0.007000000000000006</v>
-      </c>
-      <c r="V22">
-        <v>-1.4</v>
-      </c>
-      <c r="W22">
-        <v>1.3</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="Z22">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="AA22">
-        <v>0.3000000000000003</v>
-      </c>
-      <c r="AB22">
-        <v>-0.8000000000000003</v>
-      </c>
-      <c r="AC22">
-        <v>0.5</v>
-      </c>
-      <c r="AD22">
-        <v>-4.099999999999998</v>
-      </c>
-      <c r="AF22">
-        <v>-3</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23">
-        <v>82</v>
-      </c>
-      <c r="H23">
-        <v>82</v>
-      </c>
-      <c r="I23">
-        <v>2874</v>
-      </c>
-      <c r="J23">
-        <v>12.8</v>
-      </c>
-      <c r="K23">
-        <v>24.6</v>
-      </c>
-      <c r="L23">
-        <v>0.521</v>
-      </c>
-      <c r="M23">
-        <v>0.1</v>
-      </c>
-      <c r="N23">
-        <v>0.3</v>
-      </c>
-      <c r="O23">
-        <v>0.222</v>
-      </c>
-      <c r="P23">
-        <v>12.8</v>
-      </c>
-      <c r="Q23">
-        <v>24.3</v>
-      </c>
-      <c r="R23">
-        <v>0.525</v>
-      </c>
-      <c r="S23">
-        <v>6.8</v>
-      </c>
-      <c r="T23">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="U23">
-        <v>0.787</v>
-      </c>
-      <c r="V23">
-        <v>3.9</v>
-      </c>
-      <c r="W23">
-        <v>6.7</v>
-      </c>
-      <c r="X23">
-        <v>10.6</v>
-      </c>
-      <c r="Y23">
-        <v>5.9</v>
-      </c>
-      <c r="Z23">
-        <v>2.8</v>
-      </c>
-      <c r="AA23">
-        <v>2.4</v>
-      </c>
-      <c r="AB23">
-        <v>4.3</v>
-      </c>
-      <c r="AC23">
-        <v>3.8</v>
-      </c>
-      <c r="AD23">
-        <v>32.5</v>
-      </c>
-      <c r="AF23">
-        <v>113</v>
-      </c>
-      <c r="AG23">
-        <v>97</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24">
-        <v>16</v>
-      </c>
-      <c r="I24">
-        <v>592</v>
-      </c>
-      <c r="J24">
-        <v>11.8</v>
-      </c>
-      <c r="K24">
-        <v>24.8</v>
-      </c>
-      <c r="L24">
-        <v>0.475</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0.1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>11.8</v>
-      </c>
-      <c r="Q24">
-        <v>24.7</v>
-      </c>
-      <c r="R24">
-        <v>0.477</v>
-      </c>
-      <c r="S24">
-        <v>6.7</v>
-      </c>
-      <c r="T24">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="U24">
-        <v>0.757</v>
-      </c>
-      <c r="V24">
-        <v>4.3</v>
-      </c>
-      <c r="W24">
-        <v>5.1</v>
-      </c>
-      <c r="X24">
-        <v>9.4</v>
-      </c>
-      <c r="Y24">
-        <v>4.5</v>
-      </c>
-      <c r="Z24">
-        <v>1.8</v>
-      </c>
-      <c r="AA24">
-        <v>3.4</v>
-      </c>
-      <c r="AB24">
-        <v>4.5</v>
-      </c>
-      <c r="AC24">
-        <v>4.5</v>
-      </c>
-      <c r="AD24">
-        <v>30.3</v>
-      </c>
-      <c r="AF24">
-        <v>105</v>
-      </c>
-      <c r="AG24">
-        <v>105</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="I25">
-        <v>-2282</v>
-      </c>
-      <c r="J25">
-        <v>-1</v>
-      </c>
-      <c r="K25">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="L25">
-        <v>-0.04600000000000004</v>
-      </c>
-      <c r="M25">
-        <v>-0.1</v>
-      </c>
-      <c r="N25">
-        <v>-0.2</v>
-      </c>
-      <c r="O25">
-        <v>-0.222</v>
-      </c>
-      <c r="P25">
-        <v>-1</v>
-      </c>
-      <c r="Q25">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="R25">
-        <v>-0.04799999999999999</v>
-      </c>
-      <c r="S25">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="T25">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="U25">
-        <v>-0.03000000000000003</v>
-      </c>
-      <c r="V25">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="W25">
-        <v>-1.600000000000001</v>
-      </c>
-      <c r="X25">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="Y25">
-        <v>-1.4</v>
-      </c>
-      <c r="Z25">
-        <v>-0.9999999999999998</v>
-      </c>
-      <c r="AA25">
-        <v>1</v>
-      </c>
-      <c r="AB25">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="AC25">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="AD25">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="AF25">
-        <v>-8</v>
-      </c>
-      <c r="AG25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26">
-        <v>81</v>
-      </c>
-      <c r="H26">
-        <v>81</v>
-      </c>
-      <c r="I26">
-        <v>2789</v>
-      </c>
-      <c r="J26">
-        <v>13.3</v>
-      </c>
-      <c r="K26">
-        <v>24.4</v>
-      </c>
-      <c r="L26">
-        <v>0.546</v>
-      </c>
-      <c r="M26">
-        <v>0.1</v>
-      </c>
-      <c r="N26">
-        <v>0.2</v>
-      </c>
-      <c r="O26">
-        <v>0.273</v>
-      </c>
-      <c r="P26">
-        <v>13.3</v>
-      </c>
-      <c r="Q26">
-        <v>24.2</v>
-      </c>
-      <c r="R26">
-        <v>0.5479999999999999</v>
-      </c>
-      <c r="S26">
-        <v>7</v>
-      </c>
-      <c r="T26">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="U26">
-        <v>0.763</v>
-      </c>
-      <c r="V26">
-        <v>3.8</v>
-      </c>
-      <c r="W26">
-        <v>5.8</v>
-      </c>
-      <c r="X26">
-        <v>9.5</v>
-      </c>
-      <c r="Y26">
-        <v>5.5</v>
-      </c>
-      <c r="Z26">
-        <v>2.8</v>
-      </c>
-      <c r="AA26">
-        <v>2.4</v>
-      </c>
-      <c r="AB26">
-        <v>3.7</v>
-      </c>
-      <c r="AC26">
-        <v>3.9</v>
-      </c>
-      <c r="AD26">
-        <v>33.8</v>
-      </c>
-      <c r="AF26">
-        <v>117</v>
-      </c>
-      <c r="AG26">
-        <v>102</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27">
-        <v>21</v>
-      </c>
-      <c r="I27">
-        <v>780</v>
-      </c>
-      <c r="J27">
-        <v>10.5</v>
-      </c>
-      <c r="K27">
-        <v>20.3</v>
-      </c>
-      <c r="L27">
-        <v>0.519</v>
-      </c>
-      <c r="M27">
-        <v>0.1</v>
-      </c>
-      <c r="N27">
-        <v>0.4</v>
-      </c>
-      <c r="O27">
-        <v>0.167</v>
-      </c>
-      <c r="P27">
-        <v>10.5</v>
-      </c>
-      <c r="Q27">
-        <v>20</v>
-      </c>
-      <c r="R27">
-        <v>0.525</v>
-      </c>
-      <c r="S27">
-        <v>7.8</v>
-      </c>
-      <c r="T27">
-        <v>10.4</v>
-      </c>
-      <c r="U27">
-        <v>0.752</v>
-      </c>
-      <c r="V27">
-        <v>3.6</v>
-      </c>
-      <c r="W27">
-        <v>6.2</v>
-      </c>
-      <c r="X27">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y27">
-        <v>6.2</v>
-      </c>
-      <c r="Z27">
-        <v>2.3</v>
-      </c>
-      <c r="AA27">
-        <v>2.3</v>
-      </c>
-      <c r="AB27">
-        <v>4.2</v>
-      </c>
-      <c r="AC27">
-        <v>3.5</v>
-      </c>
-      <c r="AD27">
-        <v>28.9</v>
-      </c>
-      <c r="AF27">
-        <v>114</v>
-      </c>
-      <c r="AG27">
-        <v>104</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="I28">
-        <v>-2009</v>
-      </c>
-      <c r="J28">
-        <v>-2.800000000000001</v>
-      </c>
-      <c r="K28">
-        <v>-4.099999999999998</v>
-      </c>
-      <c r="L28">
-        <v>-0.02700000000000002</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0.2</v>
-      </c>
-      <c r="O28">
-        <v>-0.106</v>
-      </c>
-      <c r="P28">
-        <v>-2.800000000000001</v>
-      </c>
-      <c r="Q28">
-        <v>-4.199999999999999</v>
-      </c>
-      <c r="R28">
-        <v>-0.02299999999999991</v>
-      </c>
-      <c r="S28">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="T28">
-        <v>1.200000000000001</v>
-      </c>
-      <c r="U28">
-        <v>-0.01100000000000001</v>
-      </c>
-      <c r="V28">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="W28">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="X28">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="Y28">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="Z28">
-        <v>-0.5</v>
-      </c>
-      <c r="AA28">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AB28">
-        <v>0.5</v>
-      </c>
-      <c r="AC28">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="AD28">
-        <v>-4.899999999999999</v>
-      </c>
-      <c r="AF28">
-        <v>-3</v>
-      </c>
-      <c r="AG28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29">
-        <v>72</v>
-      </c>
-      <c r="H29">
-        <v>72</v>
-      </c>
-      <c r="I29">
-        <v>2421</v>
-      </c>
-      <c r="J29">
-        <v>11.7</v>
-      </c>
-      <c r="K29">
-        <v>22.6</v>
-      </c>
-      <c r="L29">
-        <v>0.517</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0.1</v>
-      </c>
-      <c r="O29">
-        <v>0.286</v>
-      </c>
-      <c r="P29">
-        <v>11.6</v>
-      </c>
-      <c r="Q29">
-        <v>22.5</v>
-      </c>
-      <c r="R29">
-        <v>0.518</v>
-      </c>
-      <c r="S29">
-        <v>6.4</v>
-      </c>
-      <c r="T29">
-        <v>8.4</v>
-      </c>
-      <c r="U29">
-        <v>0.759</v>
-      </c>
-      <c r="V29">
-        <v>3.3</v>
-      </c>
-      <c r="W29">
-        <v>6.1</v>
-      </c>
-      <c r="X29">
-        <v>9.5</v>
-      </c>
-      <c r="Y29">
-        <v>5.1</v>
-      </c>
-      <c r="Z29">
-        <v>2.2</v>
-      </c>
-      <c r="AA29">
-        <v>2.5</v>
-      </c>
-      <c r="AB29">
-        <v>3.8</v>
-      </c>
-      <c r="AC29">
-        <v>3.9</v>
-      </c>
-      <c r="AD29">
-        <v>29.8</v>
-      </c>
-      <c r="AF29">
-        <v>115</v>
-      </c>
-      <c r="AG29">
-        <v>99</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30">
-        <v>13</v>
-      </c>
-      <c r="I30">
-        <v>493</v>
-      </c>
-      <c r="J30">
-        <v>9.5</v>
-      </c>
-      <c r="K30">
-        <v>21.1</v>
-      </c>
-      <c r="L30">
-        <v>0.45</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0.1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>9.5</v>
-      </c>
-      <c r="Q30">
-        <v>21</v>
-      </c>
-      <c r="R30">
-        <v>0.452</v>
-      </c>
-      <c r="S30">
-        <v>4.9</v>
-      </c>
-      <c r="T30">
-        <v>6.8</v>
-      </c>
-      <c r="U30">
-        <v>0.721</v>
-      </c>
-      <c r="V30">
-        <v>3.2</v>
-      </c>
-      <c r="W30">
-        <v>6.7</v>
-      </c>
-      <c r="X30">
-        <v>9.9</v>
-      </c>
-      <c r="Y30">
-        <v>4.4</v>
-      </c>
-      <c r="Z30">
-        <v>1.5</v>
-      </c>
-      <c r="AA30">
-        <v>2.7</v>
-      </c>
-      <c r="AB30">
-        <v>3.9</v>
-      </c>
-      <c r="AC30">
-        <v>4.2</v>
-      </c>
-      <c r="AD30">
-        <v>23.9</v>
-      </c>
-      <c r="AF30">
-        <v>102</v>
-      </c>
-      <c r="AG30">
-        <v>101</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="I31">
-        <v>-1928</v>
-      </c>
-      <c r="J31">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="K31">
-        <v>-1.5</v>
-      </c>
-      <c r="L31">
-        <v>-0.067</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>-0.286</v>
-      </c>
-      <c r="P31">
-        <v>-2.1</v>
-      </c>
-      <c r="Q31">
-        <v>-1.5</v>
-      </c>
-      <c r="R31">
-        <v>-0.066</v>
-      </c>
-      <c r="S31">
-        <v>-1.5</v>
-      </c>
-      <c r="T31">
-        <v>-1.600000000000001</v>
-      </c>
-      <c r="U31">
-        <v>-0.03800000000000003</v>
-      </c>
-      <c r="V31">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="W31">
-        <v>0.6000000000000005</v>
-      </c>
-      <c r="X31">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="Y31">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="Z31">
-        <v>-0.7000000000000002</v>
-      </c>
-      <c r="AA31">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="AB31">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AC31">
-        <v>0.3000000000000003</v>
-      </c>
-      <c r="AD31">
-        <v>-5.900000000000002</v>
-      </c>
-      <c r="AF31">
-        <v>-13</v>
-      </c>
-      <c r="AG31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32">
-        <v>77</v>
-      </c>
-      <c r="H32">
-        <v>77</v>
-      </c>
-      <c r="I32">
-        <v>2683</v>
-      </c>
-      <c r="J32">
-        <v>12.2</v>
-      </c>
-      <c r="K32">
-        <v>23.8</v>
-      </c>
-      <c r="L32">
-        <v>0.512</v>
-      </c>
-      <c r="M32">
-        <v>0.1</v>
-      </c>
-      <c r="N32">
-        <v>0.4</v>
-      </c>
-      <c r="O32">
-        <v>0.333</v>
-      </c>
-      <c r="P32">
-        <v>12.1</v>
-      </c>
-      <c r="Q32">
-        <v>23.4</v>
-      </c>
-      <c r="R32">
-        <v>0.515</v>
-      </c>
-      <c r="S32">
-        <v>6.5</v>
-      </c>
-      <c r="T32">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="U32">
-        <v>0.754</v>
-      </c>
-      <c r="V32">
-        <v>3.4</v>
-      </c>
-      <c r="W32">
-        <v>6.1</v>
-      </c>
-      <c r="X32">
-        <v>9.6</v>
-      </c>
-      <c r="Y32">
-        <v>5.6</v>
-      </c>
-      <c r="Z32">
-        <v>2.5</v>
-      </c>
-      <c r="AA32">
-        <v>2.5</v>
-      </c>
-      <c r="AB32">
-        <v>4.1</v>
-      </c>
-      <c r="AC32">
-        <v>3.9</v>
-      </c>
-      <c r="AD32">
-        <v>31</v>
-      </c>
-      <c r="AF32">
-        <v>112</v>
-      </c>
-      <c r="AG32">
-        <v>102</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33">
-        <v>5</v>
-      </c>
-      <c r="I33">
-        <v>194</v>
-      </c>
-      <c r="J33">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="K33">
-        <v>18.6</v>
-      </c>
-      <c r="L33">
-        <v>0.474</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0.2</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Q33">
-        <v>18.3</v>
-      </c>
-      <c r="R33">
-        <v>0.48</v>
-      </c>
-      <c r="S33">
-        <v>4.6</v>
-      </c>
-      <c r="T33">
-        <v>5.4</v>
-      </c>
-      <c r="U33">
-        <v>0.8640000000000001</v>
-      </c>
-      <c r="V33">
-        <v>2.2</v>
-      </c>
-      <c r="W33">
-        <v>5.6</v>
-      </c>
-      <c r="X33">
-        <v>7.8</v>
-      </c>
-      <c r="Y33">
-        <v>6.1</v>
-      </c>
-      <c r="Z33">
-        <v>2</v>
-      </c>
-      <c r="AA33">
-        <v>1.5</v>
-      </c>
-      <c r="AB33">
-        <v>5.1</v>
-      </c>
-      <c r="AC33">
-        <v>3.4</v>
-      </c>
-      <c r="AD33">
-        <v>22.2</v>
-      </c>
-      <c r="AF33">
-        <v>100</v>
-      </c>
-      <c r="AG33">
-        <v>105</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="I34">
-        <v>-2489</v>
-      </c>
-      <c r="J34">
-        <v>-3.399999999999999</v>
-      </c>
-      <c r="K34">
-        <v>-5.199999999999999</v>
-      </c>
-      <c r="L34">
-        <v>-0.03800000000000003</v>
-      </c>
-      <c r="M34">
-        <v>-0.1</v>
-      </c>
-      <c r="N34">
-        <v>-0.2</v>
-      </c>
-      <c r="O34">
-        <v>-0.333</v>
-      </c>
-      <c r="P34">
-        <v>-3.299999999999999</v>
-      </c>
-      <c r="Q34">
-        <v>-5.099999999999998</v>
-      </c>
-      <c r="R34">
-        <v>-0.03500000000000003</v>
-      </c>
-      <c r="S34">
-        <v>-1.9</v>
-      </c>
-      <c r="T34">
-        <v>-3.299999999999999</v>
-      </c>
-      <c r="U34">
-        <v>0.1100000000000001</v>
-      </c>
-      <c r="V34">
-        <v>-1.2</v>
-      </c>
-      <c r="W34">
-        <v>-0.5</v>
-      </c>
-      <c r="X34">
-        <v>-1.8</v>
-      </c>
-      <c r="Y34">
-        <v>0.5</v>
-      </c>
-      <c r="Z34">
-        <v>-0.5</v>
-      </c>
-      <c r="AA34">
-        <v>-1</v>
-      </c>
-      <c r="AB34">
-        <v>1</v>
-      </c>
-      <c r="AC34">
-        <v>-0.5</v>
-      </c>
-      <c r="AD34">
-        <v>-8.800000000000001</v>
-      </c>
-      <c r="AF34">
-        <v>-12</v>
-      </c>
-      <c r="AG34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35">
-        <v>78</v>
-      </c>
-      <c r="H35">
-        <v>78</v>
-      </c>
-      <c r="I35">
-        <v>2535</v>
-      </c>
-      <c r="J35">
-        <v>11.5</v>
-      </c>
-      <c r="K35">
-        <v>23.2</v>
-      </c>
-      <c r="L35">
-        <v>0.494</v>
-      </c>
-      <c r="M35">
-        <v>0.1</v>
-      </c>
-      <c r="N35">
-        <v>0.3</v>
-      </c>
-      <c r="O35">
-        <v>0.214</v>
-      </c>
-      <c r="P35">
-        <v>11.4</v>
-      </c>
-      <c r="Q35">
-        <v>22.9</v>
-      </c>
-      <c r="R35">
-        <v>0.4970000000000001</v>
-      </c>
-      <c r="S35">
-        <v>6.3</v>
-      </c>
-      <c r="T35">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="U35">
-        <v>0.765</v>
-      </c>
-      <c r="V35">
-        <v>3.2</v>
-      </c>
-      <c r="W35">
-        <v>4.5</v>
-      </c>
-      <c r="X35">
-        <v>7.8</v>
-      </c>
-      <c r="Y35">
-        <v>4.4</v>
-      </c>
-      <c r="Z35">
-        <v>2.5</v>
-      </c>
-      <c r="AA35">
-        <v>2</v>
-      </c>
-      <c r="AB35">
-        <v>3.9</v>
-      </c>
-      <c r="AC35">
-        <v>3.7</v>
-      </c>
-      <c r="AD35">
-        <v>29.3</v>
-      </c>
-      <c r="AF35">
-        <v>111</v>
-      </c>
-      <c r="AG35">
-        <v>106</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36">
-        <v>13</v>
-      </c>
-      <c r="H36">
-        <v>13</v>
-      </c>
-      <c r="I36">
-        <v>434</v>
-      </c>
-      <c r="J36">
-        <v>9.4</v>
-      </c>
-      <c r="K36">
-        <v>20.8</v>
-      </c>
-      <c r="L36">
-        <v>0.449</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0.1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>9.4</v>
-      </c>
-      <c r="Q36">
-        <v>20.7</v>
-      </c>
-      <c r="R36">
-        <v>0.452</v>
-      </c>
-      <c r="S36">
-        <v>6</v>
-      </c>
-      <c r="T36">
-        <v>7</v>
-      </c>
-      <c r="U36">
-        <v>0.857</v>
-      </c>
-      <c r="V36">
-        <v>3.2</v>
-      </c>
-      <c r="W36">
-        <v>4.9</v>
-      </c>
-      <c r="X36">
-        <v>8.1</v>
-      </c>
-      <c r="Y36">
-        <v>5.3</v>
-      </c>
-      <c r="Z36">
-        <v>2.8</v>
-      </c>
-      <c r="AA36">
-        <v>1.2</v>
-      </c>
-      <c r="AB36">
-        <v>4.1</v>
-      </c>
-      <c r="AC36">
-        <v>3.8</v>
-      </c>
-      <c r="AD36">
-        <v>24.7</v>
-      </c>
-      <c r="AF36">
-        <v>107</v>
-      </c>
-      <c r="AG36">
-        <v>105</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="I37">
-        <v>-2101</v>
-      </c>
-      <c r="J37">
-        <v>-2.1</v>
-      </c>
-      <c r="K37">
-        <v>-2.399999999999999</v>
-      </c>
-      <c r="L37">
-        <v>-0.04499999999999998</v>
-      </c>
-      <c r="M37">
-        <v>-0.1</v>
-      </c>
-      <c r="N37">
-        <v>-0.2</v>
-      </c>
-      <c r="O37">
-        <v>-0.214</v>
-      </c>
-      <c r="P37">
-        <v>-2</v>
-      </c>
-      <c r="Q37">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="R37">
-        <v>-0.04500000000000004</v>
-      </c>
-      <c r="S37">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="T37">
-        <v>-1.300000000000001</v>
-      </c>
-      <c r="U37">
-        <v>0.09199999999999997</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="X37">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="Y37">
-        <v>0.8999999999999995</v>
-      </c>
-      <c r="Z37">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="AA37">
-        <v>-0.8</v>
-      </c>
-      <c r="AB37">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="AC37">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="AD37">
-        <v>-4.600000000000001</v>
-      </c>
-      <c r="AF37">
-        <v>-4</v>
-      </c>
-      <c r="AG37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38">
-        <v>74</v>
-      </c>
-      <c r="H38">
-        <v>74</v>
-      </c>
-      <c r="I38">
-        <v>2474</v>
-      </c>
-      <c r="J38">
-        <v>10.1</v>
-      </c>
-      <c r="K38">
-        <v>20.9</v>
-      </c>
-      <c r="L38">
-        <v>0.48</v>
-      </c>
-      <c r="M38">
-        <v>0.2</v>
-      </c>
-      <c r="N38">
-        <v>0.6</v>
-      </c>
-      <c r="O38">
-        <v>0.281</v>
-      </c>
-      <c r="P38">
-        <v>9.9</v>
-      </c>
-      <c r="Q38">
-        <v>20.3</v>
-      </c>
-      <c r="R38">
-        <v>0.486</v>
-      </c>
-      <c r="S38">
-        <v>5.6</v>
-      </c>
-      <c r="T38">
-        <v>7.1</v>
-      </c>
-      <c r="U38">
-        <v>0.785</v>
-      </c>
-      <c r="V38">
-        <v>3.3</v>
-      </c>
-      <c r="W38">
-        <v>3.9</v>
-      </c>
-      <c r="X38">
-        <v>7.1</v>
-      </c>
-      <c r="Y38">
-        <v>4.8</v>
-      </c>
-      <c r="Z38">
-        <v>2.2</v>
-      </c>
-      <c r="AA38">
-        <v>1.6</v>
-      </c>
-      <c r="AB38">
-        <v>4.1</v>
-      </c>
-      <c r="AC38">
-        <v>3.8</v>
-      </c>
-      <c r="AD38">
-        <v>25.9</v>
-      </c>
-      <c r="AF38">
-        <v>108</v>
-      </c>
-      <c r="AG38">
-        <v>107</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39">
-        <v>12</v>
-      </c>
-      <c r="H39">
-        <v>12</v>
-      </c>
-      <c r="I39">
-        <v>433</v>
-      </c>
-      <c r="J39">
-        <v>9.1</v>
-      </c>
-      <c r="K39">
-        <v>20.3</v>
-      </c>
-      <c r="L39">
-        <v>0.45</v>
-      </c>
-      <c r="M39">
-        <v>0.2</v>
-      </c>
-      <c r="N39">
-        <v>1.2</v>
-      </c>
-      <c r="O39">
-        <v>0.182</v>
-      </c>
-      <c r="P39">
-        <v>8.9</v>
-      </c>
-      <c r="Q39">
-        <v>19.1</v>
-      </c>
-      <c r="R39">
-        <v>0.467</v>
-      </c>
-      <c r="S39">
-        <v>5.4</v>
-      </c>
-      <c r="T39">
-        <v>7.3</v>
-      </c>
-      <c r="U39">
-        <v>0.738</v>
-      </c>
-      <c r="V39">
-        <v>2.9</v>
-      </c>
-      <c r="W39">
-        <v>5</v>
-      </c>
-      <c r="X39">
-        <v>7.9</v>
-      </c>
-      <c r="Y39">
-        <v>5.6</v>
-      </c>
-      <c r="Z39">
-        <v>1.2</v>
-      </c>
-      <c r="AA39">
-        <v>1.8</v>
-      </c>
-      <c r="AB39">
-        <v>4.4</v>
-      </c>
-      <c r="AC39">
-        <v>3.6</v>
-      </c>
-      <c r="AD39">
-        <v>23.9</v>
-      </c>
-      <c r="AF39">
-        <v>104</v>
-      </c>
-      <c r="AG39">
-        <v>110</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="I40">
-        <v>-2041</v>
-      </c>
-      <c r="J40">
-        <v>-1</v>
-      </c>
-      <c r="K40">
-        <v>-0.5999999999999979</v>
-      </c>
-      <c r="L40">
-        <v>-0.02999999999999997</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0.6</v>
-      </c>
-      <c r="O40">
-        <v>-0.09900000000000003</v>
-      </c>
-      <c r="P40">
-        <v>-1</v>
-      </c>
-      <c r="Q40">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="R40">
-        <v>-0.01899999999999996</v>
-      </c>
-      <c r="S40">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="T40">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="U40">
-        <v>-0.04700000000000004</v>
-      </c>
-      <c r="V40">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="W40">
-        <v>1.1</v>
-      </c>
-      <c r="X40">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="Y40">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="Z40">
-        <v>-1</v>
-      </c>
-      <c r="AA40">
-        <v>0.2</v>
-      </c>
-      <c r="AB40">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="AC40">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="AD40">
-        <v>-2</v>
-      </c>
-      <c r="AF40">
-        <v>-4</v>
-      </c>
-      <c r="AG40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41">
-        <v>60</v>
-      </c>
-      <c r="H41">
-        <v>60</v>
-      </c>
-      <c r="I41">
-        <v>1918</v>
-      </c>
-      <c r="J41">
-        <v>10.3</v>
-      </c>
-      <c r="K41">
-        <v>21.9</v>
-      </c>
-      <c r="L41">
-        <v>0.471</v>
-      </c>
-      <c r="M41">
-        <v>0.4</v>
-      </c>
-      <c r="N41">
-        <v>1.4</v>
-      </c>
-      <c r="O41">
-        <v>0.264</v>
-      </c>
-      <c r="P41">
-        <v>9.9</v>
-      </c>
-      <c r="Q41">
-        <v>20.5</v>
-      </c>
-      <c r="R41">
-        <v>0.484</v>
-      </c>
-      <c r="S41">
-        <v>4.9</v>
-      </c>
-      <c r="T41">
-        <v>6</v>
-      </c>
-      <c r="U41">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="V41">
-        <v>3</v>
-      </c>
-      <c r="W41">
-        <v>3.8</v>
-      </c>
-      <c r="X41">
-        <v>6.8</v>
-      </c>
-      <c r="Y41">
-        <v>4.9</v>
-      </c>
-      <c r="Z41">
-        <v>2</v>
-      </c>
-      <c r="AA41">
-        <v>2.4</v>
-      </c>
-      <c r="AB41">
-        <v>4.1</v>
-      </c>
-      <c r="AC41">
-        <v>3.5</v>
-      </c>
-      <c r="AD41">
-        <v>25.8</v>
-      </c>
-      <c r="AF41">
-        <v>106</v>
-      </c>
-      <c r="AG41">
-        <v>109</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42">
-        <v>5</v>
-      </c>
-      <c r="H42">
-        <v>5</v>
-      </c>
-      <c r="I42">
-        <v>180</v>
-      </c>
-      <c r="J42">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K42">
-        <v>22.2</v>
-      </c>
-      <c r="L42">
-        <v>0.415</v>
-      </c>
-      <c r="M42">
-        <v>0.5</v>
-      </c>
-      <c r="N42">
-        <v>1.6</v>
-      </c>
-      <c r="O42">
-        <v>0.333</v>
-      </c>
-      <c r="P42">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Q42">
-        <v>20.5</v>
-      </c>
-      <c r="R42">
-        <v>0.421</v>
-      </c>
-      <c r="S42">
-        <v>5.7</v>
-      </c>
-      <c r="T42">
-        <v>6.8</v>
-      </c>
-      <c r="U42">
-        <v>0.84</v>
-      </c>
-      <c r="V42">
-        <v>3.8</v>
-      </c>
-      <c r="W42">
-        <v>3</v>
-      </c>
-      <c r="X42">
-        <v>6.8</v>
-      </c>
-      <c r="Y42">
-        <v>4.6</v>
-      </c>
-      <c r="Z42">
-        <v>1.9</v>
-      </c>
-      <c r="AA42">
-        <v>1.6</v>
-      </c>
-      <c r="AB42">
-        <v>2.4</v>
-      </c>
-      <c r="AC42">
-        <v>5.1</v>
-      </c>
-      <c r="AD42">
-        <v>24.6</v>
-      </c>
-      <c r="AF42">
-        <v>111</v>
-      </c>
-      <c r="AG42">
-        <v>114</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="I43">
-        <v>-1738</v>
-      </c>
-      <c r="J43">
-        <v>-1.100000000000001</v>
-      </c>
-      <c r="K43">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="L43">
-        <v>-0.05600000000000005</v>
-      </c>
-      <c r="M43">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="N43">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="O43">
-        <v>0.06899999999999995</v>
-      </c>
-      <c r="P43">
-        <v>-1.200000000000001</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>-0.06299999999999994</v>
-      </c>
-      <c r="S43">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="T43">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="U43">
-        <v>0.02700000000000002</v>
-      </c>
-      <c r="V43">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="W43">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="Z43">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AA43">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="AB43">
-        <v>-1.7</v>
-      </c>
-      <c r="AC43">
-        <v>1.6</v>
-      </c>
-      <c r="AD43">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="AF43">
-        <v>5</v>
-      </c>
-      <c r="AG43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" t="s">
-        <v>68</v>
-      </c>
-      <c r="E44" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44">
-        <v>252</v>
-      </c>
-      <c r="I44">
-        <v>10044</v>
-      </c>
-      <c r="J44">
-        <v>12.7</v>
-      </c>
-      <c r="K44">
-        <v>24.9</v>
-      </c>
-      <c r="L44">
-        <v>0.508</v>
-      </c>
-      <c r="M44">
-        <v>0.4</v>
-      </c>
-      <c r="N44">
-        <v>1.1</v>
-      </c>
-      <c r="O44">
-        <v>0.343</v>
-      </c>
-      <c r="P44">
-        <v>12.3</v>
-      </c>
-      <c r="Q44">
-        <v>23.9</v>
-      </c>
-      <c r="R44">
-        <v>0.516</v>
-      </c>
-      <c r="S44">
-        <v>6.7</v>
-      </c>
-      <c r="T44">
-        <v>8.5</v>
-      </c>
-      <c r="U44">
-        <v>0.789</v>
-      </c>
-      <c r="V44">
-        <v>4</v>
-      </c>
-      <c r="W44">
-        <v>8.5</v>
-      </c>
-      <c r="X44">
-        <v>12.5</v>
-      </c>
-      <c r="Y44">
-        <v>6</v>
-      </c>
-      <c r="Z44">
-        <v>2.7</v>
-      </c>
-      <c r="AA44">
-        <v>2.4</v>
-      </c>
-      <c r="AB44">
-        <v>4.3</v>
-      </c>
-      <c r="AC44">
-        <v>3.4</v>
-      </c>
-      <c r="AD44">
-        <v>32.4</v>
-      </c>
-      <c r="AF44">
-        <v>113</v>
-      </c>
-      <c r="AG44">
-        <v>96</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" t="s">
-        <v>70</v>
-      </c>
-      <c r="G45">
-        <v>32</v>
-      </c>
-      <c r="I45">
-        <v>1341</v>
-      </c>
-      <c r="J45">
-        <v>13.2</v>
-      </c>
-      <c r="K45">
-        <v>25.4</v>
-      </c>
-      <c r="L45">
-        <v>0.518</v>
-      </c>
-      <c r="M45">
-        <v>0.3</v>
-      </c>
-      <c r="N45">
-        <v>1.2</v>
-      </c>
-      <c r="O45">
-        <v>0.273</v>
-      </c>
-      <c r="P45">
-        <v>12.8</v>
-      </c>
-      <c r="Q45">
-        <v>24.2</v>
-      </c>
-      <c r="R45">
-        <v>0.53</v>
-      </c>
-      <c r="S45">
-        <v>7.6</v>
-      </c>
-      <c r="T45">
-        <v>9.6</v>
-      </c>
-      <c r="U45">
-        <v>0.789</v>
-      </c>
-      <c r="V45">
-        <v>4.2</v>
-      </c>
-      <c r="W45">
-        <v>8</v>
-      </c>
-      <c r="X45">
-        <v>12.2</v>
-      </c>
-      <c r="Y45">
-        <v>5.6</v>
-      </c>
-      <c r="Z45">
-        <v>1.8</v>
-      </c>
-      <c r="AA45">
-        <v>1.9</v>
-      </c>
-      <c r="AB45">
-        <v>3.8</v>
-      </c>
-      <c r="AC45">
-        <v>3.5</v>
-      </c>
-      <c r="AD45">
-        <v>34.2</v>
-      </c>
-      <c r="AF45">
-        <v>118</v>
-      </c>
-      <c r="AG45">
-        <v>100</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="I46">
-        <v>-8703</v>
-      </c>
-      <c r="J46">
-        <v>0.5</v>
-      </c>
-      <c r="K46">
-        <v>0.5</v>
-      </c>
-      <c r="L46">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="M46">
-        <v>-0.1</v>
-      </c>
-      <c r="N46">
-        <v>0.09999999999999987</v>
-      </c>
-      <c r="O46">
-        <v>-0.06999999999999995</v>
-      </c>
-      <c r="P46">
-        <v>0.5</v>
-      </c>
-      <c r="Q46">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="R46">
-        <v>0.01400000000000001</v>
-      </c>
-      <c r="S46">
-        <v>0.8999999999999995</v>
-      </c>
-      <c r="T46">
-        <v>1.1</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="W46">
-        <v>-0.5</v>
-      </c>
-      <c r="X46">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="Y46">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="Z46">
-        <v>-0.9000000000000001</v>
-      </c>
-      <c r="AA46">
-        <v>-0.5</v>
-      </c>
-      <c r="AB46">
-        <v>-0.5</v>
-      </c>
-      <c r="AC46">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AD46">
-        <v>1.800000000000004</v>
-      </c>
-      <c r="AF46">
-        <v>5</v>
-      </c>
-      <c r="AG46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" t="s">
-        <v>71</v>
-      </c>
-      <c r="G47">
-        <v>836</v>
-      </c>
-      <c r="H47">
-        <v>823</v>
-      </c>
-      <c r="I47">
-        <v>28677</v>
-      </c>
-      <c r="J47">
-        <v>11.8</v>
-      </c>
-      <c r="K47">
-        <v>23.2</v>
-      </c>
-      <c r="L47">
-        <v>0.507</v>
-      </c>
-      <c r="M47">
-        <v>0.1</v>
-      </c>
-      <c r="N47">
-        <v>0.4</v>
-      </c>
-      <c r="O47">
-        <v>0.261</v>
-      </c>
-      <c r="P47">
-        <v>11.7</v>
-      </c>
-      <c r="Q47">
-        <v>22.9</v>
-      </c>
-      <c r="R47">
-        <v>0.51</v>
-      </c>
-      <c r="S47">
-        <v>6.2</v>
-      </c>
-      <c r="T47">
-        <v>8</v>
-      </c>
-      <c r="U47">
-        <v>0.777</v>
-      </c>
-      <c r="V47">
-        <v>3.4</v>
-      </c>
-      <c r="W47">
-        <v>5.7</v>
-      </c>
-      <c r="X47">
-        <v>9.1</v>
-      </c>
-      <c r="Y47">
-        <v>5.2</v>
-      </c>
-      <c r="Z47">
-        <v>2.4</v>
-      </c>
-      <c r="AA47">
-        <v>2.1</v>
-      </c>
-      <c r="AB47">
-        <v>3.8</v>
-      </c>
-      <c r="AC47">
-        <v>3.7</v>
-      </c>
-      <c r="AD47">
-        <v>29.8</v>
-      </c>
-      <c r="AF47">
-        <v>111</v>
-      </c>
-      <c r="AG47">
-        <v>101</v>
-      </c>
-      <c r="AH47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" t="s">
-        <v>71</v>
-      </c>
-      <c r="G48">
-        <v>141</v>
-      </c>
-      <c r="H48">
-        <v>30</v>
-      </c>
-      <c r="I48">
-        <v>5288</v>
-      </c>
-      <c r="J48">
-        <v>10.7</v>
-      </c>
-      <c r="K48">
-        <v>21.9</v>
-      </c>
-      <c r="L48">
-        <v>0.486</v>
-      </c>
-      <c r="M48">
-        <v>0.1</v>
-      </c>
-      <c r="N48">
-        <v>0.5</v>
-      </c>
-      <c r="O48">
-        <v>0.194</v>
-      </c>
-      <c r="P48">
-        <v>10.6</v>
-      </c>
-      <c r="Q48">
-        <v>21.6</v>
-      </c>
-      <c r="R48">
-        <v>0.491</v>
-      </c>
-      <c r="S48">
-        <v>6.4</v>
-      </c>
-      <c r="T48">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="U48">
-        <v>0.779</v>
-      </c>
-      <c r="V48">
-        <v>3.2</v>
-      </c>
-      <c r="W48">
-        <v>5.7</v>
-      </c>
-      <c r="X48">
-        <v>8.9</v>
-      </c>
-      <c r="Y48">
-        <v>5.3</v>
-      </c>
-      <c r="Z48">
-        <v>2.1</v>
-      </c>
-      <c r="AA48">
-        <v>2.1</v>
-      </c>
-      <c r="AB48">
-        <v>3.6</v>
-      </c>
-      <c r="AC48">
-        <v>3.6</v>
-      </c>
-      <c r="AD48">
-        <v>27.8</v>
-      </c>
-      <c r="AF48">
-        <v>107</v>
-      </c>
-      <c r="AG48">
-        <v>103</v>
-      </c>
-      <c r="AH48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="I49">
-        <v>-23389</v>
-      </c>
-      <c r="J49">
-        <v>-1.100000000000001</v>
-      </c>
-      <c r="K49">
-        <v>-1.300000000000001</v>
-      </c>
-      <c r="L49">
-        <v>-0.02100000000000002</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="O49">
-        <v>-0.06700000000000003</v>
-      </c>
-      <c r="P49">
-        <v>-1.1</v>
-      </c>
-      <c r="Q49">
-        <v>-1.299999999999997</v>
-      </c>
-      <c r="R49">
-        <v>-0.01900000000000002</v>
-      </c>
-      <c r="S49">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="T49">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="U49">
-        <v>0.002000000000000002</v>
-      </c>
-      <c r="V49">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="Y49">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="Z49">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="AC49">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AD49">
-        <v>-2</v>
-      </c>
-      <c r="AF49">
-        <v>-4</v>
-      </c>
-      <c r="AG49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50">
-        <v>1088</v>
-      </c>
-      <c r="H50">
-        <v>823</v>
-      </c>
-      <c r="I50">
-        <v>38721</v>
-      </c>
-      <c r="J50">
-        <v>12</v>
-      </c>
-      <c r="K50">
-        <v>23.6</v>
-      </c>
-      <c r="L50">
-        <v>0.507</v>
-      </c>
-      <c r="M50">
-        <v>0.2</v>
-      </c>
-      <c r="N50">
-        <v>0.6</v>
-      </c>
-      <c r="O50">
-        <v>0.308</v>
-      </c>
-      <c r="P50">
-        <v>11.8</v>
-      </c>
-      <c r="Q50">
-        <v>23.2</v>
-      </c>
-      <c r="R50">
-        <v>0.512</v>
-      </c>
-      <c r="S50">
-        <v>6.4</v>
-      </c>
-      <c r="T50">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="U50">
-        <v>0.78</v>
-      </c>
-      <c r="V50">
-        <v>3.5</v>
-      </c>
-      <c r="W50">
-        <v>6.5</v>
-      </c>
-      <c r="X50">
-        <v>10</v>
-      </c>
-      <c r="Y50">
-        <v>5.4</v>
-      </c>
-      <c r="Z50">
-        <v>2.5</v>
-      </c>
-      <c r="AA50">
-        <v>2.2</v>
-      </c>
-      <c r="AB50">
-        <v>3.9</v>
-      </c>
-      <c r="AC50">
-        <v>3.6</v>
-      </c>
-      <c r="AD50">
-        <v>30.5</v>
-      </c>
-      <c r="AF50">
-        <v>112</v>
-      </c>
-      <c r="AG50">
-        <v>100</v>
-      </c>
-      <c r="AH50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" t="s">
-        <v>72</v>
-      </c>
-      <c r="G51">
-        <v>173</v>
-      </c>
-      <c r="H51">
-        <v>30</v>
-      </c>
-      <c r="I51">
-        <v>6629</v>
-      </c>
-      <c r="J51">
-        <v>11.2</v>
-      </c>
-      <c r="K51">
-        <v>22.6</v>
-      </c>
-      <c r="L51">
-        <v>0.494</v>
-      </c>
-      <c r="M51">
-        <v>0.2</v>
-      </c>
-      <c r="N51">
-        <v>0.6</v>
-      </c>
-      <c r="O51">
-        <v>0.232</v>
-      </c>
-      <c r="P51">
-        <v>11.1</v>
-      </c>
-      <c r="Q51">
-        <v>22.2</v>
-      </c>
-      <c r="R51">
-        <v>0.499</v>
-      </c>
-      <c r="S51">
-        <v>6.6</v>
-      </c>
-      <c r="T51">
-        <v>8.5</v>
-      </c>
-      <c r="U51">
-        <v>0.7809999999999999</v>
-      </c>
-      <c r="V51">
-        <v>3.4</v>
-      </c>
-      <c r="W51">
-        <v>6.2</v>
-      </c>
-      <c r="X51">
-        <v>9.6</v>
-      </c>
-      <c r="Y51">
-        <v>5.4</v>
-      </c>
-      <c r="Z51">
-        <v>2.1</v>
-      </c>
-      <c r="AA51">
-        <v>2.1</v>
-      </c>
-      <c r="AB51">
-        <v>3.6</v>
-      </c>
-      <c r="AC51">
-        <v>3.6</v>
-      </c>
-      <c r="AD51">
-        <v>29.1</v>
-      </c>
-      <c r="AF51">
-        <v>110</v>
-      </c>
-      <c r="AG51">
-        <v>102</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="I52">
-        <v>-32092</v>
-      </c>
-      <c r="J52">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="K52">
-        <v>-1</v>
-      </c>
-      <c r="L52">
-        <v>-0.01300000000000001</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>-0.07600000000000001</v>
-      </c>
-      <c r="P52">
-        <v>-0.7000000000000011</v>
-      </c>
-      <c r="Q52">
-        <v>-1</v>
-      </c>
-      <c r="R52">
-        <v>-0.01300000000000001</v>
-      </c>
-      <c r="S52">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="T52">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="U52">
-        <v>0.0009999999999998899</v>
-      </c>
-      <c r="V52">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="W52">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="X52">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="AA52">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AB52">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>-1.399999999999999</v>
-      </c>
-      <c r="AF52">
-        <v>-2</v>
-      </c>
-      <c r="AG52">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15671,70 +5962,70 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>30</v>

--- a/output/ervinju01.xlsx
+++ b/output/ervinju01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="99">
   <si>
     <t>Season</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>PS</t>
+  </si>
+  <si>
+    <t>ORtg</t>
+  </si>
+  <si>
+    <t>DRtg</t>
   </si>
   <si>
     <t>PER</t>
@@ -5909,24 +5915,9727 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AE61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2">
+        <v>84</v>
+      </c>
+      <c r="I2">
+        <v>3513</v>
+      </c>
+      <c r="J2">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="K2">
+        <v>18.7</v>
+      </c>
+      <c r="L2">
+        <v>0.498</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.2</v>
+      </c>
+      <c r="O2">
+        <v>0.188</v>
+      </c>
+      <c r="P2">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>18.5</v>
+      </c>
+      <c r="R2">
+        <v>0.501</v>
+      </c>
+      <c r="S2">
+        <v>4.8</v>
+      </c>
+      <c r="T2">
+        <v>6.4</v>
+      </c>
+      <c r="U2">
+        <v>0.745</v>
+      </c>
+      <c r="V2">
+        <v>4.9</v>
+      </c>
+      <c r="W2">
+        <v>8.6</v>
+      </c>
+      <c r="X2">
+        <v>13.5</v>
+      </c>
+      <c r="Y2">
+        <v>3.4</v>
+      </c>
+      <c r="AB2">
+        <v>3.5</v>
+      </c>
+      <c r="AC2">
+        <v>2.7</v>
+      </c>
+      <c r="AD2">
+        <v>23.5</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>504</v>
+      </c>
+      <c r="J3">
+        <v>10.5</v>
+      </c>
+      <c r="K3">
+        <v>20.3</v>
+      </c>
+      <c r="L3">
+        <v>0.518</v>
+      </c>
+      <c r="M3">
+        <v>0.1</v>
+      </c>
+      <c r="N3">
+        <v>0.3</v>
+      </c>
+      <c r="O3">
+        <v>0.25</v>
+      </c>
+      <c r="P3">
+        <v>10.4</v>
+      </c>
+      <c r="Q3">
+        <v>20</v>
+      </c>
+      <c r="R3">
+        <v>0.521</v>
+      </c>
+      <c r="S3">
+        <v>5.1</v>
+      </c>
+      <c r="T3">
+        <v>6.1</v>
+      </c>
+      <c r="U3">
+        <v>0.835</v>
+      </c>
+      <c r="X3">
+        <v>16</v>
+      </c>
+      <c r="Y3">
+        <v>5.1</v>
+      </c>
+      <c r="AB3">
+        <v>3.9</v>
+      </c>
+      <c r="AC3">
+        <v>1.9</v>
+      </c>
+      <c r="AD3">
+        <v>26.1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>-3009</v>
+      </c>
+      <c r="J4">
+        <v>1.199999999999999</v>
+      </c>
+      <c r="K4">
+        <v>1.600000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="M4">
+        <v>0.1</v>
+      </c>
+      <c r="N4">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="O4">
+        <v>0.062</v>
+      </c>
+      <c r="P4">
+        <v>1.1</v>
+      </c>
+      <c r="Q4">
+        <v>1.5</v>
+      </c>
+      <c r="R4">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="S4">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="T4">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="U4">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="X4">
+        <v>2.5</v>
+      </c>
+      <c r="Y4">
+        <v>1.7</v>
+      </c>
+      <c r="AB4">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="AC4">
+        <v>-0.8000000000000003</v>
+      </c>
+      <c r="AD4">
+        <v>2.600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5">
+        <v>71</v>
+      </c>
+      <c r="I5">
+        <v>2993</v>
+      </c>
+      <c r="J5">
+        <v>10.8</v>
+      </c>
+      <c r="K5">
+        <v>21.7</v>
+      </c>
+      <c r="L5">
+        <v>0.496</v>
+      </c>
+      <c r="M5">
+        <v>0.1</v>
+      </c>
+      <c r="N5">
+        <v>0.3</v>
+      </c>
+      <c r="O5">
+        <v>0.208</v>
+      </c>
+      <c r="P5">
+        <v>10.7</v>
+      </c>
+      <c r="Q5">
+        <v>21.4</v>
+      </c>
+      <c r="R5">
+        <v>0.499</v>
+      </c>
+      <c r="S5">
+        <v>5.7</v>
+      </c>
+      <c r="T5">
+        <v>7.4</v>
+      </c>
+      <c r="U5">
+        <v>0.7759999999999999</v>
+      </c>
+      <c r="V5">
+        <v>3.2</v>
+      </c>
+      <c r="W5">
+        <v>7.3</v>
+      </c>
+      <c r="X5">
+        <v>10.4</v>
+      </c>
+      <c r="Y5">
+        <v>3.6</v>
+      </c>
+      <c r="Z5">
+        <v>2.2</v>
+      </c>
+      <c r="AA5">
+        <v>1.5</v>
+      </c>
+      <c r="AB5">
+        <v>3.9</v>
+      </c>
+      <c r="AC5">
+        <v>2.4</v>
+      </c>
+      <c r="AD5">
+        <v>27.3</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>219</v>
+      </c>
+      <c r="J6">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K6">
+        <v>18.4</v>
+      </c>
+      <c r="L6">
+        <v>0.527</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.5</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>17.9</v>
+      </c>
+      <c r="R6">
+        <v>0.541</v>
+      </c>
+      <c r="S6">
+        <v>4.9</v>
+      </c>
+      <c r="T6">
+        <v>6.6</v>
+      </c>
+      <c r="U6">
+        <v>0.75</v>
+      </c>
+      <c r="V6">
+        <v>2.3</v>
+      </c>
+      <c r="W6">
+        <v>5.1</v>
+      </c>
+      <c r="X6">
+        <v>7.4</v>
+      </c>
+      <c r="Y6">
+        <v>2.6</v>
+      </c>
+      <c r="AB6">
+        <v>2.8</v>
+      </c>
+      <c r="AC6">
+        <v>2.6</v>
+      </c>
+      <c r="AD6">
+        <v>24.3</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>-2774</v>
+      </c>
+      <c r="J7">
+        <v>-1.100000000000001</v>
+      </c>
+      <c r="K7">
+        <v>-3.300000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.03100000000000003</v>
+      </c>
+      <c r="M7">
+        <v>-0.1</v>
+      </c>
+      <c r="N7">
+        <v>0.2</v>
+      </c>
+      <c r="O7">
+        <v>-0.208</v>
+      </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7">
+        <v>-3.5</v>
+      </c>
+      <c r="R7">
+        <v>0.04200000000000004</v>
+      </c>
+      <c r="S7">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="T7">
+        <v>-0.8000000000000007</v>
+      </c>
+      <c r="U7">
+        <v>-0.02599999999999991</v>
+      </c>
+      <c r="V7">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="W7">
+        <v>-2.2</v>
+      </c>
+      <c r="X7">
+        <v>-3</v>
+      </c>
+      <c r="Y7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
+        <v>-1.1</v>
+      </c>
+      <c r="AC7">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="AD7">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8">
+        <v>84</v>
+      </c>
+      <c r="I8">
+        <v>3398</v>
+      </c>
+      <c r="J8">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K8">
+        <v>18.9</v>
+      </c>
+      <c r="L8">
+        <v>0.512</v>
+      </c>
+      <c r="M8">
+        <v>0.2</v>
+      </c>
+      <c r="N8">
+        <v>0.5</v>
+      </c>
+      <c r="O8">
+        <v>0.395</v>
+      </c>
+      <c r="P8">
+        <v>9.5</v>
+      </c>
+      <c r="Q8">
+        <v>18.5</v>
+      </c>
+      <c r="R8">
+        <v>0.515</v>
+      </c>
+      <c r="S8">
+        <v>4.8</v>
+      </c>
+      <c r="T8">
+        <v>6.3</v>
+      </c>
+      <c r="U8">
+        <v>0.7659999999999999</v>
+      </c>
+      <c r="V8">
+        <v>2.8</v>
+      </c>
+      <c r="W8">
+        <v>6.7</v>
+      </c>
+      <c r="X8">
+        <v>9.5</v>
+      </c>
+      <c r="Y8">
+        <v>4.6</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>2.2</v>
+      </c>
+      <c r="AB8">
+        <v>3.6</v>
+      </c>
+      <c r="AC8">
+        <v>2.9</v>
+      </c>
+      <c r="AD8">
+        <v>24.4</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>579</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>19</v>
+      </c>
+      <c r="L9">
+        <v>0.528</v>
+      </c>
+      <c r="M9">
+        <v>0.3</v>
+      </c>
+      <c r="N9">
+        <v>0.7</v>
+      </c>
+      <c r="O9">
+        <v>0.455</v>
+      </c>
+      <c r="P9">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Q9">
+        <v>18.3</v>
+      </c>
+      <c r="R9">
+        <v>0.531</v>
+      </c>
+      <c r="S9">
+        <v>3.9</v>
+      </c>
+      <c r="T9">
+        <v>5.3</v>
+      </c>
+      <c r="U9">
+        <v>0.741</v>
+      </c>
+      <c r="V9">
+        <v>2.7</v>
+      </c>
+      <c r="W9">
+        <v>5.7</v>
+      </c>
+      <c r="X9">
+        <v>8.4</v>
+      </c>
+      <c r="Y9">
+        <v>4.2</v>
+      </c>
+      <c r="Z9">
+        <v>1.4</v>
+      </c>
+      <c r="AA9">
+        <v>1.2</v>
+      </c>
+      <c r="AB9">
+        <v>3.2</v>
+      </c>
+      <c r="AC9">
+        <v>2.5</v>
+      </c>
+      <c r="AD9">
+        <v>24.2</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>-2819</v>
+      </c>
+      <c r="J10">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="K10">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="L10">
+        <v>0.01600000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="N10">
+        <v>0.2</v>
+      </c>
+      <c r="O10">
+        <v>0.06</v>
+      </c>
+      <c r="P10">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="Q10">
+        <v>-0.1999999999999993</v>
+      </c>
+      <c r="R10">
+        <v>0.01600000000000001</v>
+      </c>
+      <c r="S10">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="T10">
+        <v>-1</v>
+      </c>
+      <c r="U10">
+        <v>-0.02499999999999991</v>
+      </c>
+      <c r="V10">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>-1.1</v>
+      </c>
+      <c r="Y10">
+        <v>-0.3999999999999995</v>
+      </c>
+      <c r="Z10">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>-1</v>
+      </c>
+      <c r="AB10">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="AC10">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="AD10">
+        <v>-0.1999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11">
+        <v>84</v>
+      </c>
+      <c r="I11">
+        <v>3402</v>
+      </c>
+      <c r="J11">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K11">
+        <v>19.1</v>
+      </c>
+      <c r="L11">
+        <v>0.506</v>
+      </c>
+      <c r="M11">
+        <v>0.3</v>
+      </c>
+      <c r="N11">
+        <v>0.9</v>
+      </c>
+      <c r="O11">
+        <v>0.333</v>
+      </c>
+      <c r="P11">
+        <v>9.4</v>
+      </c>
+      <c r="Q11">
+        <v>18.2</v>
+      </c>
+      <c r="R11">
+        <v>0.515</v>
+      </c>
+      <c r="S11">
+        <v>5.1</v>
+      </c>
+      <c r="T11">
+        <v>6.4</v>
+      </c>
+      <c r="U11">
+        <v>0.799</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>6.7</v>
+      </c>
+      <c r="X11">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y11">
+        <v>4.9</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11">
+        <v>1.7</v>
+      </c>
+      <c r="AB11">
+        <v>3.2</v>
+      </c>
+      <c r="AC11">
+        <v>2.7</v>
+      </c>
+      <c r="AD11">
+        <v>24.8</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>211</v>
+      </c>
+      <c r="J12">
+        <v>9.4</v>
+      </c>
+      <c r="K12">
+        <v>20.6</v>
+      </c>
+      <c r="L12">
+        <v>0.455</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1.4</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>9.4</v>
+      </c>
+      <c r="Q12">
+        <v>19.3</v>
+      </c>
+      <c r="R12">
+        <v>0.487</v>
+      </c>
+      <c r="S12">
+        <v>4.6</v>
+      </c>
+      <c r="T12">
+        <v>5.5</v>
+      </c>
+      <c r="U12">
+        <v>0.8440000000000001</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>6.3</v>
+      </c>
+      <c r="X12">
+        <v>8.4</v>
+      </c>
+      <c r="Y12">
+        <v>4.8</v>
+      </c>
+      <c r="Z12">
+        <v>0.9</v>
+      </c>
+      <c r="AA12">
+        <v>1.5</v>
+      </c>
+      <c r="AB12">
+        <v>3.2</v>
+      </c>
+      <c r="AC12">
+        <v>3.1</v>
+      </c>
+      <c r="AD12">
+        <v>23.4</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>-3191</v>
+      </c>
+      <c r="J13">
+        <v>-0.2999999999999989</v>
+      </c>
+      <c r="K13">
+        <v>1.5</v>
+      </c>
+      <c r="L13">
+        <v>-0.05099999999999999</v>
+      </c>
+      <c r="M13">
+        <v>-0.3</v>
+      </c>
+      <c r="N13">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="O13">
+        <v>-0.333</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.100000000000001</v>
+      </c>
+      <c r="R13">
+        <v>-0.02799999999999997</v>
+      </c>
+      <c r="S13">
+        <v>-0.5</v>
+      </c>
+      <c r="T13">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="U13">
+        <v>0.04500000000000004</v>
+      </c>
+      <c r="V13">
+        <v>-1</v>
+      </c>
+      <c r="W13">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="X13">
+        <v>-1.299999999999999</v>
+      </c>
+      <c r="Y13">
+        <v>-0.1000000000000005</v>
+      </c>
+      <c r="Z13">
+        <v>-1.1</v>
+      </c>
+      <c r="AA13">
+        <v>-0.2</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="AD13">
+        <v>-1.400000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14">
+        <v>84</v>
+      </c>
+      <c r="I14">
+        <v>3244</v>
+      </c>
+      <c r="J14">
+        <v>10.5</v>
+      </c>
+      <c r="K14">
+        <v>20.8</v>
+      </c>
+      <c r="L14">
+        <v>0.507</v>
+      </c>
+      <c r="M14">
+        <v>0.4</v>
+      </c>
+      <c r="N14">
+        <v>1.1</v>
+      </c>
+      <c r="O14">
+        <v>0.33</v>
+      </c>
+      <c r="P14">
+        <v>10.2</v>
+      </c>
+      <c r="Q14">
+        <v>19.6</v>
+      </c>
+      <c r="R14">
+        <v>0.517</v>
+      </c>
+      <c r="S14">
+        <v>5.9</v>
+      </c>
+      <c r="T14">
+        <v>7.3</v>
+      </c>
+      <c r="U14">
+        <v>0.8009999999999999</v>
+      </c>
+      <c r="V14">
+        <v>3.7</v>
+      </c>
+      <c r="W14">
+        <v>6.5</v>
+      </c>
+      <c r="X14">
+        <v>10.3</v>
+      </c>
+      <c r="Y14">
+        <v>4.7</v>
+      </c>
+      <c r="Z14">
+        <v>2.3</v>
+      </c>
+      <c r="AA14">
+        <v>1.8</v>
+      </c>
+      <c r="AB14">
+        <v>3.4</v>
+      </c>
+      <c r="AC14">
+        <v>2.5</v>
+      </c>
+      <c r="AD14">
+        <v>27.3</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>551</v>
+      </c>
+      <c r="J15">
+        <v>10.5</v>
+      </c>
+      <c r="K15">
+        <v>19.6</v>
+      </c>
+      <c r="L15">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="M15">
+        <v>0.3</v>
+      </c>
+      <c r="N15">
+        <v>0.9</v>
+      </c>
+      <c r="O15">
+        <v>0.286</v>
+      </c>
+      <c r="P15">
+        <v>10.2</v>
+      </c>
+      <c r="Q15">
+        <v>18.7</v>
+      </c>
+      <c r="R15">
+        <v>0.545</v>
+      </c>
+      <c r="S15">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="T15">
+        <v>10.3</v>
+      </c>
+      <c r="U15">
+        <v>0.804</v>
+      </c>
+      <c r="V15">
+        <v>4.2</v>
+      </c>
+      <c r="W15">
+        <v>6.5</v>
+      </c>
+      <c r="X15">
+        <v>10.7</v>
+      </c>
+      <c r="Y15">
+        <v>4.2</v>
+      </c>
+      <c r="Z15">
+        <v>1.6</v>
+      </c>
+      <c r="AA15">
+        <v>1.7</v>
+      </c>
+      <c r="AB15">
+        <v>2.5</v>
+      </c>
+      <c r="AC15">
+        <v>2.7</v>
+      </c>
+      <c r="AD15">
+        <v>29.5</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>-2693</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>-1.199999999999999</v>
+      </c>
+      <c r="L16">
+        <v>0.02599999999999991</v>
+      </c>
+      <c r="M16">
+        <v>-0.1</v>
+      </c>
+      <c r="N16">
+        <v>-0.2000000000000001</v>
+      </c>
+      <c r="O16">
+        <v>-0.04399999999999998</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>-0.9000000000000021</v>
+      </c>
+      <c r="R16">
+        <v>0.02800000000000002</v>
+      </c>
+      <c r="S16">
+        <v>2.4</v>
+      </c>
+      <c r="T16">
+        <v>3.000000000000001</v>
+      </c>
+      <c r="U16">
+        <v>0.003000000000000114</v>
+      </c>
+      <c r="V16">
+        <v>0.5</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0.3999999999999986</v>
+      </c>
+      <c r="Y16">
+        <v>-0.5</v>
+      </c>
+      <c r="Z16">
+        <v>-0.6999999999999997</v>
+      </c>
+      <c r="AA16">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AB16">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="AC16">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="AD16">
+        <v>2.199999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17">
+        <v>82</v>
+      </c>
+      <c r="H17">
+        <v>77</v>
+      </c>
+      <c r="I17">
+        <v>2940</v>
+      </c>
+      <c r="J17">
+        <v>8.4</v>
+      </c>
+      <c r="K17">
+        <v>16.8</v>
+      </c>
+      <c r="L17">
+        <v>0.499</v>
+      </c>
+      <c r="P17">
+        <v>8.4</v>
+      </c>
+      <c r="Q17">
+        <v>16.8</v>
+      </c>
+      <c r="R17">
+        <v>0.499</v>
+      </c>
+      <c r="S17">
+        <v>4.9</v>
+      </c>
+      <c r="T17">
+        <v>6.3</v>
+      </c>
+      <c r="U17">
+        <v>0.777</v>
+      </c>
+      <c r="V17">
+        <v>2.4</v>
+      </c>
+      <c r="W17">
+        <v>6.2</v>
+      </c>
+      <c r="X17">
+        <v>8.5</v>
+      </c>
+      <c r="Y17">
+        <v>3.7</v>
+      </c>
+      <c r="Z17">
+        <v>1.9</v>
+      </c>
+      <c r="AA17">
+        <v>1.4</v>
+      </c>
+      <c r="AC17">
+        <v>3.1</v>
+      </c>
+      <c r="AD17">
+        <v>21.7</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18">
+        <v>19</v>
+      </c>
+      <c r="I18">
+        <v>758</v>
+      </c>
+      <c r="J18">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K18">
+        <v>18.5</v>
+      </c>
+      <c r="L18">
+        <v>0.523</v>
+      </c>
+      <c r="P18">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Q18">
+        <v>18.5</v>
+      </c>
+      <c r="R18">
+        <v>0.523</v>
+      </c>
+      <c r="S18">
+        <v>5.2</v>
+      </c>
+      <c r="T18">
+        <v>6.4</v>
+      </c>
+      <c r="U18">
+        <v>0.821</v>
+      </c>
+      <c r="V18">
+        <v>1.9</v>
+      </c>
+      <c r="W18">
+        <v>3.8</v>
+      </c>
+      <c r="X18">
+        <v>5.8</v>
+      </c>
+      <c r="Y18">
+        <v>4</v>
+      </c>
+      <c r="Z18">
+        <v>1.9</v>
+      </c>
+      <c r="AA18">
+        <v>1.1</v>
+      </c>
+      <c r="AC18">
+        <v>2.1</v>
+      </c>
+      <c r="AD18">
+        <v>24.6</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>-2182</v>
+      </c>
+      <c r="J19">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="K19">
+        <v>1.699999999999999</v>
+      </c>
+      <c r="L19">
+        <v>0.02400000000000002</v>
+      </c>
+      <c r="P19">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="Q19">
+        <v>1.699999999999999</v>
+      </c>
+      <c r="R19">
+        <v>0.02400000000000002</v>
+      </c>
+      <c r="S19">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="T19">
+        <v>0.1000000000000005</v>
+      </c>
+      <c r="U19">
+        <v>0.04399999999999993</v>
+      </c>
+      <c r="V19">
+        <v>-0.5</v>
+      </c>
+      <c r="W19">
+        <v>-2.4</v>
+      </c>
+      <c r="X19">
+        <v>-2.7</v>
+      </c>
+      <c r="Y19">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="AC19">
+        <v>-1</v>
+      </c>
+      <c r="AD19">
+        <v>2.900000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20">
+        <v>74</v>
+      </c>
+      <c r="H20">
+        <v>68</v>
+      </c>
+      <c r="I20">
+        <v>2429</v>
+      </c>
+      <c r="J20">
+        <v>9.1</v>
+      </c>
+      <c r="K20">
+        <v>18</v>
+      </c>
+      <c r="L20">
+        <v>0.502</v>
+      </c>
+      <c r="P20">
+        <v>9.1</v>
+      </c>
+      <c r="Q20">
+        <v>18</v>
+      </c>
+      <c r="R20">
+        <v>0.502</v>
+      </c>
+      <c r="S20">
+        <v>4.5</v>
+      </c>
+      <c r="T20">
+        <v>5.4</v>
+      </c>
+      <c r="U20">
+        <v>0.845</v>
+      </c>
+      <c r="V20">
+        <v>2.7</v>
+      </c>
+      <c r="W20">
+        <v>4.5</v>
+      </c>
+      <c r="X20">
+        <v>7.1</v>
+      </c>
+      <c r="Y20">
+        <v>4.1</v>
+      </c>
+      <c r="Z20">
+        <v>2</v>
+      </c>
+      <c r="AA20">
+        <v>1.4</v>
+      </c>
+      <c r="AB20">
+        <v>3.5</v>
+      </c>
+      <c r="AC20">
+        <v>3.1</v>
+      </c>
+      <c r="AD20">
+        <v>22.6</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>358</v>
+      </c>
+      <c r="J21">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K21">
+        <v>18.1</v>
+      </c>
+      <c r="L21">
+        <v>0.489</v>
+      </c>
+      <c r="P21">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Q21">
+        <v>18.1</v>
+      </c>
+      <c r="R21">
+        <v>0.489</v>
+      </c>
+      <c r="S21">
+        <v>4.2</v>
+      </c>
+      <c r="T21">
+        <v>5.6</v>
+      </c>
+      <c r="U21">
+        <v>0.75</v>
+      </c>
+      <c r="V21">
+        <v>4</v>
+      </c>
+      <c r="W21">
+        <v>5.7</v>
+      </c>
+      <c r="X21">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y21">
+        <v>4</v>
+      </c>
+      <c r="Z21">
+        <v>1.5</v>
+      </c>
+      <c r="AA21">
+        <v>1.8</v>
+      </c>
+      <c r="AB21">
+        <v>3.5</v>
+      </c>
+      <c r="AC21">
+        <v>3</v>
+      </c>
+      <c r="AD21">
+        <v>21.9</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>-2071</v>
+      </c>
+      <c r="J22">
+        <v>-0.2999999999999989</v>
+      </c>
+      <c r="K22">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="L22">
+        <v>-0.01300000000000001</v>
+      </c>
+      <c r="P22">
+        <v>-0.2999999999999989</v>
+      </c>
+      <c r="Q22">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="R22">
+        <v>-0.01300000000000001</v>
+      </c>
+      <c r="S22">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="T22">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="U22">
+        <v>-0.09499999999999997</v>
+      </c>
+      <c r="V22">
+        <v>1.3</v>
+      </c>
+      <c r="W22">
+        <v>1.2</v>
+      </c>
+      <c r="X22">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="Y22">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="Z22">
+        <v>-0.5</v>
+      </c>
+      <c r="AA22">
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AD22">
+        <v>-0.7000000000000028</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23">
+        <v>78</v>
+      </c>
+      <c r="H23">
+        <v>76</v>
+      </c>
+      <c r="I23">
+        <v>2802</v>
+      </c>
+      <c r="J23">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K23">
+        <v>18.7</v>
+      </c>
+      <c r="L23">
+        <v>0.491</v>
+      </c>
+      <c r="P23">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Q23">
+        <v>18.7</v>
+      </c>
+      <c r="R23">
+        <v>0.491</v>
+      </c>
+      <c r="S23">
+        <v>4.8</v>
+      </c>
+      <c r="T23">
+        <v>6.4</v>
+      </c>
+      <c r="U23">
+        <v>0.745</v>
+      </c>
+      <c r="V23">
+        <v>2.5</v>
+      </c>
+      <c r="W23">
+        <v>4.7</v>
+      </c>
+      <c r="X23">
+        <v>7.2</v>
+      </c>
+      <c r="Y23">
+        <v>4.6</v>
+      </c>
+      <c r="Z23">
+        <v>1.7</v>
+      </c>
+      <c r="AA23">
+        <v>1.3</v>
+      </c>
+      <c r="AB23">
+        <v>4</v>
+      </c>
+      <c r="AC23">
+        <v>2.7</v>
+      </c>
+      <c r="AD23">
+        <v>23.2</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>372</v>
+      </c>
+      <c r="J24">
+        <v>8.6</v>
+      </c>
+      <c r="K24">
+        <v>16.6</v>
+      </c>
+      <c r="L24">
+        <v>0.517</v>
+      </c>
+      <c r="P24">
+        <v>8.6</v>
+      </c>
+      <c r="Q24">
+        <v>16.6</v>
+      </c>
+      <c r="R24">
+        <v>0.517</v>
+      </c>
+      <c r="S24">
+        <v>4.9</v>
+      </c>
+      <c r="T24">
+        <v>6.5</v>
+      </c>
+      <c r="U24">
+        <v>0.7609999999999999</v>
+      </c>
+      <c r="V24">
+        <v>2.8</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+      <c r="X24">
+        <v>6.8</v>
+      </c>
+      <c r="Y24">
+        <v>5.1</v>
+      </c>
+      <c r="Z24">
+        <v>1.7</v>
+      </c>
+      <c r="AA24">
+        <v>1.6</v>
+      </c>
+      <c r="AB24">
+        <v>3.7</v>
+      </c>
+      <c r="AC24">
+        <v>2.1</v>
+      </c>
+      <c r="AD24">
+        <v>22.2</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="I25">
+        <v>-2430</v>
+      </c>
+      <c r="J25">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="K25">
+        <v>-2.099999999999998</v>
+      </c>
+      <c r="L25">
+        <v>0.02600000000000002</v>
+      </c>
+      <c r="P25">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="Q25">
+        <v>-2.099999999999998</v>
+      </c>
+      <c r="R25">
+        <v>0.02600000000000002</v>
+      </c>
+      <c r="S25">
+        <v>0.1000000000000005</v>
+      </c>
+      <c r="T25">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="U25">
+        <v>0.0159999999999999</v>
+      </c>
+      <c r="V25">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="W25">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="X25">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="Y25">
+        <v>0.5</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0.3</v>
+      </c>
+      <c r="AB25">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="AC25">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="AD25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26">
+        <v>78</v>
+      </c>
+      <c r="H26">
+        <v>78</v>
+      </c>
+      <c r="I26">
+        <v>2812</v>
+      </c>
+      <c r="J26">
+        <v>10.7</v>
+      </c>
+      <c r="K26">
+        <v>20.7</v>
+      </c>
+      <c r="L26">
+        <v>0.519</v>
+      </c>
+      <c r="M26">
+        <v>0.1</v>
+      </c>
+      <c r="N26">
+        <v>0.3</v>
+      </c>
+      <c r="O26">
+        <v>0.2</v>
+      </c>
+      <c r="P26">
+        <v>10.7</v>
+      </c>
+      <c r="Q26">
+        <v>20.4</v>
+      </c>
+      <c r="R26">
+        <v>0.523</v>
+      </c>
+      <c r="S26">
+        <v>5.4</v>
+      </c>
+      <c r="T26">
+        <v>6.8</v>
+      </c>
+      <c r="U26">
+        <v>0.787</v>
+      </c>
+      <c r="V26">
+        <v>2.8</v>
+      </c>
+      <c r="W26">
+        <v>4.6</v>
+      </c>
+      <c r="X26">
+        <v>7.4</v>
+      </c>
+      <c r="Y26">
+        <v>4.5</v>
+      </c>
+      <c r="Z26">
+        <v>2.2</v>
+      </c>
+      <c r="AA26">
+        <v>1.8</v>
+      </c>
+      <c r="AB26">
+        <v>3.6</v>
+      </c>
+      <c r="AC26">
+        <v>2.7</v>
+      </c>
+      <c r="AD26">
+        <v>26.9</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27">
+        <v>18</v>
+      </c>
+      <c r="I27">
+        <v>694</v>
+      </c>
+      <c r="J27">
+        <v>8.6</v>
+      </c>
+      <c r="K27">
+        <v>17.5</v>
+      </c>
+      <c r="L27">
+        <v>0.488</v>
+      </c>
+      <c r="M27">
+        <v>0.1</v>
+      </c>
+      <c r="N27">
+        <v>0.5</v>
+      </c>
+      <c r="O27">
+        <v>0.222</v>
+      </c>
+      <c r="P27">
+        <v>8.5</v>
+      </c>
+      <c r="Q27">
+        <v>17.1</v>
+      </c>
+      <c r="R27">
+        <v>0.495</v>
+      </c>
+      <c r="S27">
+        <v>5.6</v>
+      </c>
+      <c r="T27">
+        <v>7.1</v>
+      </c>
+      <c r="U27">
+        <v>0.794</v>
+      </c>
+      <c r="V27">
+        <v>1.6</v>
+      </c>
+      <c r="W27">
+        <v>5.4</v>
+      </c>
+      <c r="X27">
+        <v>7.1</v>
+      </c>
+      <c r="Y27">
+        <v>4.1</v>
+      </c>
+      <c r="Z27">
+        <v>1.9</v>
+      </c>
+      <c r="AA27">
+        <v>1.9</v>
+      </c>
+      <c r="AB27">
+        <v>2.9</v>
+      </c>
+      <c r="AC27">
+        <v>2.9</v>
+      </c>
+      <c r="AD27">
+        <v>22.8</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="I28">
+        <v>-2118</v>
+      </c>
+      <c r="J28">
+        <v>-2.1</v>
+      </c>
+      <c r="K28">
+        <v>-3.199999999999999</v>
+      </c>
+      <c r="L28">
+        <v>-0.03100000000000003</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0.2</v>
+      </c>
+      <c r="O28">
+        <v>0.02199999999999999</v>
+      </c>
+      <c r="P28">
+        <v>-2.199999999999999</v>
+      </c>
+      <c r="Q28">
+        <v>-3.299999999999997</v>
+      </c>
+      <c r="R28">
+        <v>-0.02800000000000002</v>
+      </c>
+      <c r="S28">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="T28">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="U28">
+        <v>0.007000000000000006</v>
+      </c>
+      <c r="V28">
+        <v>-1.2</v>
+      </c>
+      <c r="W28">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="X28">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="Y28">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="Z28">
+        <v>-0.3000000000000003</v>
+      </c>
+      <c r="AA28">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="AB28">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="AC28">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="AD28">
+        <v>-4.099999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29">
+        <v>82</v>
+      </c>
+      <c r="H29">
+        <v>82</v>
+      </c>
+      <c r="I29">
+        <v>2874</v>
+      </c>
+      <c r="J29">
+        <v>9.9</v>
+      </c>
+      <c r="K29">
+        <v>19.1</v>
+      </c>
+      <c r="L29">
+        <v>0.521</v>
+      </c>
+      <c r="M29">
+        <v>0.1</v>
+      </c>
+      <c r="N29">
+        <v>0.2</v>
+      </c>
+      <c r="O29">
+        <v>0.222</v>
+      </c>
+      <c r="P29">
+        <v>9.9</v>
+      </c>
+      <c r="Q29">
+        <v>18.9</v>
+      </c>
+      <c r="R29">
+        <v>0.525</v>
+      </c>
+      <c r="S29">
+        <v>5.3</v>
+      </c>
+      <c r="T29">
+        <v>6.7</v>
+      </c>
+      <c r="U29">
+        <v>0.787</v>
+      </c>
+      <c r="V29">
+        <v>3.1</v>
+      </c>
+      <c r="W29">
+        <v>5.2</v>
+      </c>
+      <c r="X29">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y29">
+        <v>4.6</v>
+      </c>
+      <c r="Z29">
+        <v>2.2</v>
+      </c>
+      <c r="AA29">
+        <v>1.8</v>
+      </c>
+      <c r="AB29">
+        <v>3.3</v>
+      </c>
+      <c r="AC29">
+        <v>2.9</v>
+      </c>
+      <c r="AD29">
+        <v>25.2</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30">
+        <v>16</v>
+      </c>
+      <c r="I30">
+        <v>592</v>
+      </c>
+      <c r="J30">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="K30">
+        <v>18.3</v>
+      </c>
+      <c r="L30">
+        <v>0.475</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0.1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Q30">
+        <v>18.2</v>
+      </c>
+      <c r="R30">
+        <v>0.477</v>
+      </c>
+      <c r="S30">
+        <v>4.9</v>
+      </c>
+      <c r="T30">
+        <v>6.5</v>
+      </c>
+      <c r="U30">
+        <v>0.757</v>
+      </c>
+      <c r="V30">
+        <v>3.2</v>
+      </c>
+      <c r="W30">
+        <v>3.8</v>
+      </c>
+      <c r="X30">
+        <v>6.9</v>
+      </c>
+      <c r="Y30">
+        <v>3.3</v>
+      </c>
+      <c r="Z30">
+        <v>1.3</v>
+      </c>
+      <c r="AA30">
+        <v>2.5</v>
+      </c>
+      <c r="AB30">
+        <v>3.3</v>
+      </c>
+      <c r="AC30">
+        <v>3.3</v>
+      </c>
+      <c r="AD30">
+        <v>22.3</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="I31">
+        <v>-2282</v>
+      </c>
+      <c r="J31">
+        <v>-1.200000000000001</v>
+      </c>
+      <c r="K31">
+        <v>-0.8000000000000007</v>
+      </c>
+      <c r="L31">
+        <v>-0.04600000000000004</v>
+      </c>
+      <c r="M31">
+        <v>-0.1</v>
+      </c>
+      <c r="N31">
+        <v>-0.1</v>
+      </c>
+      <c r="O31">
+        <v>-0.222</v>
+      </c>
+      <c r="P31">
+        <v>-1.200000000000001</v>
+      </c>
+      <c r="Q31">
+        <v>-0.6999999999999993</v>
+      </c>
+      <c r="R31">
+        <v>-0.04799999999999999</v>
+      </c>
+      <c r="S31">
+        <v>-0.3999999999999995</v>
+      </c>
+      <c r="T31">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="U31">
+        <v>-0.03000000000000003</v>
+      </c>
+      <c r="V31">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="W31">
+        <v>-1.4</v>
+      </c>
+      <c r="X31">
+        <v>-1.299999999999999</v>
+      </c>
+      <c r="Y31">
+        <v>-1.3</v>
+      </c>
+      <c r="Z31">
+        <v>-0.9000000000000001</v>
+      </c>
+      <c r="AA31">
+        <v>0.7</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="AD31">
+        <v>-2.899999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32">
+        <v>81</v>
+      </c>
+      <c r="H32">
+        <v>81</v>
+      </c>
+      <c r="I32">
+        <v>2789</v>
+      </c>
+      <c r="J32">
+        <v>10.1</v>
+      </c>
+      <c r="K32">
+        <v>18.4</v>
+      </c>
+      <c r="L32">
+        <v>0.546</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0.1</v>
+      </c>
+      <c r="O32">
+        <v>0.273</v>
+      </c>
+      <c r="P32">
+        <v>10</v>
+      </c>
+      <c r="Q32">
+        <v>18.3</v>
+      </c>
+      <c r="R32">
+        <v>0.5479999999999999</v>
+      </c>
+      <c r="S32">
+        <v>5.3</v>
+      </c>
+      <c r="T32">
+        <v>7</v>
+      </c>
+      <c r="U32">
+        <v>0.763</v>
+      </c>
+      <c r="V32">
+        <v>2.8</v>
+      </c>
+      <c r="W32">
+        <v>4.3</v>
+      </c>
+      <c r="X32">
+        <v>7.2</v>
+      </c>
+      <c r="Y32">
+        <v>4.1</v>
+      </c>
+      <c r="Z32">
+        <v>2.1</v>
+      </c>
+      <c r="AA32">
+        <v>1.8</v>
+      </c>
+      <c r="AB32">
+        <v>2.8</v>
+      </c>
+      <c r="AC32">
+        <v>3</v>
+      </c>
+      <c r="AD32">
+        <v>25.5</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33">
+        <v>21</v>
+      </c>
+      <c r="I33">
+        <v>780</v>
+      </c>
+      <c r="J33">
+        <v>7.8</v>
+      </c>
+      <c r="K33">
+        <v>15</v>
+      </c>
+      <c r="L33">
+        <v>0.519</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0.3</v>
+      </c>
+      <c r="O33">
+        <v>0.167</v>
+      </c>
+      <c r="P33">
+        <v>7.7</v>
+      </c>
+      <c r="Q33">
+        <v>14.7</v>
+      </c>
+      <c r="R33">
+        <v>0.525</v>
+      </c>
+      <c r="S33">
+        <v>5.7</v>
+      </c>
+      <c r="T33">
+        <v>7.6</v>
+      </c>
+      <c r="U33">
+        <v>0.752</v>
+      </c>
+      <c r="V33">
+        <v>2.6</v>
+      </c>
+      <c r="W33">
+        <v>4.6</v>
+      </c>
+      <c r="X33">
+        <v>7.2</v>
+      </c>
+      <c r="Y33">
+        <v>4.6</v>
+      </c>
+      <c r="Z33">
+        <v>1.7</v>
+      </c>
+      <c r="AA33">
+        <v>1.7</v>
+      </c>
+      <c r="AB33">
+        <v>3.1</v>
+      </c>
+      <c r="AC33">
+        <v>2.5</v>
+      </c>
+      <c r="AD33">
+        <v>21.3</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="I34">
+        <v>-2009</v>
+      </c>
+      <c r="J34">
+        <v>-2.3</v>
+      </c>
+      <c r="K34">
+        <v>-3.399999999999999</v>
+      </c>
+      <c r="L34">
+        <v>-0.02700000000000002</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0.2</v>
+      </c>
+      <c r="O34">
+        <v>-0.106</v>
+      </c>
+      <c r="P34">
+        <v>-2.3</v>
+      </c>
+      <c r="Q34">
+        <v>-3.600000000000001</v>
+      </c>
+      <c r="R34">
+        <v>-0.02299999999999991</v>
+      </c>
+      <c r="S34">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="T34">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="U34">
+        <v>-0.01100000000000001</v>
+      </c>
+      <c r="V34">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="W34">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0.5</v>
+      </c>
+      <c r="Z34">
+        <v>-0.4000000000000001</v>
+      </c>
+      <c r="AA34">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AB34">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="AC34">
+        <v>-0.5</v>
+      </c>
+      <c r="AD34">
+        <v>-4.199999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35">
+        <v>72</v>
+      </c>
+      <c r="H35">
+        <v>72</v>
+      </c>
+      <c r="I35">
+        <v>2421</v>
+      </c>
+      <c r="J35">
+        <v>9</v>
+      </c>
+      <c r="K35">
+        <v>17.4</v>
+      </c>
+      <c r="L35">
+        <v>0.517</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0.1</v>
+      </c>
+      <c r="O35">
+        <v>0.286</v>
+      </c>
+      <c r="P35">
+        <v>9</v>
+      </c>
+      <c r="Q35">
+        <v>17.3</v>
+      </c>
+      <c r="R35">
+        <v>0.518</v>
+      </c>
+      <c r="S35">
+        <v>4.9</v>
+      </c>
+      <c r="T35">
+        <v>6.5</v>
+      </c>
+      <c r="U35">
+        <v>0.759</v>
+      </c>
+      <c r="V35">
+        <v>2.6</v>
+      </c>
+      <c r="W35">
+        <v>4.7</v>
+      </c>
+      <c r="X35">
+        <v>7.3</v>
+      </c>
+      <c r="Y35">
+        <v>3.9</v>
+      </c>
+      <c r="Z35">
+        <v>1.7</v>
+      </c>
+      <c r="AA35">
+        <v>1.9</v>
+      </c>
+      <c r="AB35">
+        <v>2.9</v>
+      </c>
+      <c r="AC35">
+        <v>3</v>
+      </c>
+      <c r="AD35">
+        <v>22.9</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36">
+        <v>13</v>
+      </c>
+      <c r="I36">
+        <v>493</v>
+      </c>
+      <c r="J36">
+        <v>6.9</v>
+      </c>
+      <c r="K36">
+        <v>15.4</v>
+      </c>
+      <c r="L36">
+        <v>0.45</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0.1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>6.9</v>
+      </c>
+      <c r="Q36">
+        <v>15.3</v>
+      </c>
+      <c r="R36">
+        <v>0.452</v>
+      </c>
+      <c r="S36">
+        <v>3.6</v>
+      </c>
+      <c r="T36">
+        <v>5</v>
+      </c>
+      <c r="U36">
+        <v>0.721</v>
+      </c>
+      <c r="V36">
+        <v>2.3</v>
+      </c>
+      <c r="W36">
+        <v>4.9</v>
+      </c>
+      <c r="X36">
+        <v>7.2</v>
+      </c>
+      <c r="Y36">
+        <v>3.2</v>
+      </c>
+      <c r="Z36">
+        <v>1.1</v>
+      </c>
+      <c r="AA36">
+        <v>2</v>
+      </c>
+      <c r="AB36">
+        <v>2.8</v>
+      </c>
+      <c r="AC36">
+        <v>3.1</v>
+      </c>
+      <c r="AD36">
+        <v>17.5</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="I37">
+        <v>-1928</v>
+      </c>
+      <c r="J37">
+        <v>-2.1</v>
+      </c>
+      <c r="K37">
+        <v>-1.999999999999998</v>
+      </c>
+      <c r="L37">
+        <v>-0.067</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>-0.286</v>
+      </c>
+      <c r="P37">
+        <v>-2.1</v>
+      </c>
+      <c r="Q37">
+        <v>-2</v>
+      </c>
+      <c r="R37">
+        <v>-0.066</v>
+      </c>
+      <c r="S37">
+        <v>-1.3</v>
+      </c>
+      <c r="T37">
+        <v>-1.5</v>
+      </c>
+      <c r="U37">
+        <v>-0.03800000000000003</v>
+      </c>
+      <c r="V37">
+        <v>-0.3000000000000003</v>
+      </c>
+      <c r="W37">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="X37">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="Y37">
+        <v>-0.6999999999999997</v>
+      </c>
+      <c r="Z37">
+        <v>-0.5999999999999999</v>
+      </c>
+      <c r="AA37">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AB37">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AC37">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AD37">
+        <v>-5.399999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38">
+        <v>77</v>
+      </c>
+      <c r="H38">
+        <v>77</v>
+      </c>
+      <c r="I38">
+        <v>2683</v>
+      </c>
+      <c r="J38">
+        <v>9.1</v>
+      </c>
+      <c r="K38">
+        <v>17.8</v>
+      </c>
+      <c r="L38">
+        <v>0.512</v>
+      </c>
+      <c r="M38">
+        <v>0.1</v>
+      </c>
+      <c r="N38">
+        <v>0.3</v>
+      </c>
+      <c r="O38">
+        <v>0.333</v>
+      </c>
+      <c r="P38">
+        <v>9</v>
+      </c>
+      <c r="Q38">
+        <v>17.5</v>
+      </c>
+      <c r="R38">
+        <v>0.515</v>
+      </c>
+      <c r="S38">
+        <v>4.9</v>
+      </c>
+      <c r="T38">
+        <v>6.5</v>
+      </c>
+      <c r="U38">
+        <v>0.754</v>
+      </c>
+      <c r="V38">
+        <v>2.5</v>
+      </c>
+      <c r="W38">
+        <v>4.6</v>
+      </c>
+      <c r="X38">
+        <v>7.1</v>
+      </c>
+      <c r="Y38">
+        <v>4.1</v>
+      </c>
+      <c r="Z38">
+        <v>1.9</v>
+      </c>
+      <c r="AA38">
+        <v>1.9</v>
+      </c>
+      <c r="AB38">
+        <v>3.1</v>
+      </c>
+      <c r="AC38">
+        <v>2.9</v>
+      </c>
+      <c r="AD38">
+        <v>23.2</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>194</v>
+      </c>
+      <c r="J39">
+        <v>6.7</v>
+      </c>
+      <c r="K39">
+        <v>14.1</v>
+      </c>
+      <c r="L39">
+        <v>0.474</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0.2</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>6.7</v>
+      </c>
+      <c r="Q39">
+        <v>13.9</v>
+      </c>
+      <c r="R39">
+        <v>0.48</v>
+      </c>
+      <c r="S39">
+        <v>3.5</v>
+      </c>
+      <c r="T39">
+        <v>4.1</v>
+      </c>
+      <c r="U39">
+        <v>0.8640000000000001</v>
+      </c>
+      <c r="V39">
+        <v>1.7</v>
+      </c>
+      <c r="W39">
+        <v>4.3</v>
+      </c>
+      <c r="X39">
+        <v>5.9</v>
+      </c>
+      <c r="Y39">
+        <v>4.6</v>
+      </c>
+      <c r="Z39">
+        <v>1.5</v>
+      </c>
+      <c r="AA39">
+        <v>1.1</v>
+      </c>
+      <c r="AB39">
+        <v>3.9</v>
+      </c>
+      <c r="AC39">
+        <v>2.6</v>
+      </c>
+      <c r="AD39">
+        <v>16.9</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="I40">
+        <v>-2489</v>
+      </c>
+      <c r="J40">
+        <v>-2.399999999999999</v>
+      </c>
+      <c r="K40">
+        <v>-3.700000000000001</v>
+      </c>
+      <c r="L40">
+        <v>-0.03800000000000003</v>
+      </c>
+      <c r="M40">
+        <v>-0.1</v>
+      </c>
+      <c r="N40">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="O40">
+        <v>-0.333</v>
+      </c>
+      <c r="P40">
+        <v>-2.3</v>
+      </c>
+      <c r="Q40">
+        <v>-3.6</v>
+      </c>
+      <c r="R40">
+        <v>-0.03500000000000003</v>
+      </c>
+      <c r="S40">
+        <v>-1.4</v>
+      </c>
+      <c r="T40">
+        <v>-2.4</v>
+      </c>
+      <c r="U40">
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="V40">
+        <v>-0.8</v>
+      </c>
+      <c r="W40">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="X40">
+        <v>-1.199999999999999</v>
+      </c>
+      <c r="Y40">
+        <v>0.5</v>
+      </c>
+      <c r="Z40">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="AA40">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="AB40">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="AC40">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="AD40">
+        <v>-6.300000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41">
+        <v>78</v>
+      </c>
+      <c r="H41">
+        <v>78</v>
+      </c>
+      <c r="I41">
+        <v>2535</v>
+      </c>
+      <c r="J41">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="K41">
+        <v>17.6</v>
+      </c>
+      <c r="L41">
+        <v>0.494</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0.2</v>
+      </c>
+      <c r="O41">
+        <v>0.214</v>
+      </c>
+      <c r="P41">
+        <v>8.6</v>
+      </c>
+      <c r="Q41">
+        <v>17.4</v>
+      </c>
+      <c r="R41">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="S41">
+        <v>4.8</v>
+      </c>
+      <c r="T41">
+        <v>6.3</v>
+      </c>
+      <c r="U41">
+        <v>0.765</v>
+      </c>
+      <c r="V41">
+        <v>2.4</v>
+      </c>
+      <c r="W41">
+        <v>3.4</v>
+      </c>
+      <c r="X41">
+        <v>5.9</v>
+      </c>
+      <c r="Y41">
+        <v>3.3</v>
+      </c>
+      <c r="Z41">
+        <v>1.9</v>
+      </c>
+      <c r="AA41">
+        <v>1.5</v>
+      </c>
+      <c r="AB41">
+        <v>3</v>
+      </c>
+      <c r="AC41">
+        <v>2.8</v>
+      </c>
+      <c r="AD41">
+        <v>22.2</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42">
+        <v>13</v>
+      </c>
+      <c r="H42">
+        <v>13</v>
+      </c>
+      <c r="I42">
+        <v>434</v>
+      </c>
+      <c r="J42">
+        <v>7</v>
+      </c>
+      <c r="K42">
+        <v>15.5</v>
+      </c>
+      <c r="L42">
+        <v>0.449</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0.1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>7</v>
+      </c>
+      <c r="Q42">
+        <v>15.4</v>
+      </c>
+      <c r="R42">
+        <v>0.452</v>
+      </c>
+      <c r="S42">
+        <v>4.5</v>
+      </c>
+      <c r="T42">
+        <v>5.2</v>
+      </c>
+      <c r="U42">
+        <v>0.857</v>
+      </c>
+      <c r="V42">
+        <v>2.4</v>
+      </c>
+      <c r="W42">
+        <v>3.6</v>
+      </c>
+      <c r="X42">
+        <v>6.1</v>
+      </c>
+      <c r="Y42">
+        <v>4</v>
+      </c>
+      <c r="Z42">
+        <v>2.1</v>
+      </c>
+      <c r="AA42">
+        <v>0.9</v>
+      </c>
+      <c r="AB42">
+        <v>3.1</v>
+      </c>
+      <c r="AC42">
+        <v>2.8</v>
+      </c>
+      <c r="AD42">
+        <v>18.4</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="I43">
+        <v>-2101</v>
+      </c>
+      <c r="J43">
+        <v>-1.699999999999999</v>
+      </c>
+      <c r="K43">
+        <v>-2.100000000000001</v>
+      </c>
+      <c r="L43">
+        <v>-0.04499999999999998</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>-0.1</v>
+      </c>
+      <c r="O43">
+        <v>-0.214</v>
+      </c>
+      <c r="P43">
+        <v>-1.6</v>
+      </c>
+      <c r="Q43">
+        <v>-1.999999999999998</v>
+      </c>
+      <c r="R43">
+        <v>-0.04500000000000004</v>
+      </c>
+      <c r="S43">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="T43">
+        <v>-1.1</v>
+      </c>
+      <c r="U43">
+        <v>0.09199999999999997</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="X43">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="Y43">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="Z43">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="AA43">
+        <v>-0.6</v>
+      </c>
+      <c r="AB43">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>-3.800000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44">
+        <v>74</v>
+      </c>
+      <c r="H44">
+        <v>74</v>
+      </c>
+      <c r="I44">
+        <v>2474</v>
+      </c>
+      <c r="J44">
+        <v>7.6</v>
+      </c>
+      <c r="K44">
+        <v>15.8</v>
+      </c>
+      <c r="L44">
+        <v>0.48</v>
+      </c>
+      <c r="M44">
+        <v>0.1</v>
+      </c>
+      <c r="N44">
+        <v>0.5</v>
+      </c>
+      <c r="O44">
+        <v>0.281</v>
+      </c>
+      <c r="P44">
+        <v>7.5</v>
+      </c>
+      <c r="Q44">
+        <v>15.3</v>
+      </c>
+      <c r="R44">
+        <v>0.486</v>
+      </c>
+      <c r="S44">
+        <v>4.2</v>
+      </c>
+      <c r="T44">
+        <v>5.4</v>
+      </c>
+      <c r="U44">
+        <v>0.785</v>
+      </c>
+      <c r="V44">
+        <v>2.5</v>
+      </c>
+      <c r="W44">
+        <v>2.9</v>
+      </c>
+      <c r="X44">
+        <v>5.4</v>
+      </c>
+      <c r="Y44">
+        <v>3.6</v>
+      </c>
+      <c r="Z44">
+        <v>1.6</v>
+      </c>
+      <c r="AA44">
+        <v>1.2</v>
+      </c>
+      <c r="AB44">
+        <v>3.1</v>
+      </c>
+      <c r="AC44">
+        <v>2.9</v>
+      </c>
+      <c r="AD44">
+        <v>19.5</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45">
+        <v>12</v>
+      </c>
+      <c r="H45">
+        <v>12</v>
+      </c>
+      <c r="I45">
+        <v>433</v>
+      </c>
+      <c r="J45">
+        <v>6.7</v>
+      </c>
+      <c r="K45">
+        <v>15</v>
+      </c>
+      <c r="L45">
+        <v>0.45</v>
+      </c>
+      <c r="M45">
+        <v>0.2</v>
+      </c>
+      <c r="N45">
+        <v>0.9</v>
+      </c>
+      <c r="O45">
+        <v>0.182</v>
+      </c>
+      <c r="P45">
+        <v>6.6</v>
+      </c>
+      <c r="Q45">
+        <v>14.1</v>
+      </c>
+      <c r="R45">
+        <v>0.467</v>
+      </c>
+      <c r="S45">
+        <v>4</v>
+      </c>
+      <c r="T45">
+        <v>5.4</v>
+      </c>
+      <c r="U45">
+        <v>0.738</v>
+      </c>
+      <c r="V45">
+        <v>2.2</v>
+      </c>
+      <c r="W45">
+        <v>3.7</v>
+      </c>
+      <c r="X45">
+        <v>5.8</v>
+      </c>
+      <c r="Y45">
+        <v>4.2</v>
+      </c>
+      <c r="Z45">
+        <v>0.9</v>
+      </c>
+      <c r="AA45">
+        <v>1.3</v>
+      </c>
+      <c r="AB45">
+        <v>3.2</v>
+      </c>
+      <c r="AC45">
+        <v>2.7</v>
+      </c>
+      <c r="AD45">
+        <v>17.6</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="I46">
+        <v>-2041</v>
+      </c>
+      <c r="J46">
+        <v>-0.8999999999999995</v>
+      </c>
+      <c r="K46">
+        <v>-0.8000000000000007</v>
+      </c>
+      <c r="L46">
+        <v>-0.02999999999999997</v>
+      </c>
+      <c r="M46">
+        <v>0.1</v>
+      </c>
+      <c r="N46">
+        <v>0.4</v>
+      </c>
+      <c r="O46">
+        <v>-0.09900000000000003</v>
+      </c>
+      <c r="P46">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="Q46">
+        <v>-1.200000000000001</v>
+      </c>
+      <c r="R46">
+        <v>-0.01899999999999996</v>
+      </c>
+      <c r="S46">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>-0.04700000000000004</v>
+      </c>
+      <c r="V46">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="W46">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="X46">
+        <v>0.3999999999999995</v>
+      </c>
+      <c r="Y46">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="Z46">
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AB46">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AC46">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="AD46">
+        <v>-1.899999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47">
+        <v>60</v>
+      </c>
+      <c r="H47">
+        <v>60</v>
+      </c>
+      <c r="I47">
+        <v>1918</v>
+      </c>
+      <c r="J47">
+        <v>7.5</v>
+      </c>
+      <c r="K47">
+        <v>16</v>
+      </c>
+      <c r="L47">
+        <v>0.471</v>
+      </c>
+      <c r="M47">
+        <v>0.3</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0.264</v>
+      </c>
+      <c r="P47">
+        <v>7.2</v>
+      </c>
+      <c r="Q47">
+        <v>15</v>
+      </c>
+      <c r="R47">
+        <v>0.484</v>
+      </c>
+      <c r="S47">
+        <v>3.6</v>
+      </c>
+      <c r="T47">
+        <v>4.4</v>
+      </c>
+      <c r="U47">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="V47">
+        <v>2.2</v>
+      </c>
+      <c r="W47">
+        <v>2.8</v>
+      </c>
+      <c r="X47">
+        <v>5</v>
+      </c>
+      <c r="Y47">
+        <v>3.6</v>
+      </c>
+      <c r="Z47">
+        <v>1.4</v>
+      </c>
+      <c r="AA47">
+        <v>1.8</v>
+      </c>
+      <c r="AB47">
+        <v>3</v>
+      </c>
+      <c r="AC47">
+        <v>2.6</v>
+      </c>
+      <c r="AD47">
+        <v>18.9</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>180</v>
+      </c>
+      <c r="J48">
+        <v>6.8</v>
+      </c>
+      <c r="K48">
+        <v>16.4</v>
+      </c>
+      <c r="L48">
+        <v>0.415</v>
+      </c>
+      <c r="M48">
+        <v>0.4</v>
+      </c>
+      <c r="N48">
+        <v>1.2</v>
+      </c>
+      <c r="O48">
+        <v>0.333</v>
+      </c>
+      <c r="P48">
+        <v>6.4</v>
+      </c>
+      <c r="Q48">
+        <v>15.2</v>
+      </c>
+      <c r="R48">
+        <v>0.421</v>
+      </c>
+      <c r="S48">
+        <v>4.2</v>
+      </c>
+      <c r="T48">
+        <v>5</v>
+      </c>
+      <c r="U48">
+        <v>0.84</v>
+      </c>
+      <c r="V48">
+        <v>2.8</v>
+      </c>
+      <c r="W48">
+        <v>2.2</v>
+      </c>
+      <c r="X48">
+        <v>5</v>
+      </c>
+      <c r="Y48">
+        <v>3.4</v>
+      </c>
+      <c r="Z48">
+        <v>1.4</v>
+      </c>
+      <c r="AA48">
+        <v>1.2</v>
+      </c>
+      <c r="AB48">
+        <v>1.8</v>
+      </c>
+      <c r="AC48">
+        <v>3.8</v>
+      </c>
+      <c r="AD48">
+        <v>18.2</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="I49">
+        <v>-1738</v>
+      </c>
+      <c r="J49">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="K49">
+        <v>0.3999999999999986</v>
+      </c>
+      <c r="L49">
+        <v>-0.05600000000000005</v>
+      </c>
+      <c r="M49">
+        <v>0.1</v>
+      </c>
+      <c r="N49">
+        <v>0.2</v>
+      </c>
+      <c r="O49">
+        <v>0.06899999999999995</v>
+      </c>
+      <c r="P49">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="Q49">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="R49">
+        <v>-0.06299999999999994</v>
+      </c>
+      <c r="S49">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="T49">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="U49">
+        <v>0.02700000000000002</v>
+      </c>
+      <c r="V49">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="W49">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="AB49">
+        <v>-1.2</v>
+      </c>
+      <c r="AC49">
+        <v>1.2</v>
+      </c>
+      <c r="AD49">
+        <v>-0.6999999999999993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50">
+        <v>252</v>
+      </c>
+      <c r="I50">
+        <v>10044</v>
+      </c>
+      <c r="J50">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <v>19.6</v>
+      </c>
+      <c r="L50">
+        <v>0.508</v>
+      </c>
+      <c r="M50">
+        <v>0.3</v>
+      </c>
+      <c r="N50">
+        <v>0.8</v>
+      </c>
+      <c r="O50">
+        <v>0.343</v>
+      </c>
+      <c r="P50">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Q50">
+        <v>18.7</v>
+      </c>
+      <c r="R50">
+        <v>0.516</v>
+      </c>
+      <c r="S50">
+        <v>5.3</v>
+      </c>
+      <c r="T50">
+        <v>6.7</v>
+      </c>
+      <c r="U50">
+        <v>0.789</v>
+      </c>
+      <c r="V50">
+        <v>3.2</v>
+      </c>
+      <c r="W50">
+        <v>6.6</v>
+      </c>
+      <c r="X50">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>4.7</v>
+      </c>
+      <c r="Z50">
+        <v>2.1</v>
+      </c>
+      <c r="AA50">
+        <v>1.9</v>
+      </c>
+      <c r="AB50">
+        <v>3.4</v>
+      </c>
+      <c r="AC50">
+        <v>2.7</v>
+      </c>
+      <c r="AD50">
+        <v>25.5</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51">
+        <v>32</v>
+      </c>
+      <c r="I51">
+        <v>1341</v>
+      </c>
+      <c r="J51">
+        <v>10.1</v>
+      </c>
+      <c r="K51">
+        <v>19.5</v>
+      </c>
+      <c r="L51">
+        <v>0.518</v>
+      </c>
+      <c r="M51">
+        <v>0.2</v>
+      </c>
+      <c r="N51">
+        <v>0.9</v>
+      </c>
+      <c r="O51">
+        <v>0.273</v>
+      </c>
+      <c r="P51">
+        <v>9.9</v>
+      </c>
+      <c r="Q51">
+        <v>18.6</v>
+      </c>
+      <c r="R51">
+        <v>0.53</v>
+      </c>
+      <c r="S51">
+        <v>5.8</v>
+      </c>
+      <c r="T51">
+        <v>7.4</v>
+      </c>
+      <c r="U51">
+        <v>0.789</v>
+      </c>
+      <c r="V51">
+        <v>3.2</v>
+      </c>
+      <c r="W51">
+        <v>6.1</v>
+      </c>
+      <c r="X51">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y51">
+        <v>4.3</v>
+      </c>
+      <c r="Z51">
+        <v>1.4</v>
+      </c>
+      <c r="AA51">
+        <v>1.4</v>
+      </c>
+      <c r="AB51">
+        <v>2.9</v>
+      </c>
+      <c r="AC51">
+        <v>2.7</v>
+      </c>
+      <c r="AD51">
+        <v>26.3</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="I52">
+        <v>-8703</v>
+      </c>
+      <c r="J52">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="K52">
+        <v>-0.1000000000000014</v>
+      </c>
+      <c r="L52">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="M52">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="N52">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="O52">
+        <v>-0.06999999999999995</v>
+      </c>
+      <c r="P52">
+        <v>0.2000000000000011</v>
+      </c>
+      <c r="Q52">
+        <v>-0.09999999999999787</v>
+      </c>
+      <c r="R52">
+        <v>0.01400000000000001</v>
+      </c>
+      <c r="S52">
+        <v>0.5</v>
+      </c>
+      <c r="T52">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>-0.5</v>
+      </c>
+      <c r="X52">
+        <v>-0.5</v>
+      </c>
+      <c r="Y52">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="Z52">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="AA52">
+        <v>-0.5</v>
+      </c>
+      <c r="AB52">
+        <v>-0.5</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0.8000000000000007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53">
+        <v>836</v>
+      </c>
+      <c r="H53">
+        <v>823</v>
+      </c>
+      <c r="I53">
+        <v>28677</v>
+      </c>
+      <c r="J53">
+        <v>9.1</v>
+      </c>
+      <c r="K53">
+        <v>17.9</v>
+      </c>
+      <c r="L53">
+        <v>0.507</v>
+      </c>
+      <c r="M53">
+        <v>0.1</v>
+      </c>
+      <c r="N53">
+        <v>0.3</v>
+      </c>
+      <c r="O53">
+        <v>0.261</v>
+      </c>
+      <c r="P53">
+        <v>9</v>
+      </c>
+      <c r="Q53">
+        <v>17.7</v>
+      </c>
+      <c r="R53">
+        <v>0.51</v>
+      </c>
+      <c r="S53">
+        <v>4.8</v>
+      </c>
+      <c r="T53">
+        <v>6.2</v>
+      </c>
+      <c r="U53">
+        <v>0.777</v>
+      </c>
+      <c r="V53">
+        <v>2.6</v>
+      </c>
+      <c r="W53">
+        <v>4.4</v>
+      </c>
+      <c r="X53">
+        <v>7</v>
+      </c>
+      <c r="Y53">
+        <v>4</v>
+      </c>
+      <c r="Z53">
+        <v>1.9</v>
+      </c>
+      <c r="AA53">
+        <v>1.6</v>
+      </c>
+      <c r="AB53">
+        <v>3.2</v>
+      </c>
+      <c r="AC53">
+        <v>2.9</v>
+      </c>
+      <c r="AD53">
+        <v>23.1</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54">
+        <v>141</v>
+      </c>
+      <c r="H54">
+        <v>30</v>
+      </c>
+      <c r="I54">
+        <v>5288</v>
+      </c>
+      <c r="J54">
+        <v>8.1</v>
+      </c>
+      <c r="K54">
+        <v>16.6</v>
+      </c>
+      <c r="L54">
+        <v>0.486</v>
+      </c>
+      <c r="M54">
+        <v>0.1</v>
+      </c>
+      <c r="N54">
+        <v>0.3</v>
+      </c>
+      <c r="O54">
+        <v>0.194</v>
+      </c>
+      <c r="P54">
+        <v>8</v>
+      </c>
+      <c r="Q54">
+        <v>16.4</v>
+      </c>
+      <c r="R54">
+        <v>0.491</v>
+      </c>
+      <c r="S54">
+        <v>4.8</v>
+      </c>
+      <c r="T54">
+        <v>6.2</v>
+      </c>
+      <c r="U54">
+        <v>0.779</v>
+      </c>
+      <c r="V54">
+        <v>2.5</v>
+      </c>
+      <c r="W54">
+        <v>4.3</v>
+      </c>
+      <c r="X54">
+        <v>6.8</v>
+      </c>
+      <c r="Y54">
+        <v>4</v>
+      </c>
+      <c r="Z54">
+        <v>1.6</v>
+      </c>
+      <c r="AA54">
+        <v>1.6</v>
+      </c>
+      <c r="AB54">
+        <v>3.1</v>
+      </c>
+      <c r="AC54">
+        <v>2.7</v>
+      </c>
+      <c r="AD54">
+        <v>21</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="I55">
+        <v>-23389</v>
+      </c>
+      <c r="J55">
+        <v>-1</v>
+      </c>
+      <c r="K55">
+        <v>-1.299999999999997</v>
+      </c>
+      <c r="L55">
+        <v>-0.02100000000000002</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>-0.06700000000000003</v>
+      </c>
+      <c r="P55">
+        <v>-1</v>
+      </c>
+      <c r="Q55">
+        <v>-1.300000000000001</v>
+      </c>
+      <c r="R55">
+        <v>-0.01900000000000002</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0.002000000000000002</v>
+      </c>
+      <c r="V55">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="W55">
+        <v>-0.1000000000000005</v>
+      </c>
+      <c r="X55">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AC55">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="AD55">
+        <v>-2.100000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56">
+        <v>155</v>
+      </c>
+      <c r="I56">
+        <v>6506</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <v>20.1</v>
+      </c>
+      <c r="L56">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0.2</v>
+      </c>
+      <c r="O56">
+        <v>0.2</v>
+      </c>
+      <c r="P56">
+        <v>9.9</v>
+      </c>
+      <c r="Q56">
+        <v>19.9</v>
+      </c>
+      <c r="R56">
+        <v>0.5</v>
+      </c>
+      <c r="S56">
+        <v>5.2</v>
+      </c>
+      <c r="T56">
+        <v>6.9</v>
+      </c>
+      <c r="U56">
+        <v>0.76</v>
+      </c>
+      <c r="V56">
+        <v>4.1</v>
+      </c>
+      <c r="W56">
+        <v>8</v>
+      </c>
+      <c r="X56">
+        <v>12.1</v>
+      </c>
+      <c r="Y56">
+        <v>3.5</v>
+      </c>
+      <c r="Z56">
+        <v>2.2</v>
+      </c>
+      <c r="AA56">
+        <v>1.5</v>
+      </c>
+      <c r="AB56">
+        <v>3.7</v>
+      </c>
+      <c r="AC56">
+        <v>2.6</v>
+      </c>
+      <c r="AD56">
+        <v>25.2</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G57">
+        <v>16</v>
+      </c>
+      <c r="I57">
+        <v>723</v>
+      </c>
+      <c r="J57">
+        <v>10.3</v>
+      </c>
+      <c r="K57">
+        <v>19.7</v>
+      </c>
+      <c r="L57">
+        <v>0.52</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0.3</v>
+      </c>
+      <c r="O57">
+        <v>0.143</v>
+      </c>
+      <c r="P57">
+        <v>10.2</v>
+      </c>
+      <c r="Q57">
+        <v>19.4</v>
+      </c>
+      <c r="R57">
+        <v>0.527</v>
+      </c>
+      <c r="S57">
+        <v>5</v>
+      </c>
+      <c r="T57">
+        <v>6.2</v>
+      </c>
+      <c r="U57">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="V57">
+        <v>2.3</v>
+      </c>
+      <c r="W57">
+        <v>5.1</v>
+      </c>
+      <c r="X57">
+        <v>13.4</v>
+      </c>
+      <c r="Y57">
+        <v>4.4</v>
+      </c>
+      <c r="AB57">
+        <v>3.6</v>
+      </c>
+      <c r="AC57">
+        <v>2.1</v>
+      </c>
+      <c r="AD57">
+        <v>25.6</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="I58">
+        <v>-5783</v>
+      </c>
+      <c r="J58">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="K58">
+        <v>-0.4000000000000021</v>
+      </c>
+      <c r="L58">
+        <v>0.02299999999999996</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="O58">
+        <v>-0.057</v>
+      </c>
+      <c r="P58">
+        <v>0.2999999999999989</v>
+      </c>
+      <c r="Q58">
+        <v>-0.5</v>
+      </c>
+      <c r="R58">
+        <v>0.02700000000000002</v>
+      </c>
+      <c r="S58">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="T58">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="U58">
+        <v>0.04799999999999993</v>
+      </c>
+      <c r="V58">
+        <v>-1.8</v>
+      </c>
+      <c r="W58">
+        <v>-2.9</v>
+      </c>
+      <c r="X58">
+        <v>1.300000000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="AB58">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AC58">
+        <v>-0.5</v>
+      </c>
+      <c r="AD58">
+        <v>0.4000000000000021</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59">
+        <v>1243</v>
+      </c>
+      <c r="H59">
+        <v>823</v>
+      </c>
+      <c r="I59">
+        <v>45227</v>
+      </c>
+      <c r="J59">
+        <v>9.4</v>
+      </c>
+      <c r="K59">
+        <v>18.6</v>
+      </c>
+      <c r="L59">
+        <v>0.506</v>
+      </c>
+      <c r="M59">
+        <v>0.1</v>
+      </c>
+      <c r="N59">
+        <v>0.4</v>
+      </c>
+      <c r="O59">
+        <v>0.298</v>
+      </c>
+      <c r="P59">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Q59">
+        <v>18.2</v>
+      </c>
+      <c r="R59">
+        <v>0.51</v>
+      </c>
+      <c r="S59">
+        <v>5</v>
+      </c>
+      <c r="T59">
+        <v>6.4</v>
+      </c>
+      <c r="U59">
+        <v>0.777</v>
+      </c>
+      <c r="V59">
+        <v>2.9</v>
+      </c>
+      <c r="W59">
+        <v>5.4</v>
+      </c>
+      <c r="X59">
+        <v>8.4</v>
+      </c>
+      <c r="Y59">
+        <v>4.1</v>
+      </c>
+      <c r="Z59">
+        <v>2</v>
+      </c>
+      <c r="AA59">
+        <v>1.7</v>
+      </c>
+      <c r="AB59">
+        <v>3.4</v>
+      </c>
+      <c r="AC59">
+        <v>2.8</v>
+      </c>
+      <c r="AD59">
+        <v>23.9</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60">
+        <v>189</v>
+      </c>
+      <c r="H60">
+        <v>30</v>
+      </c>
+      <c r="I60">
+        <v>7352</v>
+      </c>
+      <c r="J60">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="K60">
+        <v>17.4</v>
+      </c>
+      <c r="L60">
+        <v>0.496</v>
+      </c>
+      <c r="M60">
+        <v>0.1</v>
+      </c>
+      <c r="N60">
+        <v>0.5</v>
+      </c>
+      <c r="O60">
+        <v>0.224</v>
+      </c>
+      <c r="P60">
+        <v>8.6</v>
+      </c>
+      <c r="Q60">
+        <v>17.1</v>
+      </c>
+      <c r="R60">
+        <v>0.502</v>
+      </c>
+      <c r="S60">
+        <v>5</v>
+      </c>
+      <c r="T60">
+        <v>6.4</v>
+      </c>
+      <c r="U60">
+        <v>0.784</v>
+      </c>
+      <c r="V60">
+        <v>2.6</v>
+      </c>
+      <c r="W60">
+        <v>4.7</v>
+      </c>
+      <c r="X60">
+        <v>7.9</v>
+      </c>
+      <c r="Y60">
+        <v>4.1</v>
+      </c>
+      <c r="Z60">
+        <v>1.6</v>
+      </c>
+      <c r="AA60">
+        <v>1.6</v>
+      </c>
+      <c r="AB60">
+        <v>3.2</v>
+      </c>
+      <c r="AC60">
+        <v>2.7</v>
+      </c>
+      <c r="AD60">
+        <v>22.4</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="I61">
+        <v>-37875</v>
+      </c>
+      <c r="J61">
+        <v>-0.7000000000000011</v>
+      </c>
+      <c r="K61">
+        <v>-1.200000000000003</v>
+      </c>
+      <c r="L61">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="O61">
+        <v>-0.07400000000000001</v>
+      </c>
+      <c r="P61">
+        <v>-0.7000000000000011</v>
+      </c>
+      <c r="Q61">
+        <v>-1.099999999999998</v>
+      </c>
+      <c r="R61">
+        <v>-0.008000000000000007</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0.007000000000000006</v>
+      </c>
+      <c r="V61">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="W61">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="X61">
+        <v>-0.5</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="AA61">
+        <v>-0.09999999999999987</v>
+      </c>
+      <c r="AB61">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="AC61">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="AD61">
+        <v>-1.5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AH52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2">
+        <v>84</v>
+      </c>
+      <c r="I2">
+        <v>3398</v>
+      </c>
+      <c r="J2">
+        <v>12.3</v>
+      </c>
+      <c r="K2">
+        <v>24</v>
+      </c>
+      <c r="L2">
+        <v>0.512</v>
+      </c>
+      <c r="M2">
+        <v>0.2</v>
+      </c>
+      <c r="N2">
+        <v>0.6</v>
+      </c>
+      <c r="O2">
+        <v>0.395</v>
+      </c>
+      <c r="P2">
+        <v>12.1</v>
+      </c>
+      <c r="Q2">
+        <v>23.4</v>
+      </c>
+      <c r="R2">
+        <v>0.515</v>
+      </c>
+      <c r="S2">
+        <v>6.1</v>
+      </c>
+      <c r="T2">
+        <v>8</v>
+      </c>
+      <c r="U2">
+        <v>0.7659999999999999</v>
+      </c>
+      <c r="V2">
+        <v>3.5</v>
+      </c>
+      <c r="W2">
+        <v>8.6</v>
+      </c>
+      <c r="X2">
+        <v>12.1</v>
+      </c>
+      <c r="Y2">
+        <v>5.8</v>
+      </c>
+      <c r="Z2">
+        <v>2.6</v>
+      </c>
+      <c r="AA2">
+        <v>2.7</v>
+      </c>
+      <c r="AB2">
+        <v>4.6</v>
+      </c>
+      <c r="AC2">
+        <v>3.6</v>
+      </c>
+      <c r="AD2">
+        <v>30.9</v>
+      </c>
+      <c r="AF2">
+        <v>111</v>
+      </c>
+      <c r="AG2">
+        <v>94</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>579</v>
+      </c>
+      <c r="J3">
+        <v>13.3</v>
+      </c>
+      <c r="K3">
+        <v>25.3</v>
+      </c>
+      <c r="L3">
+        <v>0.528</v>
+      </c>
+      <c r="M3">
+        <v>0.4</v>
+      </c>
+      <c r="N3">
+        <v>0.9</v>
+      </c>
+      <c r="O3">
+        <v>0.455</v>
+      </c>
+      <c r="P3">
+        <v>12.9</v>
+      </c>
+      <c r="Q3">
+        <v>24.4</v>
+      </c>
+      <c r="R3">
+        <v>0.531</v>
+      </c>
+      <c r="S3">
+        <v>5.2</v>
+      </c>
+      <c r="T3">
+        <v>7</v>
+      </c>
+      <c r="U3">
+        <v>0.741</v>
+      </c>
+      <c r="V3">
+        <v>3.6</v>
+      </c>
+      <c r="W3">
+        <v>7.6</v>
+      </c>
+      <c r="X3">
+        <v>11.2</v>
+      </c>
+      <c r="Y3">
+        <v>5.6</v>
+      </c>
+      <c r="Z3">
+        <v>1.8</v>
+      </c>
+      <c r="AA3">
+        <v>1.6</v>
+      </c>
+      <c r="AB3">
+        <v>4.2</v>
+      </c>
+      <c r="AC3">
+        <v>3.3</v>
+      </c>
+      <c r="AD3">
+        <v>32.3</v>
+      </c>
+      <c r="AF3">
+        <v>113</v>
+      </c>
+      <c r="AG3">
+        <v>95</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>-2819</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1.300000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.01600000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.2</v>
+      </c>
+      <c r="N4">
+        <v>0.3</v>
+      </c>
+      <c r="O4">
+        <v>0.06</v>
+      </c>
+      <c r="P4">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0.01600000000000001</v>
+      </c>
+      <c r="S4">
+        <v>-0.8999999999999995</v>
+      </c>
+      <c r="T4">
+        <v>-1</v>
+      </c>
+      <c r="U4">
+        <v>-0.02499999999999991</v>
+      </c>
+      <c r="V4">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="Y4">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="Z4">
+        <v>-0.8</v>
+      </c>
+      <c r="AA4">
+        <v>-1.1</v>
+      </c>
+      <c r="AB4">
+        <v>-0.3999999999999995</v>
+      </c>
+      <c r="AC4">
+        <v>-0.3000000000000003</v>
+      </c>
+      <c r="AD4">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="AF4">
+        <v>2</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5">
+        <v>84</v>
+      </c>
+      <c r="I5">
+        <v>3402</v>
+      </c>
+      <c r="J5">
+        <v>12.5</v>
+      </c>
+      <c r="K5">
+        <v>24.7</v>
+      </c>
+      <c r="L5">
+        <v>0.506</v>
+      </c>
+      <c r="M5">
+        <v>0.4</v>
+      </c>
+      <c r="N5">
+        <v>1.2</v>
+      </c>
+      <c r="O5">
+        <v>0.333</v>
+      </c>
+      <c r="P5">
+        <v>12.1</v>
+      </c>
+      <c r="Q5">
+        <v>23.5</v>
+      </c>
+      <c r="R5">
+        <v>0.515</v>
+      </c>
+      <c r="S5">
+        <v>6.6</v>
+      </c>
+      <c r="T5">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U5">
+        <v>0.799</v>
+      </c>
+      <c r="V5">
+        <v>3.9</v>
+      </c>
+      <c r="W5">
+        <v>8.6</v>
+      </c>
+      <c r="X5">
+        <v>12.5</v>
+      </c>
+      <c r="Y5">
+        <v>6.3</v>
+      </c>
+      <c r="Z5">
+        <v>2.5</v>
+      </c>
+      <c r="AA5">
+        <v>2.1</v>
+      </c>
+      <c r="AB5">
+        <v>4.1</v>
+      </c>
+      <c r="AC5">
+        <v>3.5</v>
+      </c>
+      <c r="AD5">
+        <v>32</v>
+      </c>
+      <c r="AF5">
+        <v>114</v>
+      </c>
+      <c r="AG5">
+        <v>96</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>211</v>
+      </c>
+      <c r="J6">
+        <v>12.3</v>
+      </c>
+      <c r="K6">
+        <v>27.1</v>
+      </c>
+      <c r="L6">
+        <v>0.455</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.8</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.3</v>
+      </c>
+      <c r="Q6">
+        <v>25.3</v>
+      </c>
+      <c r="R6">
+        <v>0.487</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>7.2</v>
+      </c>
+      <c r="U6">
+        <v>0.8440000000000001</v>
+      </c>
+      <c r="V6">
+        <v>2.7</v>
+      </c>
+      <c r="W6">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="X6">
+        <v>11</v>
+      </c>
+      <c r="Y6">
+        <v>6.3</v>
+      </c>
+      <c r="Z6">
+        <v>1.1</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <v>4.2</v>
+      </c>
+      <c r="AC6">
+        <v>4</v>
+      </c>
+      <c r="AD6">
+        <v>30.6</v>
+      </c>
+      <c r="AF6">
+        <v>102</v>
+      </c>
+      <c r="AG6">
+        <v>105</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>-3191</v>
+      </c>
+      <c r="J7">
+        <v>-0.1999999999999993</v>
+      </c>
+      <c r="K7">
+        <v>2.400000000000002</v>
+      </c>
+      <c r="L7">
+        <v>-0.05099999999999999</v>
+      </c>
+      <c r="M7">
+        <v>-0.4</v>
+      </c>
+      <c r="N7">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="O7">
+        <v>-0.333</v>
+      </c>
+      <c r="P7">
+        <v>0.2000000000000011</v>
+      </c>
+      <c r="Q7">
+        <v>1.800000000000001</v>
+      </c>
+      <c r="R7">
+        <v>-0.02799999999999997</v>
+      </c>
+      <c r="S7">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="T7">
+        <v>-1.100000000000001</v>
+      </c>
+      <c r="U7">
+        <v>0.04500000000000004</v>
+      </c>
+      <c r="V7">
+        <v>-1.2</v>
+      </c>
+      <c r="W7">
+        <v>-0.2999999999999989</v>
+      </c>
+      <c r="X7">
+        <v>-1.5</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>-1.4</v>
+      </c>
+      <c r="AA7">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AB7">
+        <v>0.1000000000000005</v>
+      </c>
+      <c r="AC7">
+        <v>0.5</v>
+      </c>
+      <c r="AD7">
+        <v>-1.399999999999999</v>
+      </c>
+      <c r="AF7">
+        <v>-12</v>
+      </c>
+      <c r="AG7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8">
+        <v>84</v>
+      </c>
+      <c r="I8">
+        <v>3244</v>
+      </c>
+      <c r="J8">
+        <v>13.3</v>
+      </c>
+      <c r="K8">
+        <v>26.2</v>
+      </c>
+      <c r="L8">
+        <v>0.507</v>
+      </c>
+      <c r="M8">
+        <v>0.5</v>
+      </c>
+      <c r="N8">
+        <v>1.4</v>
+      </c>
+      <c r="O8">
+        <v>0.33</v>
+      </c>
+      <c r="P8">
+        <v>12.8</v>
+      </c>
+      <c r="Q8">
+        <v>24.7</v>
+      </c>
+      <c r="R8">
+        <v>0.517</v>
+      </c>
+      <c r="S8">
+        <v>7.4</v>
+      </c>
+      <c r="T8">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="U8">
+        <v>0.8009999999999999</v>
+      </c>
+      <c r="V8">
+        <v>4.7</v>
+      </c>
+      <c r="W8">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="X8">
+        <v>12.9</v>
+      </c>
+      <c r="Y8">
+        <v>5.9</v>
+      </c>
+      <c r="Z8">
+        <v>2.9</v>
+      </c>
+      <c r="AA8">
+        <v>2.2</v>
+      </c>
+      <c r="AB8">
+        <v>4.3</v>
+      </c>
+      <c r="AC8">
+        <v>3.1</v>
+      </c>
+      <c r="AD8">
+        <v>34.4</v>
+      </c>
+      <c r="AF8">
+        <v>116</v>
+      </c>
+      <c r="AG8">
+        <v>97</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>551</v>
+      </c>
+      <c r="J9">
+        <v>13.3</v>
+      </c>
+      <c r="K9">
+        <v>24.9</v>
+      </c>
+      <c r="L9">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="M9">
+        <v>0.3</v>
+      </c>
+      <c r="N9">
+        <v>1.2</v>
+      </c>
+      <c r="O9">
+        <v>0.286</v>
+      </c>
+      <c r="P9">
+        <v>12.9</v>
+      </c>
+      <c r="Q9">
+        <v>23.7</v>
+      </c>
+      <c r="R9">
+        <v>0.545</v>
+      </c>
+      <c r="S9">
+        <v>10.5</v>
+      </c>
+      <c r="T9">
+        <v>13.1</v>
+      </c>
+      <c r="U9">
+        <v>0.804</v>
+      </c>
+      <c r="V9">
+        <v>5.4</v>
+      </c>
+      <c r="W9">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="X9">
+        <v>13.6</v>
+      </c>
+      <c r="Y9">
+        <v>5.3</v>
+      </c>
+      <c r="Z9">
+        <v>2.1</v>
+      </c>
+      <c r="AA9">
+        <v>2.2</v>
+      </c>
+      <c r="AB9">
+        <v>3.2</v>
+      </c>
+      <c r="AC9">
+        <v>3.4</v>
+      </c>
+      <c r="AD9">
+        <v>37.4</v>
+      </c>
+      <c r="AF9">
+        <v>128</v>
+      </c>
+      <c r="AG9">
+        <v>103</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>-2693</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>-1.300000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.02599999999999991</v>
+      </c>
+      <c r="M10">
+        <v>-0.2</v>
+      </c>
+      <c r="N10">
+        <v>-0.2</v>
+      </c>
+      <c r="O10">
+        <v>-0.04399999999999998</v>
+      </c>
+      <c r="P10">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="Q10">
+        <v>-1</v>
+      </c>
+      <c r="R10">
+        <v>0.02800000000000002</v>
+      </c>
+      <c r="S10">
+        <v>3.1</v>
+      </c>
+      <c r="T10">
+        <v>3.799999999999999</v>
+      </c>
+      <c r="U10">
+        <v>0.003000000000000114</v>
+      </c>
+      <c r="V10">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0.6999999999999993</v>
+      </c>
+      <c r="Y10">
+        <v>-0.6000000000000005</v>
+      </c>
+      <c r="Z10">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>-1.1</v>
+      </c>
+      <c r="AC10">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="AD10">
+        <v>3</v>
+      </c>
+      <c r="AF10">
+        <v>12</v>
+      </c>
+      <c r="AG10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11">
+        <v>82</v>
+      </c>
+      <c r="H11">
+        <v>77</v>
+      </c>
+      <c r="I11">
+        <v>2940</v>
+      </c>
+      <c r="J11">
+        <v>10.3</v>
+      </c>
+      <c r="K11">
+        <v>20.7</v>
+      </c>
+      <c r="L11">
+        <v>0.499</v>
+      </c>
+      <c r="P11">
+        <v>10.3</v>
+      </c>
+      <c r="Q11">
+        <v>20.7</v>
+      </c>
+      <c r="R11">
+        <v>0.499</v>
+      </c>
+      <c r="S11">
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <v>7.8</v>
+      </c>
+      <c r="U11">
+        <v>0.777</v>
+      </c>
+      <c r="V11">
+        <v>2.9</v>
+      </c>
+      <c r="W11">
+        <v>7.6</v>
+      </c>
+      <c r="X11">
+        <v>10.5</v>
+      </c>
+      <c r="Y11">
+        <v>4.6</v>
+      </c>
+      <c r="Z11">
+        <v>2.4</v>
+      </c>
+      <c r="AA11">
+        <v>1.7</v>
+      </c>
+      <c r="AC11">
+        <v>3.8</v>
+      </c>
+      <c r="AD11">
+        <v>26.7</v>
+      </c>
+      <c r="AG11">
+        <v>95</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <v>758</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>23</v>
+      </c>
+      <c r="L12">
+        <v>0.523</v>
+      </c>
+      <c r="P12">
+        <v>12</v>
+      </c>
+      <c r="Q12">
+        <v>23</v>
+      </c>
+      <c r="R12">
+        <v>0.523</v>
+      </c>
+      <c r="S12">
+        <v>6.5</v>
+      </c>
+      <c r="T12">
+        <v>7.9</v>
+      </c>
+      <c r="U12">
+        <v>0.821</v>
+      </c>
+      <c r="V12">
+        <v>2.4</v>
+      </c>
+      <c r="W12">
+        <v>4.8</v>
+      </c>
+      <c r="X12">
+        <v>7.2</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+      <c r="Z12">
+        <v>2.4</v>
+      </c>
+      <c r="AA12">
+        <v>1.4</v>
+      </c>
+      <c r="AC12">
+        <v>2.7</v>
+      </c>
+      <c r="AD12">
+        <v>30.6</v>
+      </c>
+      <c r="AG12">
+        <v>99</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>-2182</v>
+      </c>
+      <c r="J13">
+        <v>1.699999999999999</v>
+      </c>
+      <c r="K13">
+        <v>2.300000000000001</v>
+      </c>
+      <c r="L13">
+        <v>0.02400000000000002</v>
+      </c>
+      <c r="P13">
+        <v>1.699999999999999</v>
+      </c>
+      <c r="Q13">
+        <v>2.300000000000001</v>
+      </c>
+      <c r="R13">
+        <v>0.02400000000000002</v>
+      </c>
+      <c r="S13">
+        <v>0.5</v>
+      </c>
+      <c r="T13">
+        <v>0.1000000000000005</v>
+      </c>
+      <c r="U13">
+        <v>0.04399999999999993</v>
+      </c>
+      <c r="V13">
+        <v>-0.5</v>
+      </c>
+      <c r="W13">
+        <v>-2.8</v>
+      </c>
+      <c r="X13">
+        <v>-3.3</v>
+      </c>
+      <c r="Y13">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>-0.3</v>
+      </c>
+      <c r="AC13">
+        <v>-1.1</v>
+      </c>
+      <c r="AD13">
+        <v>3.900000000000002</v>
+      </c>
+      <c r="AG13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14">
+        <v>74</v>
+      </c>
+      <c r="H14">
+        <v>68</v>
+      </c>
+      <c r="I14">
+        <v>2429</v>
+      </c>
+      <c r="J14">
+        <v>11.1</v>
+      </c>
+      <c r="K14">
+        <v>22.2</v>
+      </c>
+      <c r="L14">
+        <v>0.502</v>
+      </c>
+      <c r="P14">
+        <v>11.1</v>
+      </c>
+      <c r="Q14">
+        <v>22.2</v>
+      </c>
+      <c r="R14">
+        <v>0.502</v>
+      </c>
+      <c r="S14">
+        <v>5.6</v>
+      </c>
+      <c r="T14">
+        <v>6.6</v>
+      </c>
+      <c r="U14">
+        <v>0.845</v>
+      </c>
+      <c r="V14">
+        <v>3.3</v>
+      </c>
+      <c r="W14">
+        <v>5.5</v>
+      </c>
+      <c r="X14">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y14">
+        <v>5.1</v>
+      </c>
+      <c r="Z14">
+        <v>2.5</v>
+      </c>
+      <c r="AA14">
+        <v>1.8</v>
+      </c>
+      <c r="AB14">
+        <v>4.3</v>
+      </c>
+      <c r="AC14">
+        <v>3.8</v>
+      </c>
+      <c r="AD14">
+        <v>27.9</v>
+      </c>
+      <c r="AF14">
+        <v>109</v>
+      </c>
+      <c r="AG14">
+        <v>99</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>358</v>
+      </c>
+      <c r="J15">
+        <v>10.8</v>
+      </c>
+      <c r="K15">
+        <v>22.2</v>
+      </c>
+      <c r="L15">
+        <v>0.489</v>
+      </c>
+      <c r="P15">
+        <v>10.8</v>
+      </c>
+      <c r="Q15">
+        <v>22.2</v>
+      </c>
+      <c r="R15">
+        <v>0.489</v>
+      </c>
+      <c r="S15">
+        <v>5.2</v>
+      </c>
+      <c r="T15">
+        <v>6.9</v>
+      </c>
+      <c r="U15">
+        <v>0.75</v>
+      </c>
+      <c r="V15">
+        <v>4.9</v>
+      </c>
+      <c r="W15">
+        <v>7</v>
+      </c>
+      <c r="X15">
+        <v>11.9</v>
+      </c>
+      <c r="Y15">
+        <v>4.9</v>
+      </c>
+      <c r="Z15">
+        <v>1.8</v>
+      </c>
+      <c r="AA15">
+        <v>2.2</v>
+      </c>
+      <c r="AB15">
+        <v>4.3</v>
+      </c>
+      <c r="AC15">
+        <v>3.7</v>
+      </c>
+      <c r="AD15">
+        <v>26.8</v>
+      </c>
+      <c r="AF15">
+        <v>106</v>
+      </c>
+      <c r="AG15">
+        <v>97</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>-2071</v>
+      </c>
+      <c r="J16">
+        <v>-0.2999999999999989</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>-0.01300000000000001</v>
+      </c>
+      <c r="P16">
+        <v>-0.2999999999999989</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>-0.01300000000000001</v>
+      </c>
+      <c r="S16">
+        <v>-0.3999999999999995</v>
+      </c>
+      <c r="T16">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="U16">
+        <v>-0.09499999999999997</v>
+      </c>
+      <c r="V16">
+        <v>1.600000000000001</v>
+      </c>
+      <c r="W16">
+        <v>1.5</v>
+      </c>
+      <c r="X16">
+        <v>3.1</v>
+      </c>
+      <c r="Y16">
+        <v>-0.1999999999999993</v>
+      </c>
+      <c r="Z16">
+        <v>-0.7</v>
+      </c>
+      <c r="AA16">
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="AD16">
+        <v>-1.099999999999998</v>
+      </c>
+      <c r="AF16">
+        <v>-3</v>
+      </c>
+      <c r="AG16">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17">
+        <v>78</v>
+      </c>
+      <c r="H17">
+        <v>76</v>
+      </c>
+      <c r="I17">
+        <v>2802</v>
+      </c>
+      <c r="J17">
+        <v>11.5</v>
+      </c>
+      <c r="K17">
+        <v>23.4</v>
+      </c>
+      <c r="L17">
+        <v>0.491</v>
+      </c>
+      <c r="P17">
+        <v>11.5</v>
+      </c>
+      <c r="Q17">
+        <v>23.4</v>
+      </c>
+      <c r="R17">
+        <v>0.491</v>
+      </c>
+      <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <v>8</v>
+      </c>
+      <c r="U17">
+        <v>0.745</v>
+      </c>
+      <c r="V17">
+        <v>3.2</v>
+      </c>
+      <c r="W17">
+        <v>5.9</v>
+      </c>
+      <c r="X17">
+        <v>9.1</v>
+      </c>
+      <c r="Y17">
+        <v>5.7</v>
+      </c>
+      <c r="Z17">
+        <v>2.1</v>
+      </c>
+      <c r="AA17">
+        <v>1.6</v>
+      </c>
+      <c r="AB17">
+        <v>5.1</v>
+      </c>
+      <c r="AC17">
+        <v>3.3</v>
+      </c>
+      <c r="AD17">
+        <v>28.9</v>
+      </c>
+      <c r="AF17">
+        <v>103</v>
+      </c>
+      <c r="AG17">
+        <v>100</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="I18">
+        <v>372</v>
+      </c>
+      <c r="J18">
+        <v>10.9</v>
+      </c>
+      <c r="K18">
+        <v>21</v>
+      </c>
+      <c r="L18">
+        <v>0.517</v>
+      </c>
+      <c r="P18">
+        <v>10.9</v>
+      </c>
+      <c r="Q18">
+        <v>21</v>
+      </c>
+      <c r="R18">
+        <v>0.517</v>
+      </c>
+      <c r="S18">
+        <v>6.2</v>
+      </c>
+      <c r="T18">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U18">
+        <v>0.7609999999999999</v>
+      </c>
+      <c r="V18">
+        <v>3.5</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="X18">
+        <v>8.5</v>
+      </c>
+      <c r="Y18">
+        <v>6.5</v>
+      </c>
+      <c r="Z18">
+        <v>2.2</v>
+      </c>
+      <c r="AA18">
+        <v>2.1</v>
+      </c>
+      <c r="AB18">
+        <v>4.6</v>
+      </c>
+      <c r="AC18">
+        <v>2.7</v>
+      </c>
+      <c r="AD18">
+        <v>27.9</v>
+      </c>
+      <c r="AF18">
+        <v>111</v>
+      </c>
+      <c r="AG18">
+        <v>103</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>-2430</v>
+      </c>
+      <c r="J19">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="K19">
+        <v>-2.399999999999999</v>
+      </c>
+      <c r="L19">
+        <v>0.02600000000000002</v>
+      </c>
+      <c r="P19">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="Q19">
+        <v>-2.399999999999999</v>
+      </c>
+      <c r="R19">
+        <v>0.02600000000000002</v>
+      </c>
+      <c r="S19">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="T19">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="U19">
+        <v>0.0159999999999999</v>
+      </c>
+      <c r="V19">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="W19">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="X19">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="Y19">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="Z19">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AA19">
+        <v>0.5</v>
+      </c>
+      <c r="AB19">
+        <v>-0.5</v>
+      </c>
+      <c r="AC19">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="AD19">
+        <v>-1</v>
+      </c>
+      <c r="AF19">
+        <v>8</v>
+      </c>
+      <c r="AG19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20">
+        <v>78</v>
+      </c>
+      <c r="H20">
+        <v>78</v>
+      </c>
+      <c r="I20">
+        <v>2812</v>
+      </c>
+      <c r="J20">
+        <v>13.9</v>
+      </c>
+      <c r="K20">
+        <v>26.7</v>
+      </c>
+      <c r="L20">
+        <v>0.519</v>
+      </c>
+      <c r="M20">
+        <v>0.1</v>
+      </c>
+      <c r="N20">
+        <v>0.3</v>
+      </c>
+      <c r="O20">
+        <v>0.2</v>
+      </c>
+      <c r="P20">
+        <v>13.8</v>
+      </c>
+      <c r="Q20">
+        <v>26.4</v>
+      </c>
+      <c r="R20">
+        <v>0.523</v>
+      </c>
+      <c r="S20">
+        <v>7</v>
+      </c>
+      <c r="T20">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="U20">
+        <v>0.787</v>
+      </c>
+      <c r="V20">
+        <v>3.6</v>
+      </c>
+      <c r="W20">
+        <v>6</v>
+      </c>
+      <c r="X20">
+        <v>9.5</v>
+      </c>
+      <c r="Y20">
+        <v>5.9</v>
+      </c>
+      <c r="Z20">
+        <v>2.8</v>
+      </c>
+      <c r="AA20">
+        <v>2.3</v>
+      </c>
+      <c r="AB20">
+        <v>4.7</v>
+      </c>
+      <c r="AC20">
+        <v>3.4</v>
+      </c>
+      <c r="AD20">
+        <v>34.8</v>
+      </c>
+      <c r="AF20">
+        <v>111</v>
+      </c>
+      <c r="AG20">
+        <v>99</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>694</v>
+      </c>
+      <c r="J21">
+        <v>11.5</v>
+      </c>
+      <c r="K21">
+        <v>23.6</v>
+      </c>
+      <c r="L21">
+        <v>0.488</v>
+      </c>
+      <c r="M21">
+        <v>0.1</v>
+      </c>
+      <c r="N21">
+        <v>0.6</v>
+      </c>
+      <c r="O21">
+        <v>0.222</v>
+      </c>
+      <c r="P21">
+        <v>11.4</v>
+      </c>
+      <c r="Q21">
+        <v>23</v>
+      </c>
+      <c r="R21">
+        <v>0.495</v>
+      </c>
+      <c r="S21">
+        <v>7.5</v>
+      </c>
+      <c r="T21">
+        <v>9.5</v>
+      </c>
+      <c r="U21">
+        <v>0.794</v>
+      </c>
+      <c r="V21">
+        <v>2.2</v>
+      </c>
+      <c r="W21">
+        <v>7.3</v>
+      </c>
+      <c r="X21">
+        <v>9.5</v>
+      </c>
+      <c r="Y21">
+        <v>5.5</v>
+      </c>
+      <c r="Z21">
+        <v>2.5</v>
+      </c>
+      <c r="AA21">
+        <v>2.6</v>
+      </c>
+      <c r="AB21">
+        <v>3.9</v>
+      </c>
+      <c r="AC21">
+        <v>3.9</v>
+      </c>
+      <c r="AD21">
+        <v>30.7</v>
+      </c>
+      <c r="AF21">
+        <v>108</v>
+      </c>
+      <c r="AG21">
+        <v>99</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>-2118</v>
+      </c>
+      <c r="J22">
+        <v>-2.4</v>
+      </c>
+      <c r="K22">
+        <v>-3.099999999999998</v>
+      </c>
+      <c r="L22">
+        <v>-0.03100000000000003</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.3</v>
+      </c>
+      <c r="O22">
+        <v>0.02199999999999999</v>
+      </c>
+      <c r="P22">
+        <v>-2.4</v>
+      </c>
+      <c r="Q22">
+        <v>-3.399999999999999</v>
+      </c>
+      <c r="R22">
+        <v>-0.02800000000000002</v>
+      </c>
+      <c r="S22">
+        <v>0.5</v>
+      </c>
+      <c r="T22">
+        <v>0.6999999999999993</v>
+      </c>
+      <c r="U22">
+        <v>0.007000000000000006</v>
+      </c>
+      <c r="V22">
+        <v>-1.4</v>
+      </c>
+      <c r="W22">
+        <v>1.3</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="Z22">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="AA22">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="AB22">
+        <v>-0.8000000000000003</v>
+      </c>
+      <c r="AC22">
+        <v>0.5</v>
+      </c>
+      <c r="AD22">
+        <v>-4.099999999999998</v>
+      </c>
+      <c r="AF22">
+        <v>-3</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23">
+        <v>82</v>
+      </c>
+      <c r="H23">
+        <v>82</v>
+      </c>
+      <c r="I23">
+        <v>2874</v>
+      </c>
+      <c r="J23">
+        <v>12.8</v>
+      </c>
+      <c r="K23">
+        <v>24.6</v>
+      </c>
+      <c r="L23">
+        <v>0.521</v>
+      </c>
+      <c r="M23">
+        <v>0.1</v>
+      </c>
+      <c r="N23">
+        <v>0.3</v>
+      </c>
+      <c r="O23">
+        <v>0.222</v>
+      </c>
+      <c r="P23">
+        <v>12.8</v>
+      </c>
+      <c r="Q23">
+        <v>24.3</v>
+      </c>
+      <c r="R23">
+        <v>0.525</v>
+      </c>
+      <c r="S23">
+        <v>6.8</v>
+      </c>
+      <c r="T23">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="U23">
+        <v>0.787</v>
+      </c>
+      <c r="V23">
+        <v>3.9</v>
+      </c>
+      <c r="W23">
+        <v>6.7</v>
+      </c>
+      <c r="X23">
+        <v>10.6</v>
+      </c>
+      <c r="Y23">
+        <v>5.9</v>
+      </c>
+      <c r="Z23">
+        <v>2.8</v>
+      </c>
+      <c r="AA23">
+        <v>2.4</v>
+      </c>
+      <c r="AB23">
+        <v>4.3</v>
+      </c>
+      <c r="AC23">
+        <v>3.8</v>
+      </c>
+      <c r="AD23">
+        <v>32.5</v>
+      </c>
+      <c r="AF23">
+        <v>113</v>
+      </c>
+      <c r="AG23">
+        <v>97</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24">
+        <v>16</v>
+      </c>
+      <c r="I24">
+        <v>592</v>
+      </c>
+      <c r="J24">
+        <v>11.8</v>
+      </c>
+      <c r="K24">
+        <v>24.8</v>
+      </c>
+      <c r="L24">
+        <v>0.475</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.8</v>
+      </c>
+      <c r="Q24">
+        <v>24.7</v>
+      </c>
+      <c r="R24">
+        <v>0.477</v>
+      </c>
+      <c r="S24">
+        <v>6.7</v>
+      </c>
+      <c r="T24">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="U24">
+        <v>0.757</v>
+      </c>
+      <c r="V24">
+        <v>4.3</v>
+      </c>
+      <c r="W24">
+        <v>5.1</v>
+      </c>
+      <c r="X24">
+        <v>9.4</v>
+      </c>
+      <c r="Y24">
+        <v>4.5</v>
+      </c>
+      <c r="Z24">
+        <v>1.8</v>
+      </c>
+      <c r="AA24">
+        <v>3.4</v>
+      </c>
+      <c r="AB24">
+        <v>4.5</v>
+      </c>
+      <c r="AC24">
+        <v>4.5</v>
+      </c>
+      <c r="AD24">
+        <v>30.3</v>
+      </c>
+      <c r="AF24">
+        <v>105</v>
+      </c>
+      <c r="AG24">
+        <v>105</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="I25">
+        <v>-2282</v>
+      </c>
+      <c r="J25">
+        <v>-1</v>
+      </c>
+      <c r="K25">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="L25">
+        <v>-0.04600000000000004</v>
+      </c>
+      <c r="M25">
+        <v>-0.1</v>
+      </c>
+      <c r="N25">
+        <v>-0.2</v>
+      </c>
+      <c r="O25">
+        <v>-0.222</v>
+      </c>
+      <c r="P25">
+        <v>-1</v>
+      </c>
+      <c r="Q25">
+        <v>0.3999999999999986</v>
+      </c>
+      <c r="R25">
+        <v>-0.04799999999999999</v>
+      </c>
+      <c r="S25">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="T25">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="U25">
+        <v>-0.03000000000000003</v>
+      </c>
+      <c r="V25">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="W25">
+        <v>-1.600000000000001</v>
+      </c>
+      <c r="X25">
+        <v>-1.199999999999999</v>
+      </c>
+      <c r="Y25">
+        <v>-1.4</v>
+      </c>
+      <c r="Z25">
+        <v>-0.9999999999999998</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="AC25">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="AD25">
+        <v>-2.199999999999999</v>
+      </c>
+      <c r="AF25">
+        <v>-8</v>
+      </c>
+      <c r="AG25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26">
+        <v>81</v>
+      </c>
+      <c r="H26">
+        <v>81</v>
+      </c>
+      <c r="I26">
+        <v>2789</v>
+      </c>
+      <c r="J26">
+        <v>13.3</v>
+      </c>
+      <c r="K26">
+        <v>24.4</v>
+      </c>
+      <c r="L26">
+        <v>0.546</v>
+      </c>
+      <c r="M26">
+        <v>0.1</v>
+      </c>
+      <c r="N26">
+        <v>0.2</v>
+      </c>
+      <c r="O26">
+        <v>0.273</v>
+      </c>
+      <c r="P26">
+        <v>13.3</v>
+      </c>
+      <c r="Q26">
+        <v>24.2</v>
+      </c>
+      <c r="R26">
+        <v>0.5479999999999999</v>
+      </c>
+      <c r="S26">
+        <v>7</v>
+      </c>
+      <c r="T26">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="U26">
+        <v>0.763</v>
+      </c>
+      <c r="V26">
+        <v>3.8</v>
+      </c>
+      <c r="W26">
+        <v>5.8</v>
+      </c>
+      <c r="X26">
+        <v>9.5</v>
+      </c>
+      <c r="Y26">
+        <v>5.5</v>
+      </c>
+      <c r="Z26">
+        <v>2.8</v>
+      </c>
+      <c r="AA26">
+        <v>2.4</v>
+      </c>
+      <c r="AB26">
+        <v>3.7</v>
+      </c>
+      <c r="AC26">
+        <v>3.9</v>
+      </c>
+      <c r="AD26">
+        <v>33.8</v>
+      </c>
+      <c r="AF26">
+        <v>117</v>
+      </c>
+      <c r="AG26">
+        <v>102</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27">
+        <v>21</v>
+      </c>
+      <c r="I27">
+        <v>780</v>
+      </c>
+      <c r="J27">
+        <v>10.5</v>
+      </c>
+      <c r="K27">
+        <v>20.3</v>
+      </c>
+      <c r="L27">
+        <v>0.519</v>
+      </c>
+      <c r="M27">
+        <v>0.1</v>
+      </c>
+      <c r="N27">
+        <v>0.4</v>
+      </c>
+      <c r="O27">
+        <v>0.167</v>
+      </c>
+      <c r="P27">
+        <v>10.5</v>
+      </c>
+      <c r="Q27">
+        <v>20</v>
+      </c>
+      <c r="R27">
+        <v>0.525</v>
+      </c>
+      <c r="S27">
+        <v>7.8</v>
+      </c>
+      <c r="T27">
+        <v>10.4</v>
+      </c>
+      <c r="U27">
+        <v>0.752</v>
+      </c>
+      <c r="V27">
+        <v>3.6</v>
+      </c>
+      <c r="W27">
+        <v>6.2</v>
+      </c>
+      <c r="X27">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y27">
+        <v>6.2</v>
+      </c>
+      <c r="Z27">
+        <v>2.3</v>
+      </c>
+      <c r="AA27">
+        <v>2.3</v>
+      </c>
+      <c r="AB27">
+        <v>4.2</v>
+      </c>
+      <c r="AC27">
+        <v>3.5</v>
+      </c>
+      <c r="AD27">
+        <v>28.9</v>
+      </c>
+      <c r="AF27">
+        <v>114</v>
+      </c>
+      <c r="AG27">
+        <v>104</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="I28">
+        <v>-2009</v>
+      </c>
+      <c r="J28">
+        <v>-2.800000000000001</v>
+      </c>
+      <c r="K28">
+        <v>-4.099999999999998</v>
+      </c>
+      <c r="L28">
+        <v>-0.02700000000000002</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0.2</v>
+      </c>
+      <c r="O28">
+        <v>-0.106</v>
+      </c>
+      <c r="P28">
+        <v>-2.800000000000001</v>
+      </c>
+      <c r="Q28">
+        <v>-4.199999999999999</v>
+      </c>
+      <c r="R28">
+        <v>-0.02299999999999991</v>
+      </c>
+      <c r="S28">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="T28">
+        <v>1.200000000000001</v>
+      </c>
+      <c r="U28">
+        <v>-0.01100000000000001</v>
+      </c>
+      <c r="V28">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="W28">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="X28">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="Y28">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="Z28">
+        <v>-0.5</v>
+      </c>
+      <c r="AA28">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AB28">
+        <v>0.5</v>
+      </c>
+      <c r="AC28">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="AD28">
+        <v>-4.899999999999999</v>
+      </c>
+      <c r="AF28">
+        <v>-3</v>
+      </c>
+      <c r="AG28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29">
+        <v>72</v>
+      </c>
+      <c r="H29">
+        <v>72</v>
+      </c>
+      <c r="I29">
+        <v>2421</v>
+      </c>
+      <c r="J29">
+        <v>11.7</v>
+      </c>
+      <c r="K29">
+        <v>22.6</v>
+      </c>
+      <c r="L29">
+        <v>0.517</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0.1</v>
+      </c>
+      <c r="O29">
+        <v>0.286</v>
+      </c>
+      <c r="P29">
+        <v>11.6</v>
+      </c>
+      <c r="Q29">
+        <v>22.5</v>
+      </c>
+      <c r="R29">
+        <v>0.518</v>
+      </c>
+      <c r="S29">
+        <v>6.4</v>
+      </c>
+      <c r="T29">
+        <v>8.4</v>
+      </c>
+      <c r="U29">
+        <v>0.759</v>
+      </c>
+      <c r="V29">
+        <v>3.3</v>
+      </c>
+      <c r="W29">
+        <v>6.1</v>
+      </c>
+      <c r="X29">
+        <v>9.5</v>
+      </c>
+      <c r="Y29">
+        <v>5.1</v>
+      </c>
+      <c r="Z29">
+        <v>2.2</v>
+      </c>
+      <c r="AA29">
+        <v>2.5</v>
+      </c>
+      <c r="AB29">
+        <v>3.8</v>
+      </c>
+      <c r="AC29">
+        <v>3.9</v>
+      </c>
+      <c r="AD29">
+        <v>29.8</v>
+      </c>
+      <c r="AF29">
+        <v>115</v>
+      </c>
+      <c r="AG29">
+        <v>99</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30">
+        <v>13</v>
+      </c>
+      <c r="I30">
+        <v>493</v>
+      </c>
+      <c r="J30">
+        <v>9.5</v>
+      </c>
+      <c r="K30">
+        <v>21.1</v>
+      </c>
+      <c r="L30">
+        <v>0.45</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0.1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>9.5</v>
+      </c>
+      <c r="Q30">
+        <v>21</v>
+      </c>
+      <c r="R30">
+        <v>0.452</v>
+      </c>
+      <c r="S30">
+        <v>4.9</v>
+      </c>
+      <c r="T30">
+        <v>6.8</v>
+      </c>
+      <c r="U30">
+        <v>0.721</v>
+      </c>
+      <c r="V30">
+        <v>3.2</v>
+      </c>
+      <c r="W30">
+        <v>6.7</v>
+      </c>
+      <c r="X30">
+        <v>9.9</v>
+      </c>
+      <c r="Y30">
+        <v>4.4</v>
+      </c>
+      <c r="Z30">
+        <v>1.5</v>
+      </c>
+      <c r="AA30">
+        <v>2.7</v>
+      </c>
+      <c r="AB30">
+        <v>3.9</v>
+      </c>
+      <c r="AC30">
+        <v>4.2</v>
+      </c>
+      <c r="AD30">
+        <v>23.9</v>
+      </c>
+      <c r="AF30">
+        <v>102</v>
+      </c>
+      <c r="AG30">
+        <v>101</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="I31">
+        <v>-1928</v>
+      </c>
+      <c r="J31">
+        <v>-2.199999999999999</v>
+      </c>
+      <c r="K31">
+        <v>-1.5</v>
+      </c>
+      <c r="L31">
+        <v>-0.067</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>-0.286</v>
+      </c>
+      <c r="P31">
+        <v>-2.1</v>
+      </c>
+      <c r="Q31">
+        <v>-1.5</v>
+      </c>
+      <c r="R31">
+        <v>-0.066</v>
+      </c>
+      <c r="S31">
+        <v>-1.5</v>
+      </c>
+      <c r="T31">
+        <v>-1.600000000000001</v>
+      </c>
+      <c r="U31">
+        <v>-0.03800000000000003</v>
+      </c>
+      <c r="V31">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="W31">
+        <v>0.6000000000000005</v>
+      </c>
+      <c r="X31">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="Y31">
+        <v>-0.6999999999999993</v>
+      </c>
+      <c r="Z31">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="AA31">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="AB31">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AC31">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="AD31">
+        <v>-5.900000000000002</v>
+      </c>
+      <c r="AF31">
+        <v>-13</v>
+      </c>
+      <c r="AG31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32">
+        <v>77</v>
+      </c>
+      <c r="H32">
+        <v>77</v>
+      </c>
+      <c r="I32">
+        <v>2683</v>
+      </c>
+      <c r="J32">
+        <v>12.2</v>
+      </c>
+      <c r="K32">
+        <v>23.8</v>
+      </c>
+      <c r="L32">
+        <v>0.512</v>
+      </c>
+      <c r="M32">
+        <v>0.1</v>
+      </c>
+      <c r="N32">
+        <v>0.4</v>
+      </c>
+      <c r="O32">
+        <v>0.333</v>
+      </c>
+      <c r="P32">
+        <v>12.1</v>
+      </c>
+      <c r="Q32">
+        <v>23.4</v>
+      </c>
+      <c r="R32">
+        <v>0.515</v>
+      </c>
+      <c r="S32">
+        <v>6.5</v>
+      </c>
+      <c r="T32">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="U32">
+        <v>0.754</v>
+      </c>
+      <c r="V32">
+        <v>3.4</v>
+      </c>
+      <c r="W32">
+        <v>6.1</v>
+      </c>
+      <c r="X32">
+        <v>9.6</v>
+      </c>
+      <c r="Y32">
+        <v>5.6</v>
+      </c>
+      <c r="Z32">
+        <v>2.5</v>
+      </c>
+      <c r="AA32">
+        <v>2.5</v>
+      </c>
+      <c r="AB32">
+        <v>4.1</v>
+      </c>
+      <c r="AC32">
+        <v>3.9</v>
+      </c>
+      <c r="AD32">
+        <v>31</v>
+      </c>
+      <c r="AF32">
+        <v>112</v>
+      </c>
+      <c r="AG32">
+        <v>102</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>194</v>
+      </c>
+      <c r="J33">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K33">
+        <v>18.6</v>
+      </c>
+      <c r="L33">
+        <v>0.474</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0.2</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Q33">
+        <v>18.3</v>
+      </c>
+      <c r="R33">
+        <v>0.48</v>
+      </c>
+      <c r="S33">
+        <v>4.6</v>
+      </c>
+      <c r="T33">
+        <v>5.4</v>
+      </c>
+      <c r="U33">
+        <v>0.8640000000000001</v>
+      </c>
+      <c r="V33">
+        <v>2.2</v>
+      </c>
+      <c r="W33">
+        <v>5.6</v>
+      </c>
+      <c r="X33">
+        <v>7.8</v>
+      </c>
+      <c r="Y33">
+        <v>6.1</v>
+      </c>
+      <c r="Z33">
+        <v>2</v>
+      </c>
+      <c r="AA33">
+        <v>1.5</v>
+      </c>
+      <c r="AB33">
+        <v>5.1</v>
+      </c>
+      <c r="AC33">
+        <v>3.4</v>
+      </c>
+      <c r="AD33">
+        <v>22.2</v>
+      </c>
+      <c r="AF33">
+        <v>100</v>
+      </c>
+      <c r="AG33">
+        <v>105</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="I34">
+        <v>-2489</v>
+      </c>
+      <c r="J34">
+        <v>-3.399999999999999</v>
+      </c>
+      <c r="K34">
+        <v>-5.199999999999999</v>
+      </c>
+      <c r="L34">
+        <v>-0.03800000000000003</v>
+      </c>
+      <c r="M34">
+        <v>-0.1</v>
+      </c>
+      <c r="N34">
+        <v>-0.2</v>
+      </c>
+      <c r="O34">
+        <v>-0.333</v>
+      </c>
+      <c r="P34">
+        <v>-3.299999999999999</v>
+      </c>
+      <c r="Q34">
+        <v>-5.099999999999998</v>
+      </c>
+      <c r="R34">
+        <v>-0.03500000000000003</v>
+      </c>
+      <c r="S34">
+        <v>-1.9</v>
+      </c>
+      <c r="T34">
+        <v>-3.299999999999999</v>
+      </c>
+      <c r="U34">
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="V34">
+        <v>-1.2</v>
+      </c>
+      <c r="W34">
+        <v>-0.5</v>
+      </c>
+      <c r="X34">
+        <v>-1.8</v>
+      </c>
+      <c r="Y34">
+        <v>0.5</v>
+      </c>
+      <c r="Z34">
+        <v>-0.5</v>
+      </c>
+      <c r="AA34">
+        <v>-1</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
+      </c>
+      <c r="AC34">
+        <v>-0.5</v>
+      </c>
+      <c r="AD34">
+        <v>-8.800000000000001</v>
+      </c>
+      <c r="AF34">
+        <v>-12</v>
+      </c>
+      <c r="AG34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35">
+        <v>78</v>
+      </c>
+      <c r="H35">
+        <v>78</v>
+      </c>
+      <c r="I35">
+        <v>2535</v>
+      </c>
+      <c r="J35">
+        <v>11.5</v>
+      </c>
+      <c r="K35">
+        <v>23.2</v>
+      </c>
+      <c r="L35">
+        <v>0.494</v>
+      </c>
+      <c r="M35">
+        <v>0.1</v>
+      </c>
+      <c r="N35">
+        <v>0.3</v>
+      </c>
+      <c r="O35">
+        <v>0.214</v>
+      </c>
+      <c r="P35">
+        <v>11.4</v>
+      </c>
+      <c r="Q35">
+        <v>22.9</v>
+      </c>
+      <c r="R35">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="S35">
+        <v>6.3</v>
+      </c>
+      <c r="T35">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U35">
+        <v>0.765</v>
+      </c>
+      <c r="V35">
+        <v>3.2</v>
+      </c>
+      <c r="W35">
+        <v>4.5</v>
+      </c>
+      <c r="X35">
+        <v>7.8</v>
+      </c>
+      <c r="Y35">
+        <v>4.4</v>
+      </c>
+      <c r="Z35">
+        <v>2.5</v>
+      </c>
+      <c r="AA35">
+        <v>2</v>
+      </c>
+      <c r="AB35">
+        <v>3.9</v>
+      </c>
+      <c r="AC35">
+        <v>3.7</v>
+      </c>
+      <c r="AD35">
+        <v>29.3</v>
+      </c>
+      <c r="AF35">
+        <v>111</v>
+      </c>
+      <c r="AG35">
+        <v>106</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36">
+        <v>13</v>
+      </c>
+      <c r="H36">
+        <v>13</v>
+      </c>
+      <c r="I36">
+        <v>434</v>
+      </c>
+      <c r="J36">
+        <v>9.4</v>
+      </c>
+      <c r="K36">
+        <v>20.8</v>
+      </c>
+      <c r="L36">
+        <v>0.449</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0.1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>9.4</v>
+      </c>
+      <c r="Q36">
+        <v>20.7</v>
+      </c>
+      <c r="R36">
+        <v>0.452</v>
+      </c>
+      <c r="S36">
+        <v>6</v>
+      </c>
+      <c r="T36">
+        <v>7</v>
+      </c>
+      <c r="U36">
+        <v>0.857</v>
+      </c>
+      <c r="V36">
+        <v>3.2</v>
+      </c>
+      <c r="W36">
+        <v>4.9</v>
+      </c>
+      <c r="X36">
+        <v>8.1</v>
+      </c>
+      <c r="Y36">
+        <v>5.3</v>
+      </c>
+      <c r="Z36">
+        <v>2.8</v>
+      </c>
+      <c r="AA36">
+        <v>1.2</v>
+      </c>
+      <c r="AB36">
+        <v>4.1</v>
+      </c>
+      <c r="AC36">
+        <v>3.8</v>
+      </c>
+      <c r="AD36">
+        <v>24.7</v>
+      </c>
+      <c r="AF36">
+        <v>107</v>
+      </c>
+      <c r="AG36">
+        <v>105</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="I37">
+        <v>-2101</v>
+      </c>
+      <c r="J37">
+        <v>-2.1</v>
+      </c>
+      <c r="K37">
+        <v>-2.399999999999999</v>
+      </c>
+      <c r="L37">
+        <v>-0.04499999999999998</v>
+      </c>
+      <c r="M37">
+        <v>-0.1</v>
+      </c>
+      <c r="N37">
+        <v>-0.2</v>
+      </c>
+      <c r="O37">
+        <v>-0.214</v>
+      </c>
+      <c r="P37">
+        <v>-2</v>
+      </c>
+      <c r="Q37">
+        <v>-2.199999999999999</v>
+      </c>
+      <c r="R37">
+        <v>-0.04500000000000004</v>
+      </c>
+      <c r="S37">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="T37">
+        <v>-1.300000000000001</v>
+      </c>
+      <c r="U37">
+        <v>0.09199999999999997</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="X37">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="Y37">
+        <v>0.8999999999999995</v>
+      </c>
+      <c r="Z37">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="AA37">
+        <v>-0.8</v>
+      </c>
+      <c r="AB37">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="AC37">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="AD37">
+        <v>-4.600000000000001</v>
+      </c>
+      <c r="AF37">
+        <v>-4</v>
+      </c>
+      <c r="AG37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38">
+        <v>74</v>
+      </c>
+      <c r="H38">
+        <v>74</v>
+      </c>
+      <c r="I38">
+        <v>2474</v>
+      </c>
+      <c r="J38">
+        <v>10.1</v>
+      </c>
+      <c r="K38">
+        <v>20.9</v>
+      </c>
+      <c r="L38">
+        <v>0.48</v>
+      </c>
+      <c r="M38">
+        <v>0.2</v>
+      </c>
+      <c r="N38">
+        <v>0.6</v>
+      </c>
+      <c r="O38">
+        <v>0.281</v>
+      </c>
+      <c r="P38">
+        <v>9.9</v>
+      </c>
+      <c r="Q38">
+        <v>20.3</v>
+      </c>
+      <c r="R38">
+        <v>0.486</v>
+      </c>
+      <c r="S38">
+        <v>5.6</v>
+      </c>
+      <c r="T38">
+        <v>7.1</v>
+      </c>
+      <c r="U38">
+        <v>0.785</v>
+      </c>
+      <c r="V38">
+        <v>3.3</v>
+      </c>
+      <c r="W38">
+        <v>3.9</v>
+      </c>
+      <c r="X38">
+        <v>7.1</v>
+      </c>
+      <c r="Y38">
+        <v>4.8</v>
+      </c>
+      <c r="Z38">
+        <v>2.2</v>
+      </c>
+      <c r="AA38">
+        <v>1.6</v>
+      </c>
+      <c r="AB38">
+        <v>4.1</v>
+      </c>
+      <c r="AC38">
+        <v>3.8</v>
+      </c>
+      <c r="AD38">
+        <v>25.9</v>
+      </c>
+      <c r="AF38">
+        <v>108</v>
+      </c>
+      <c r="AG38">
+        <v>107</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>12</v>
+      </c>
+      <c r="I39">
+        <v>433</v>
+      </c>
+      <c r="J39">
+        <v>9.1</v>
+      </c>
+      <c r="K39">
+        <v>20.3</v>
+      </c>
+      <c r="L39">
+        <v>0.45</v>
+      </c>
+      <c r="M39">
+        <v>0.2</v>
+      </c>
+      <c r="N39">
+        <v>1.2</v>
+      </c>
+      <c r="O39">
+        <v>0.182</v>
+      </c>
+      <c r="P39">
+        <v>8.9</v>
+      </c>
+      <c r="Q39">
+        <v>19.1</v>
+      </c>
+      <c r="R39">
+        <v>0.467</v>
+      </c>
+      <c r="S39">
+        <v>5.4</v>
+      </c>
+      <c r="T39">
+        <v>7.3</v>
+      </c>
+      <c r="U39">
+        <v>0.738</v>
+      </c>
+      <c r="V39">
+        <v>2.9</v>
+      </c>
+      <c r="W39">
+        <v>5</v>
+      </c>
+      <c r="X39">
+        <v>7.9</v>
+      </c>
+      <c r="Y39">
+        <v>5.6</v>
+      </c>
+      <c r="Z39">
+        <v>1.2</v>
+      </c>
+      <c r="AA39">
+        <v>1.8</v>
+      </c>
+      <c r="AB39">
+        <v>4.4</v>
+      </c>
+      <c r="AC39">
+        <v>3.6</v>
+      </c>
+      <c r="AD39">
+        <v>23.9</v>
+      </c>
+      <c r="AF39">
+        <v>104</v>
+      </c>
+      <c r="AG39">
+        <v>110</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="I40">
+        <v>-2041</v>
+      </c>
+      <c r="J40">
+        <v>-1</v>
+      </c>
+      <c r="K40">
+        <v>-0.5999999999999979</v>
+      </c>
+      <c r="L40">
+        <v>-0.02999999999999997</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0.6</v>
+      </c>
+      <c r="O40">
+        <v>-0.09900000000000003</v>
+      </c>
+      <c r="P40">
+        <v>-1</v>
+      </c>
+      <c r="Q40">
+        <v>-1.199999999999999</v>
+      </c>
+      <c r="R40">
+        <v>-0.01899999999999996</v>
+      </c>
+      <c r="S40">
+        <v>-0.1999999999999993</v>
+      </c>
+      <c r="T40">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="U40">
+        <v>-0.04700000000000004</v>
+      </c>
+      <c r="V40">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="W40">
+        <v>1.1</v>
+      </c>
+      <c r="X40">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="Y40">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="Z40">
+        <v>-1</v>
+      </c>
+      <c r="AA40">
+        <v>0.2</v>
+      </c>
+      <c r="AB40">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="AC40">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="AD40">
+        <v>-2</v>
+      </c>
+      <c r="AF40">
+        <v>-4</v>
+      </c>
+      <c r="AG40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41">
+        <v>60</v>
+      </c>
+      <c r="H41">
+        <v>60</v>
+      </c>
+      <c r="I41">
+        <v>1918</v>
+      </c>
+      <c r="J41">
+        <v>10.3</v>
+      </c>
+      <c r="K41">
+        <v>21.9</v>
+      </c>
+      <c r="L41">
+        <v>0.471</v>
+      </c>
+      <c r="M41">
+        <v>0.4</v>
+      </c>
+      <c r="N41">
+        <v>1.4</v>
+      </c>
+      <c r="O41">
+        <v>0.264</v>
+      </c>
+      <c r="P41">
+        <v>9.9</v>
+      </c>
+      <c r="Q41">
+        <v>20.5</v>
+      </c>
+      <c r="R41">
+        <v>0.484</v>
+      </c>
+      <c r="S41">
+        <v>4.9</v>
+      </c>
+      <c r="T41">
+        <v>6</v>
+      </c>
+      <c r="U41">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="V41">
+        <v>3</v>
+      </c>
+      <c r="W41">
+        <v>3.8</v>
+      </c>
+      <c r="X41">
+        <v>6.8</v>
+      </c>
+      <c r="Y41">
+        <v>4.9</v>
+      </c>
+      <c r="Z41">
+        <v>2</v>
+      </c>
+      <c r="AA41">
+        <v>2.4</v>
+      </c>
+      <c r="AB41">
+        <v>4.1</v>
+      </c>
+      <c r="AC41">
+        <v>3.5</v>
+      </c>
+      <c r="AD41">
+        <v>25.8</v>
+      </c>
+      <c r="AF41">
+        <v>106</v>
+      </c>
+      <c r="AG41">
+        <v>109</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>180</v>
+      </c>
+      <c r="J42">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K42">
+        <v>22.2</v>
+      </c>
+      <c r="L42">
+        <v>0.415</v>
+      </c>
+      <c r="M42">
+        <v>0.5</v>
+      </c>
+      <c r="N42">
+        <v>1.6</v>
+      </c>
+      <c r="O42">
+        <v>0.333</v>
+      </c>
+      <c r="P42">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Q42">
+        <v>20.5</v>
+      </c>
+      <c r="R42">
+        <v>0.421</v>
+      </c>
+      <c r="S42">
+        <v>5.7</v>
+      </c>
+      <c r="T42">
+        <v>6.8</v>
+      </c>
+      <c r="U42">
+        <v>0.84</v>
+      </c>
+      <c r="V42">
+        <v>3.8</v>
+      </c>
+      <c r="W42">
+        <v>3</v>
+      </c>
+      <c r="X42">
+        <v>6.8</v>
+      </c>
+      <c r="Y42">
+        <v>4.6</v>
+      </c>
+      <c r="Z42">
+        <v>1.9</v>
+      </c>
+      <c r="AA42">
+        <v>1.6</v>
+      </c>
+      <c r="AB42">
+        <v>2.4</v>
+      </c>
+      <c r="AC42">
+        <v>5.1</v>
+      </c>
+      <c r="AD42">
+        <v>24.6</v>
+      </c>
+      <c r="AF42">
+        <v>111</v>
+      </c>
+      <c r="AG42">
+        <v>114</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="I43">
+        <v>-1738</v>
+      </c>
+      <c r="J43">
+        <v>-1.100000000000001</v>
+      </c>
+      <c r="K43">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="L43">
+        <v>-0.05600000000000005</v>
+      </c>
+      <c r="M43">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="N43">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="O43">
+        <v>0.06899999999999995</v>
+      </c>
+      <c r="P43">
+        <v>-1.200000000000001</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>-0.06299999999999994</v>
+      </c>
+      <c r="S43">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="T43">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="U43">
+        <v>0.02700000000000002</v>
+      </c>
+      <c r="V43">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="W43">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="Z43">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AA43">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="AB43">
+        <v>-1.7</v>
+      </c>
+      <c r="AC43">
+        <v>1.6</v>
+      </c>
+      <c r="AD43">
+        <v>-1.199999999999999</v>
+      </c>
+      <c r="AF43">
+        <v>5</v>
+      </c>
+      <c r="AG43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44">
+        <v>252</v>
+      </c>
+      <c r="I44">
+        <v>10044</v>
+      </c>
+      <c r="J44">
+        <v>12.7</v>
+      </c>
+      <c r="K44">
+        <v>24.9</v>
+      </c>
+      <c r="L44">
+        <v>0.508</v>
+      </c>
+      <c r="M44">
+        <v>0.4</v>
+      </c>
+      <c r="N44">
+        <v>1.1</v>
+      </c>
+      <c r="O44">
+        <v>0.343</v>
+      </c>
+      <c r="P44">
+        <v>12.3</v>
+      </c>
+      <c r="Q44">
+        <v>23.9</v>
+      </c>
+      <c r="R44">
+        <v>0.516</v>
+      </c>
+      <c r="S44">
+        <v>6.7</v>
+      </c>
+      <c r="T44">
+        <v>8.5</v>
+      </c>
+      <c r="U44">
+        <v>0.789</v>
+      </c>
+      <c r="V44">
+        <v>4</v>
+      </c>
+      <c r="W44">
+        <v>8.5</v>
+      </c>
+      <c r="X44">
+        <v>12.5</v>
+      </c>
+      <c r="Y44">
+        <v>6</v>
+      </c>
+      <c r="Z44">
+        <v>2.7</v>
+      </c>
+      <c r="AA44">
+        <v>2.4</v>
+      </c>
+      <c r="AB44">
+        <v>4.3</v>
+      </c>
+      <c r="AC44">
+        <v>3.4</v>
+      </c>
+      <c r="AD44">
+        <v>32.4</v>
+      </c>
+      <c r="AF44">
+        <v>113</v>
+      </c>
+      <c r="AG44">
+        <v>96</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45">
+        <v>32</v>
+      </c>
+      <c r="I45">
+        <v>1341</v>
+      </c>
+      <c r="J45">
+        <v>13.2</v>
+      </c>
+      <c r="K45">
+        <v>25.4</v>
+      </c>
+      <c r="L45">
+        <v>0.518</v>
+      </c>
+      <c r="M45">
+        <v>0.3</v>
+      </c>
+      <c r="N45">
+        <v>1.2</v>
+      </c>
+      <c r="O45">
+        <v>0.273</v>
+      </c>
+      <c r="P45">
+        <v>12.8</v>
+      </c>
+      <c r="Q45">
+        <v>24.2</v>
+      </c>
+      <c r="R45">
+        <v>0.53</v>
+      </c>
+      <c r="S45">
+        <v>7.6</v>
+      </c>
+      <c r="T45">
+        <v>9.6</v>
+      </c>
+      <c r="U45">
+        <v>0.789</v>
+      </c>
+      <c r="V45">
+        <v>4.2</v>
+      </c>
+      <c r="W45">
+        <v>8</v>
+      </c>
+      <c r="X45">
+        <v>12.2</v>
+      </c>
+      <c r="Y45">
+        <v>5.6</v>
+      </c>
+      <c r="Z45">
+        <v>1.8</v>
+      </c>
+      <c r="AA45">
+        <v>1.9</v>
+      </c>
+      <c r="AB45">
+        <v>3.8</v>
+      </c>
+      <c r="AC45">
+        <v>3.5</v>
+      </c>
+      <c r="AD45">
+        <v>34.2</v>
+      </c>
+      <c r="AF45">
+        <v>118</v>
+      </c>
+      <c r="AG45">
+        <v>100</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="I46">
+        <v>-8703</v>
+      </c>
+      <c r="J46">
+        <v>0.5</v>
+      </c>
+      <c r="K46">
+        <v>0.5</v>
+      </c>
+      <c r="L46">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="M46">
+        <v>-0.1</v>
+      </c>
+      <c r="N46">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="O46">
+        <v>-0.06999999999999995</v>
+      </c>
+      <c r="P46">
+        <v>0.5</v>
+      </c>
+      <c r="Q46">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="R46">
+        <v>0.01400000000000001</v>
+      </c>
+      <c r="S46">
+        <v>0.8999999999999995</v>
+      </c>
+      <c r="T46">
+        <v>1.1</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="W46">
+        <v>-0.5</v>
+      </c>
+      <c r="X46">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="Y46">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="Z46">
+        <v>-0.9000000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>-0.5</v>
+      </c>
+      <c r="AB46">
+        <v>-0.5</v>
+      </c>
+      <c r="AC46">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AD46">
+        <v>1.800000000000004</v>
+      </c>
+      <c r="AF46">
+        <v>5</v>
+      </c>
+      <c r="AG46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47">
+        <v>836</v>
+      </c>
+      <c r="H47">
+        <v>823</v>
+      </c>
+      <c r="I47">
+        <v>28677</v>
+      </c>
+      <c r="J47">
+        <v>11.8</v>
+      </c>
+      <c r="K47">
+        <v>23.2</v>
+      </c>
+      <c r="L47">
+        <v>0.507</v>
+      </c>
+      <c r="M47">
+        <v>0.1</v>
+      </c>
+      <c r="N47">
+        <v>0.4</v>
+      </c>
+      <c r="O47">
+        <v>0.261</v>
+      </c>
+      <c r="P47">
+        <v>11.7</v>
+      </c>
+      <c r="Q47">
+        <v>22.9</v>
+      </c>
+      <c r="R47">
+        <v>0.51</v>
+      </c>
+      <c r="S47">
+        <v>6.2</v>
+      </c>
+      <c r="T47">
+        <v>8</v>
+      </c>
+      <c r="U47">
+        <v>0.777</v>
+      </c>
+      <c r="V47">
+        <v>3.4</v>
+      </c>
+      <c r="W47">
+        <v>5.7</v>
+      </c>
+      <c r="X47">
+        <v>9.1</v>
+      </c>
+      <c r="Y47">
+        <v>5.2</v>
+      </c>
+      <c r="Z47">
+        <v>2.4</v>
+      </c>
+      <c r="AA47">
+        <v>2.1</v>
+      </c>
+      <c r="AB47">
+        <v>3.8</v>
+      </c>
+      <c r="AC47">
+        <v>3.7</v>
+      </c>
+      <c r="AD47">
+        <v>29.8</v>
+      </c>
+      <c r="AF47">
+        <v>111</v>
+      </c>
+      <c r="AG47">
+        <v>101</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48">
+        <v>141</v>
+      </c>
+      <c r="H48">
+        <v>30</v>
+      </c>
+      <c r="I48">
+        <v>5288</v>
+      </c>
+      <c r="J48">
+        <v>10.7</v>
+      </c>
+      <c r="K48">
+        <v>21.9</v>
+      </c>
+      <c r="L48">
+        <v>0.486</v>
+      </c>
+      <c r="M48">
+        <v>0.1</v>
+      </c>
+      <c r="N48">
+        <v>0.5</v>
+      </c>
+      <c r="O48">
+        <v>0.194</v>
+      </c>
+      <c r="P48">
+        <v>10.6</v>
+      </c>
+      <c r="Q48">
+        <v>21.6</v>
+      </c>
+      <c r="R48">
+        <v>0.491</v>
+      </c>
+      <c r="S48">
+        <v>6.4</v>
+      </c>
+      <c r="T48">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U48">
+        <v>0.779</v>
+      </c>
+      <c r="V48">
+        <v>3.2</v>
+      </c>
+      <c r="W48">
+        <v>5.7</v>
+      </c>
+      <c r="X48">
+        <v>8.9</v>
+      </c>
+      <c r="Y48">
+        <v>5.3</v>
+      </c>
+      <c r="Z48">
+        <v>2.1</v>
+      </c>
+      <c r="AA48">
+        <v>2.1</v>
+      </c>
+      <c r="AB48">
+        <v>3.6</v>
+      </c>
+      <c r="AC48">
+        <v>3.6</v>
+      </c>
+      <c r="AD48">
+        <v>27.8</v>
+      </c>
+      <c r="AF48">
+        <v>107</v>
+      </c>
+      <c r="AG48">
+        <v>103</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="I49">
+        <v>-23389</v>
+      </c>
+      <c r="J49">
+        <v>-1.100000000000001</v>
+      </c>
+      <c r="K49">
+        <v>-1.300000000000001</v>
+      </c>
+      <c r="L49">
+        <v>-0.02100000000000002</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="O49">
+        <v>-0.06700000000000003</v>
+      </c>
+      <c r="P49">
+        <v>-1.1</v>
+      </c>
+      <c r="Q49">
+        <v>-1.299999999999997</v>
+      </c>
+      <c r="R49">
+        <v>-0.01900000000000002</v>
+      </c>
+      <c r="S49">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="T49">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="U49">
+        <v>0.002000000000000002</v>
+      </c>
+      <c r="V49">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-0.1999999999999993</v>
+      </c>
+      <c r="Y49">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="Z49">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="AC49">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AD49">
+        <v>-2</v>
+      </c>
+      <c r="AF49">
+        <v>-4</v>
+      </c>
+      <c r="AG49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50">
+        <v>1088</v>
+      </c>
+      <c r="H50">
+        <v>823</v>
+      </c>
+      <c r="I50">
+        <v>38721</v>
+      </c>
+      <c r="J50">
+        <v>12</v>
+      </c>
+      <c r="K50">
+        <v>23.6</v>
+      </c>
+      <c r="L50">
+        <v>0.507</v>
+      </c>
+      <c r="M50">
+        <v>0.2</v>
+      </c>
+      <c r="N50">
+        <v>0.6</v>
+      </c>
+      <c r="O50">
+        <v>0.308</v>
+      </c>
+      <c r="P50">
+        <v>11.8</v>
+      </c>
+      <c r="Q50">
+        <v>23.2</v>
+      </c>
+      <c r="R50">
+        <v>0.512</v>
+      </c>
+      <c r="S50">
+        <v>6.4</v>
+      </c>
+      <c r="T50">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U50">
+        <v>0.78</v>
+      </c>
+      <c r="V50">
+        <v>3.5</v>
+      </c>
+      <c r="W50">
+        <v>6.5</v>
+      </c>
+      <c r="X50">
+        <v>10</v>
+      </c>
+      <c r="Y50">
+        <v>5.4</v>
+      </c>
+      <c r="Z50">
+        <v>2.5</v>
+      </c>
+      <c r="AA50">
+        <v>2.2</v>
+      </c>
+      <c r="AB50">
+        <v>3.9</v>
+      </c>
+      <c r="AC50">
+        <v>3.6</v>
+      </c>
+      <c r="AD50">
+        <v>30.5</v>
+      </c>
+      <c r="AF50">
+        <v>112</v>
+      </c>
+      <c r="AG50">
+        <v>100</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51">
+        <v>173</v>
+      </c>
+      <c r="H51">
+        <v>30</v>
+      </c>
+      <c r="I51">
+        <v>6629</v>
+      </c>
+      <c r="J51">
+        <v>11.2</v>
+      </c>
+      <c r="K51">
+        <v>22.6</v>
+      </c>
+      <c r="L51">
+        <v>0.494</v>
+      </c>
+      <c r="M51">
+        <v>0.2</v>
+      </c>
+      <c r="N51">
+        <v>0.6</v>
+      </c>
+      <c r="O51">
+        <v>0.232</v>
+      </c>
+      <c r="P51">
+        <v>11.1</v>
+      </c>
+      <c r="Q51">
+        <v>22.2</v>
+      </c>
+      <c r="R51">
+        <v>0.499</v>
+      </c>
+      <c r="S51">
+        <v>6.6</v>
+      </c>
+      <c r="T51">
+        <v>8.5</v>
+      </c>
+      <c r="U51">
+        <v>0.7809999999999999</v>
+      </c>
+      <c r="V51">
+        <v>3.4</v>
+      </c>
+      <c r="W51">
+        <v>6.2</v>
+      </c>
+      <c r="X51">
+        <v>9.6</v>
+      </c>
+      <c r="Y51">
+        <v>5.4</v>
+      </c>
+      <c r="Z51">
+        <v>2.1</v>
+      </c>
+      <c r="AA51">
+        <v>2.1</v>
+      </c>
+      <c r="AB51">
+        <v>3.6</v>
+      </c>
+      <c r="AC51">
+        <v>3.6</v>
+      </c>
+      <c r="AD51">
+        <v>29.1</v>
+      </c>
+      <c r="AF51">
+        <v>110</v>
+      </c>
+      <c r="AG51">
+        <v>102</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="I52">
+        <v>-32092</v>
+      </c>
+      <c r="J52">
+        <v>-0.8000000000000007</v>
+      </c>
+      <c r="K52">
+        <v>-1</v>
+      </c>
+      <c r="L52">
+        <v>-0.01300000000000001</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>-0.07600000000000001</v>
+      </c>
+      <c r="P52">
+        <v>-0.7000000000000011</v>
+      </c>
+      <c r="Q52">
+        <v>-1</v>
+      </c>
+      <c r="R52">
+        <v>-0.01300000000000001</v>
+      </c>
+      <c r="S52">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="T52">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="U52">
+        <v>0.0009999999999998899</v>
+      </c>
+      <c r="V52">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="W52">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="X52">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="AA52">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AB52">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>-1.399999999999999</v>
+      </c>
+      <c r="AF52">
+        <v>-2</v>
+      </c>
+      <c r="AG52">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5962,70 +15671,70 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>30</v>

--- a/output/ervinju01.xlsx
+++ b/output/ervinju01.xlsx
@@ -25,7 +25,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Tm</t>
+    <t>Team</t>
   </si>
   <si>
     <t>Lg</t>
@@ -948,9 +948,6 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
       <c r="J4">
         <v>2.6</v>
       </c>
@@ -1059,7 +1056,7 @@
         <v>0.499</v>
       </c>
       <c r="S5">
-        <v>0.4970000000000001</v>
+        <v>0.497</v>
       </c>
       <c r="T5">
         <v>6.7</v>
@@ -1068,7 +1065,7 @@
         <v>8.6</v>
       </c>
       <c r="V5">
-        <v>0.7759999999999999</v>
+        <v>0.776</v>
       </c>
       <c r="W5">
         <v>3.7</v>
@@ -1194,9 +1191,6 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="I7">
-        <v>1.599999999999994</v>
-      </c>
       <c r="J7">
         <v>-0.7999999999999989</v>
       </c>
@@ -1225,7 +1219,7 @@
         <v>0.04200000000000004</v>
       </c>
       <c r="S7">
-        <v>0.02999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="T7">
         <v>-0.7000000000000002</v>
@@ -1234,7 +1228,7 @@
         <v>-0.5999999999999996</v>
       </c>
       <c r="V7">
-        <v>-0.02599999999999991</v>
+        <v>-0.02600000000000002</v>
       </c>
       <c r="W7">
         <v>-0.9000000000000004</v>
@@ -1320,7 +1314,7 @@
         <v>7.1</v>
       </c>
       <c r="V8">
-        <v>0.7659999999999999</v>
+        <v>0.766</v>
       </c>
       <c r="W8">
         <v>3.1</v>
@@ -1452,9 +1446,6 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="I10">
-        <v>0.8999999999999986</v>
-      </c>
       <c r="J10">
         <v>0.5999999999999996</v>
       </c>
@@ -1492,7 +1483,7 @@
         <v>-1</v>
       </c>
       <c r="V10">
-        <v>-0.02499999999999991</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1679,7 +1670,7 @@
         <v>6.4</v>
       </c>
       <c r="V12">
-        <v>0.8440000000000001</v>
+        <v>0.844</v>
       </c>
       <c r="W12">
         <v>2.4</v>
@@ -1716,9 +1707,6 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="I13">
-        <v>1.700000000000003</v>
-      </c>
       <c r="J13">
         <v>0.09999999999999964</v>
       </c>
@@ -1744,7 +1732,7 @@
         <v>2.100000000000001</v>
       </c>
       <c r="R13">
-        <v>-0.02799999999999997</v>
+        <v>-0.02800000000000002</v>
       </c>
       <c r="S13">
         <v>-0.059</v>
@@ -1756,7 +1744,7 @@
         <v>-0.7999999999999998</v>
       </c>
       <c r="V13">
-        <v>0.04500000000000004</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1848,7 +1836,7 @@
         <v>7.9</v>
       </c>
       <c r="V14">
-        <v>0.8009999999999999</v>
+        <v>0.801</v>
       </c>
       <c r="W14">
         <v>4</v>
@@ -1913,7 +1901,7 @@
         <v>23.1</v>
       </c>
       <c r="L15">
-        <v>0.5329999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="M15">
         <v>0.3</v>
@@ -1980,9 +1968,6 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="I16">
-        <v>3.799999999999997</v>
-      </c>
       <c r="J16">
         <v>1</v>
       </c>
@@ -1990,7 +1975,7 @@
         <v>0.8000000000000007</v>
       </c>
       <c r="L16">
-        <v>0.02599999999999991</v>
+        <v>0.02600000000000002</v>
       </c>
       <c r="M16">
         <v>-0.1</v>
@@ -1999,7 +1984,7 @@
         <v>-0.09999999999999987</v>
       </c>
       <c r="O16">
-        <v>-0.04399999999999998</v>
+        <v>-0.04400000000000004</v>
       </c>
       <c r="P16">
         <v>1.1</v>
@@ -2020,7 +2005,7 @@
         <v>4.299999999999999</v>
       </c>
       <c r="V16">
-        <v>0.003000000000000114</v>
+        <v>0.003000000000000003</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -2223,9 +2208,6 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
       <c r="J19">
         <v>2.299999999999999</v>
       </c>
@@ -2460,9 +2442,6 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
       <c r="J22">
         <v>0.5</v>
       </c>
@@ -2663,7 +2642,7 @@
         <v>7.4</v>
       </c>
       <c r="V24">
-        <v>0.7609999999999999</v>
+        <v>0.761</v>
       </c>
       <c r="W24">
         <v>3.2</v>
@@ -2700,9 +2679,6 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="I25">
-        <v>5.399999999999999</v>
-      </c>
       <c r="J25">
         <v>0.7000000000000011</v>
       </c>
@@ -2731,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="V25">
-        <v>0.0159999999999999</v>
+        <v>0.01600000000000001</v>
       </c>
       <c r="W25">
         <v>0.7000000000000002</v>
@@ -2958,9 +2934,6 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="I28">
-        <v>2.5</v>
-      </c>
       <c r="J28">
         <v>-1.5</v>
       </c>
@@ -3225,9 +3198,6 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
       <c r="J31">
         <v>-0.7999999999999989</v>
       </c>
@@ -3253,7 +3223,7 @@
         <v>0.4000000000000021</v>
       </c>
       <c r="R31">
-        <v>-0.04799999999999999</v>
+        <v>-0.04800000000000004</v>
       </c>
       <c r="S31">
         <v>-0.04700000000000004</v>
@@ -3348,7 +3318,7 @@
         <v>17.5</v>
       </c>
       <c r="R32">
-        <v>0.5479999999999999</v>
+        <v>0.548</v>
       </c>
       <c r="S32">
         <v>0.547</v>
@@ -3492,9 +3462,6 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="I34">
-        <v>2.700000000000003</v>
-      </c>
       <c r="J34">
         <v>-1.6</v>
       </c>
@@ -3520,7 +3487,7 @@
         <v>-2.4</v>
       </c>
       <c r="R34">
-        <v>-0.02299999999999991</v>
+        <v>-0.02300000000000002</v>
       </c>
       <c r="S34">
         <v>-0.02700000000000002</v>
@@ -3759,9 +3726,6 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="I37">
-        <v>4.299999999999997</v>
-      </c>
       <c r="J37">
         <v>-1.100000000000001</v>
       </c>
@@ -3989,7 +3953,7 @@
         <v>4.4</v>
       </c>
       <c r="V39">
-        <v>0.8640000000000001</v>
+        <v>0.864</v>
       </c>
       <c r="W39">
         <v>1.8</v>
@@ -4026,9 +3990,6 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="I40">
-        <v>4</v>
-      </c>
       <c r="J40">
         <v>-1.600000000000001</v>
       </c>
@@ -4066,7 +4027,7 @@
         <v>-1.899999999999999</v>
       </c>
       <c r="V40">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="W40">
         <v>-0.7</v>
@@ -4149,7 +4110,7 @@
         <v>15.7</v>
       </c>
       <c r="R41">
-        <v>0.4970000000000001</v>
+        <v>0.497</v>
       </c>
       <c r="S41">
         <v>0.495</v>
@@ -4296,9 +4257,6 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="I43">
-        <v>0.8999999999999986</v>
-      </c>
       <c r="J43">
         <v>-1.3</v>
       </c>
@@ -4324,7 +4282,7 @@
         <v>-1.399999999999999</v>
       </c>
       <c r="R43">
-        <v>-0.04500000000000004</v>
+        <v>-0.04499999999999998</v>
       </c>
       <c r="S43">
         <v>-0.04599999999999999</v>
@@ -4566,9 +4524,6 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="I46">
-        <v>2.700000000000003</v>
-      </c>
       <c r="J46">
         <v>-0.2000000000000002</v>
       </c>
@@ -4836,9 +4791,6 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="I49">
-        <v>4</v>
-      </c>
       <c r="J49">
         <v>0.09999999999999964</v>
       </c>
@@ -4846,7 +4798,7 @@
         <v>2.199999999999999</v>
       </c>
       <c r="L49">
-        <v>-0.05600000000000005</v>
+        <v>-0.05599999999999999</v>
       </c>
       <c r="M49">
         <v>0.2</v>
@@ -4855,7 +4807,7 @@
         <v>0.2999999999999999</v>
       </c>
       <c r="O49">
-        <v>0.06899999999999995</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -4864,10 +4816,10 @@
         <v>1.899999999999999</v>
       </c>
       <c r="R49">
-        <v>-0.06299999999999994</v>
+        <v>-0.063</v>
       </c>
       <c r="S49">
-        <v>-0.05199999999999994</v>
+        <v>-0.05199999999999999</v>
       </c>
       <c r="T49">
         <v>1</v>
@@ -5088,9 +5040,6 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="I52">
-        <v>2</v>
-      </c>
       <c r="J52">
         <v>0.8000000000000007</v>
       </c>
@@ -5107,7 +5056,7 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="O52">
-        <v>-0.06999999999999995</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="P52">
         <v>0.8000000000000007</v>
@@ -5346,9 +5295,6 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="I55">
-        <v>3.200000000000003</v>
-      </c>
       <c r="J55">
         <v>-0.2999999999999989</v>
       </c>
@@ -5365,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <v>-0.06700000000000003</v>
+        <v>-0.067</v>
       </c>
       <c r="P55">
         <v>-0.1999999999999993</v>
@@ -5442,7 +5388,7 @@
         <v>23.4</v>
       </c>
       <c r="L56">
-        <v>0.4970000000000001</v>
+        <v>0.497</v>
       </c>
       <c r="M56">
         <v>0.1</v>
@@ -5561,7 +5507,7 @@
         <v>7.8</v>
       </c>
       <c r="V57">
-        <v>0.8079999999999999</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="W57">
         <v>2.8</v>
@@ -5592,9 +5538,6 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="I58">
-        <v>3.200000000000003</v>
-      </c>
       <c r="J58">
         <v>1.300000000000001</v>
       </c>
@@ -5602,7 +5545,7 @@
         <v>1.400000000000002</v>
       </c>
       <c r="L58">
-        <v>0.02299999999999996</v>
+        <v>0.02300000000000002</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -5611,7 +5554,7 @@
         <v>0.1</v>
       </c>
       <c r="O58">
-        <v>-0.057</v>
+        <v>-0.05700000000000002</v>
       </c>
       <c r="P58">
         <v>1.200000000000001</v>
@@ -5632,7 +5575,7 @@
         <v>-0.2000000000000002</v>
       </c>
       <c r="V58">
-        <v>0.04799999999999993</v>
+        <v>0.04800000000000004</v>
       </c>
       <c r="W58">
         <v>-2</v>
@@ -5838,9 +5781,6 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="I61">
-        <v>2.5</v>
-      </c>
       <c r="J61">
         <v>-0.09999999999999964</v>
       </c>
@@ -5857,7 +5797,7 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="O61">
-        <v>-0.07400000000000001</v>
+        <v>-0.07399999999999998</v>
       </c>
       <c r="P61">
         <v>-0.09999999999999964</v>
@@ -6183,9 +6123,6 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>-3009</v>
-      </c>
       <c r="J4">
         <v>1.199999999999999</v>
       </c>
@@ -6297,7 +6234,7 @@
         <v>7.4</v>
       </c>
       <c r="U5">
-        <v>0.7759999999999999</v>
+        <v>0.776</v>
       </c>
       <c r="V5">
         <v>3.2</v>
@@ -6420,9 +6357,6 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="I7">
-        <v>-2774</v>
-      </c>
       <c r="J7">
         <v>-1.100000000000001</v>
       </c>
@@ -6457,7 +6391,7 @@
         <v>-0.8000000000000007</v>
       </c>
       <c r="U7">
-        <v>-0.02599999999999991</v>
+        <v>-0.02600000000000002</v>
       </c>
       <c r="V7">
         <v>-0.9000000000000004</v>
@@ -6540,7 +6474,7 @@
         <v>6.3</v>
       </c>
       <c r="U8">
-        <v>0.7659999999999999</v>
+        <v>0.766</v>
       </c>
       <c r="V8">
         <v>2.8</v>
@@ -6669,9 +6603,6 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="I10">
-        <v>-2819</v>
-      </c>
       <c r="J10">
         <v>0.3000000000000007</v>
       </c>
@@ -6706,7 +6637,7 @@
         <v>-1</v>
       </c>
       <c r="U10">
-        <v>-0.02499999999999991</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="V10">
         <v>-0.09999999999999964</v>
@@ -6887,7 +6818,7 @@
         <v>5.5</v>
       </c>
       <c r="U12">
-        <v>0.8440000000000001</v>
+        <v>0.844</v>
       </c>
       <c r="V12">
         <v>2</v>
@@ -6924,9 +6855,6 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="I13">
-        <v>-3191</v>
-      </c>
       <c r="J13">
         <v>-0.2999999999999989</v>
       </c>
@@ -6952,7 +6880,7 @@
         <v>1.100000000000001</v>
       </c>
       <c r="R13">
-        <v>-0.02799999999999997</v>
+        <v>-0.02800000000000002</v>
       </c>
       <c r="S13">
         <v>-0.5</v>
@@ -6961,7 +6889,7 @@
         <v>-0.9000000000000004</v>
       </c>
       <c r="U13">
-        <v>0.04500000000000004</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="V13">
         <v>-1</v>
@@ -7050,7 +6978,7 @@
         <v>7.3</v>
       </c>
       <c r="U14">
-        <v>0.8009999999999999</v>
+        <v>0.801</v>
       </c>
       <c r="V14">
         <v>3.7</v>
@@ -7115,7 +7043,7 @@
         <v>19.6</v>
       </c>
       <c r="L15">
-        <v>0.5329999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="M15">
         <v>0.3</v>
@@ -7179,9 +7107,6 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="I16">
-        <v>-2693</v>
-      </c>
       <c r="J16">
         <v>0</v>
       </c>
@@ -7189,7 +7114,7 @@
         <v>-1.199999999999999</v>
       </c>
       <c r="L16">
-        <v>0.02599999999999991</v>
+        <v>0.02600000000000002</v>
       </c>
       <c r="M16">
         <v>-0.1</v>
@@ -7198,7 +7123,7 @@
         <v>-0.2000000000000001</v>
       </c>
       <c r="O16">
-        <v>-0.04399999999999998</v>
+        <v>-0.04400000000000004</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -7216,7 +7141,7 @@
         <v>3.000000000000001</v>
       </c>
       <c r="U16">
-        <v>0.003000000000000114</v>
+        <v>0.003000000000000003</v>
       </c>
       <c r="V16">
         <v>0.5</v>
@@ -7413,9 +7338,6 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="I19">
-        <v>-2182</v>
-      </c>
       <c r="J19">
         <v>1.299999999999999</v>
       </c>
@@ -7641,9 +7563,6 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="I22">
-        <v>-2071</v>
-      </c>
       <c r="J22">
         <v>-0.2999999999999989</v>
       </c>
@@ -7835,7 +7754,7 @@
         <v>6.5</v>
       </c>
       <c r="U24">
-        <v>0.7609999999999999</v>
+        <v>0.761</v>
       </c>
       <c r="V24">
         <v>2.8</v>
@@ -7872,9 +7791,6 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="I25">
-        <v>-2430</v>
-      </c>
       <c r="J25">
         <v>-0.5999999999999996</v>
       </c>
@@ -7900,7 +7816,7 @@
         <v>0.09999999999999964</v>
       </c>
       <c r="U25">
-        <v>0.0159999999999999</v>
+        <v>0.01600000000000001</v>
       </c>
       <c r="V25">
         <v>0.2999999999999998</v>
@@ -8121,9 +8037,6 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="I28">
-        <v>-2118</v>
-      </c>
       <c r="J28">
         <v>-2.1</v>
       </c>
@@ -8379,9 +8292,6 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="I31">
-        <v>-2282</v>
-      </c>
       <c r="J31">
         <v>-1.200000000000001</v>
       </c>
@@ -8407,7 +8317,7 @@
         <v>-0.6999999999999993</v>
       </c>
       <c r="R31">
-        <v>-0.04799999999999999</v>
+        <v>-0.04800000000000004</v>
       </c>
       <c r="S31">
         <v>-0.3999999999999995</v>
@@ -8499,7 +8409,7 @@
         <v>18.3</v>
       </c>
       <c r="R32">
-        <v>0.5479999999999999</v>
+        <v>0.548</v>
       </c>
       <c r="S32">
         <v>5.3</v>
@@ -8637,9 +8547,6 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="I34">
-        <v>-2009</v>
-      </c>
       <c r="J34">
         <v>-2.3</v>
       </c>
@@ -8665,7 +8572,7 @@
         <v>-3.600000000000001</v>
       </c>
       <c r="R34">
-        <v>-0.02299999999999991</v>
+        <v>-0.02300000000000002</v>
       </c>
       <c r="S34">
         <v>0.4000000000000004</v>
@@ -8895,9 +8802,6 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="I37">
-        <v>-1928</v>
-      </c>
       <c r="J37">
         <v>-2.1</v>
       </c>
@@ -9116,7 +9020,7 @@
         <v>4.1</v>
       </c>
       <c r="U39">
-        <v>0.8640000000000001</v>
+        <v>0.864</v>
       </c>
       <c r="V39">
         <v>1.7</v>
@@ -9153,9 +9057,6 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="I40">
-        <v>-2489</v>
-      </c>
       <c r="J40">
         <v>-2.399999999999999</v>
       </c>
@@ -9190,7 +9091,7 @@
         <v>-2.4</v>
       </c>
       <c r="U40">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="V40">
         <v>-0.8</v>
@@ -9273,7 +9174,7 @@
         <v>17.4</v>
       </c>
       <c r="R41">
-        <v>0.4970000000000001</v>
+        <v>0.497</v>
       </c>
       <c r="S41">
         <v>4.8</v>
@@ -9414,9 +9315,6 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="I43">
-        <v>-2101</v>
-      </c>
       <c r="J43">
         <v>-1.699999999999999</v>
       </c>
@@ -9442,7 +9340,7 @@
         <v>-1.999999999999998</v>
       </c>
       <c r="R43">
-        <v>-0.04500000000000004</v>
+        <v>-0.04499999999999998</v>
       </c>
       <c r="S43">
         <v>-0.2999999999999998</v>
@@ -9675,9 +9573,6 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="I46">
-        <v>-2041</v>
-      </c>
       <c r="J46">
         <v>-0.8999999999999995</v>
       </c>
@@ -9936,9 +9831,6 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="I49">
-        <v>-1738</v>
-      </c>
       <c r="J49">
         <v>-0.7000000000000002</v>
       </c>
@@ -9946,7 +9838,7 @@
         <v>0.3999999999999986</v>
       </c>
       <c r="L49">
-        <v>-0.05600000000000005</v>
+        <v>-0.05599999999999999</v>
       </c>
       <c r="M49">
         <v>0.1</v>
@@ -9955,7 +9847,7 @@
         <v>0.2</v>
       </c>
       <c r="O49">
-        <v>0.06899999999999995</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="P49">
         <v>-0.7999999999999998</v>
@@ -9964,7 +9856,7 @@
         <v>0.1999999999999993</v>
       </c>
       <c r="R49">
-        <v>-0.06299999999999994</v>
+        <v>-0.063</v>
       </c>
       <c r="S49">
         <v>0.6000000000000001</v>
@@ -10179,9 +10071,6 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="I52">
-        <v>-8703</v>
-      </c>
       <c r="J52">
         <v>0.09999999999999964</v>
       </c>
@@ -10198,7 +10087,7 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="O52">
-        <v>-0.06999999999999995</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="P52">
         <v>0.2000000000000011</v>
@@ -10428,9 +10317,6 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="I55">
-        <v>-23389</v>
-      </c>
       <c r="J55">
         <v>-1</v>
       </c>
@@ -10447,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <v>-0.06700000000000003</v>
+        <v>-0.067</v>
       </c>
       <c r="P55">
         <v>-1</v>
@@ -10521,7 +10407,7 @@
         <v>20.1</v>
       </c>
       <c r="L56">
-        <v>0.4970000000000001</v>
+        <v>0.497</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -10634,7 +10520,7 @@
         <v>6.2</v>
       </c>
       <c r="U57">
-        <v>0.8079999999999999</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="V57">
         <v>2.3</v>
@@ -10665,9 +10551,6 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="I58">
-        <v>-5783</v>
-      </c>
       <c r="J58">
         <v>0.3000000000000007</v>
       </c>
@@ -10675,7 +10558,7 @@
         <v>-0.4000000000000021</v>
       </c>
       <c r="L58">
-        <v>0.02299999999999996</v>
+        <v>0.02300000000000002</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -10684,7 +10567,7 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="O58">
-        <v>-0.057</v>
+        <v>-0.05700000000000002</v>
       </c>
       <c r="P58">
         <v>0.2999999999999989</v>
@@ -10702,7 +10585,7 @@
         <v>-0.7000000000000002</v>
       </c>
       <c r="U58">
-        <v>0.04799999999999993</v>
+        <v>0.04800000000000004</v>
       </c>
       <c r="V58">
         <v>-1.8</v>
@@ -10902,9 +10785,6 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="I61">
-        <v>-37875</v>
-      </c>
       <c r="J61">
         <v>-0.7000000000000011</v>
       </c>
@@ -10921,7 +10801,7 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="O61">
-        <v>-0.07400000000000001</v>
+        <v>-0.07399999999999998</v>
       </c>
       <c r="P61">
         <v>-0.7000000000000011</v>
@@ -11140,7 +11020,7 @@
         <v>8</v>
       </c>
       <c r="U2">
-        <v>0.7659999999999999</v>
+        <v>0.766</v>
       </c>
       <c r="V2">
         <v>3.5</v>
@@ -11281,9 +11161,6 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>-2819</v>
-      </c>
       <c r="J4">
         <v>1</v>
       </c>
@@ -11318,7 +11195,7 @@
         <v>-1</v>
       </c>
       <c r="U4">
-        <v>-0.02499999999999991</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="V4">
         <v>0.1000000000000001</v>
@@ -11511,7 +11388,7 @@
         <v>7.2</v>
       </c>
       <c r="U6">
-        <v>0.8440000000000001</v>
+        <v>0.844</v>
       </c>
       <c r="V6">
         <v>2.7</v>
@@ -11554,9 +11431,6 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="I7">
-        <v>-3191</v>
-      </c>
       <c r="J7">
         <v>-0.1999999999999993</v>
       </c>
@@ -11582,7 +11456,7 @@
         <v>1.800000000000001</v>
       </c>
       <c r="R7">
-        <v>-0.02799999999999997</v>
+        <v>-0.02800000000000002</v>
       </c>
       <c r="S7">
         <v>-0.5999999999999996</v>
@@ -11591,7 +11465,7 @@
         <v>-1.100000000000001</v>
       </c>
       <c r="U7">
-        <v>0.04500000000000004</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="V7">
         <v>-1.2</v>
@@ -11686,7 +11560,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="U8">
-        <v>0.8009999999999999</v>
+        <v>0.801</v>
       </c>
       <c r="V8">
         <v>4.7</v>
@@ -11757,7 +11631,7 @@
         <v>24.9</v>
       </c>
       <c r="L9">
-        <v>0.5329999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="M9">
         <v>0.3</v>
@@ -11827,9 +11701,6 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="I10">
-        <v>-2693</v>
-      </c>
       <c r="J10">
         <v>0</v>
       </c>
@@ -11837,7 +11708,7 @@
         <v>-1.300000000000001</v>
       </c>
       <c r="L10">
-        <v>0.02599999999999991</v>
+        <v>0.02600000000000002</v>
       </c>
       <c r="M10">
         <v>-0.2</v>
@@ -11846,7 +11717,7 @@
         <v>-0.2</v>
       </c>
       <c r="O10">
-        <v>-0.04399999999999998</v>
+        <v>-0.04400000000000004</v>
       </c>
       <c r="P10">
         <v>0.09999999999999964</v>
@@ -11864,7 +11735,7 @@
         <v>3.799999999999999</v>
       </c>
       <c r="U10">
-        <v>0.003000000000000114</v>
+        <v>0.003000000000000003</v>
       </c>
       <c r="V10">
         <v>0.7000000000000002</v>
@@ -12073,9 +11944,6 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="I13">
-        <v>-2182</v>
-      </c>
       <c r="J13">
         <v>1.699999999999999</v>
       </c>
@@ -12316,9 +12184,6 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="I16">
-        <v>-2071</v>
-      </c>
       <c r="J16">
         <v>-0.2999999999999989</v>
       </c>
@@ -12522,7 +12387,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="U18">
-        <v>0.7609999999999999</v>
+        <v>0.761</v>
       </c>
       <c r="V18">
         <v>3.5</v>
@@ -12565,9 +12430,6 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="I19">
-        <v>-2430</v>
-      </c>
       <c r="J19">
         <v>-0.5999999999999996</v>
       </c>
@@ -12593,7 +12455,7 @@
         <v>0.1999999999999993</v>
       </c>
       <c r="U19">
-        <v>0.0159999999999999</v>
+        <v>0.01600000000000001</v>
       </c>
       <c r="V19">
         <v>0.2999999999999998</v>
@@ -12832,9 +12694,6 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="I22">
-        <v>-2118</v>
-      </c>
       <c r="J22">
         <v>-2.4</v>
       </c>
@@ -13108,9 +12967,6 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="I25">
-        <v>-2282</v>
-      </c>
       <c r="J25">
         <v>-1</v>
       </c>
@@ -13136,7 +12992,7 @@
         <v>0.3999999999999986</v>
       </c>
       <c r="R25">
-        <v>-0.04799999999999999</v>
+        <v>-0.04800000000000004</v>
       </c>
       <c r="S25">
         <v>-0.09999999999999964</v>
@@ -13234,7 +13090,7 @@
         <v>24.2</v>
       </c>
       <c r="R26">
-        <v>0.5479999999999999</v>
+        <v>0.548</v>
       </c>
       <c r="S26">
         <v>7</v>
@@ -13384,9 +13240,6 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="I28">
-        <v>-2009</v>
-      </c>
       <c r="J28">
         <v>-2.800000000000001</v>
       </c>
@@ -13412,7 +13265,7 @@
         <v>-4.199999999999999</v>
       </c>
       <c r="R28">
-        <v>-0.02299999999999991</v>
+        <v>-0.02300000000000002</v>
       </c>
       <c r="S28">
         <v>0.7999999999999998</v>
@@ -13660,9 +13513,6 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="I31">
-        <v>-1928</v>
-      </c>
       <c r="J31">
         <v>-2.199999999999999</v>
       </c>
@@ -13893,7 +13743,7 @@
         <v>5.4</v>
       </c>
       <c r="U33">
-        <v>0.8640000000000001</v>
+        <v>0.864</v>
       </c>
       <c r="V33">
         <v>2.2</v>
@@ -13936,9 +13786,6 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="I34">
-        <v>-2489</v>
-      </c>
       <c r="J34">
         <v>-3.399999999999999</v>
       </c>
@@ -13973,7 +13820,7 @@
         <v>-3.299999999999999</v>
       </c>
       <c r="U34">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="V34">
         <v>-1.2</v>
@@ -14062,7 +13909,7 @@
         <v>22.9</v>
       </c>
       <c r="R35">
-        <v>0.4970000000000001</v>
+        <v>0.497</v>
       </c>
       <c r="S35">
         <v>6.3</v>
@@ -14215,9 +14062,6 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="I37">
-        <v>-2101</v>
-      </c>
       <c r="J37">
         <v>-2.1</v>
       </c>
@@ -14243,7 +14087,7 @@
         <v>-2.199999999999999</v>
       </c>
       <c r="R37">
-        <v>-0.04500000000000004</v>
+        <v>-0.04499999999999998</v>
       </c>
       <c r="S37">
         <v>-0.2999999999999998</v>
@@ -14494,9 +14338,6 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="I40">
-        <v>-2041</v>
-      </c>
       <c r="J40">
         <v>-1</v>
       </c>
@@ -14773,9 +14614,6 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="I43">
-        <v>-1738</v>
-      </c>
       <c r="J43">
         <v>-1.100000000000001</v>
       </c>
@@ -14783,7 +14621,7 @@
         <v>0.3000000000000007</v>
       </c>
       <c r="L43">
-        <v>-0.05600000000000005</v>
+        <v>-0.05599999999999999</v>
       </c>
       <c r="M43">
         <v>0.09999999999999998</v>
@@ -14792,7 +14630,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="O43">
-        <v>0.06899999999999995</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="P43">
         <v>-1.200000000000001</v>
@@ -14801,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="R43">
-        <v>-0.06299999999999994</v>
+        <v>-0.063</v>
       </c>
       <c r="S43">
         <v>0.7999999999999998</v>
@@ -15034,9 +14872,6 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="I46">
-        <v>-8703</v>
-      </c>
       <c r="J46">
         <v>0.5</v>
       </c>
@@ -15053,7 +14888,7 @@
         <v>0.09999999999999987</v>
       </c>
       <c r="O46">
-        <v>-0.06999999999999995</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="P46">
         <v>0.5</v>
@@ -15301,9 +15136,6 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="I49">
-        <v>-23389</v>
-      </c>
       <c r="J49">
         <v>-1.100000000000001</v>
       </c>
@@ -15320,7 +15152,7 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="O49">
-        <v>-0.06700000000000003</v>
+        <v>-0.067</v>
       </c>
       <c r="P49">
         <v>-1.1</v>
@@ -15519,7 +15351,7 @@
         <v>8.5</v>
       </c>
       <c r="U51">
-        <v>0.7809999999999999</v>
+        <v>0.781</v>
       </c>
       <c r="V51">
         <v>3.4</v>
@@ -15562,9 +15394,6 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="I52">
-        <v>-32092</v>
-      </c>
       <c r="J52">
         <v>-0.8000000000000007</v>
       </c>
@@ -15581,7 +15410,7 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>-0.07600000000000001</v>
+        <v>-0.07599999999999998</v>
       </c>
       <c r="P52">
         <v>-0.7000000000000011</v>
@@ -15599,7 +15428,7 @@
         <v>0.3000000000000007</v>
       </c>
       <c r="U52">
-        <v>0.0009999999999998899</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="V52">
         <v>-0.1000000000000001</v>
@@ -15772,7 +15601,7 @@
         <v>0.545</v>
       </c>
       <c r="K2">
-        <v>0.009000000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="L2">
         <v>0.343</v>
@@ -15880,9 +15709,6 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>-3009</v>
-      </c>
       <c r="I4">
         <v>6.5</v>
       </c>
@@ -15890,10 +15716,10 @@
         <v>0.02399999999999991</v>
       </c>
       <c r="K4">
-        <v>0.004999999999999998</v>
+        <v>0.005000000000000001</v>
       </c>
       <c r="L4">
-        <v>-0.04399999999999998</v>
+        <v>-0.04400000000000004</v>
       </c>
       <c r="O4">
         <v>4</v>
@@ -15917,7 +15743,7 @@
         <v>-10.5</v>
       </c>
       <c r="Y4">
-        <v>0.08599999999999999</v>
+        <v>0.08600000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -16026,7 +15852,7 @@
         <v>24.9</v>
       </c>
       <c r="J6">
-        <v>0.5710000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="K6">
         <v>0.027</v>
@@ -16066,20 +15892,17 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="H7">
-        <v>-2774</v>
-      </c>
       <c r="I7">
         <v>-2.800000000000001</v>
       </c>
       <c r="J7">
-        <v>0.02400000000000002</v>
+        <v>0.02399999999999991</v>
       </c>
       <c r="K7">
         <v>0.014</v>
       </c>
       <c r="L7">
-        <v>0.01800000000000007</v>
+        <v>0.01799999999999996</v>
       </c>
       <c r="O7">
         <v>-2.5</v>
@@ -16103,7 +15926,7 @@
         <v>-9.200000000000001</v>
       </c>
       <c r="Y7">
-        <v>-0.03399999999999999</v>
+        <v>-0.034</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -16288,9 +16111,6 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="H10">
-        <v>-2819</v>
-      </c>
       <c r="I10">
         <v>-1.699999999999999</v>
       </c>
@@ -16301,7 +16121,7 @@
         <v>0.012</v>
       </c>
       <c r="L10">
-        <v>-0.05300000000000005</v>
+        <v>-0.05299999999999999</v>
       </c>
       <c r="M10">
         <v>-0.3999999999999995</v>
@@ -16534,9 +16354,6 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="H13">
-        <v>-3191</v>
-      </c>
       <c r="I13">
         <v>-6.099999999999998</v>
       </c>
@@ -16780,9 +16597,6 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="H16">
-        <v>-2693</v>
-      </c>
       <c r="I16">
         <v>3.300000000000001</v>
       </c>
@@ -16873,7 +16687,7 @@
         <v>20.9</v>
       </c>
       <c r="J17">
-        <v>0.5529999999999999</v>
+        <v>0.553</v>
       </c>
       <c r="L17">
         <v>0.375</v>
@@ -16953,7 +16767,7 @@
         <v>22.9</v>
       </c>
       <c r="J18">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="L18">
         <v>0.344</v>
@@ -17008,14 +16822,11 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="H19">
-        <v>-2182</v>
-      </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19">
-        <v>0.02400000000000013</v>
+        <v>0.02399999999999991</v>
       </c>
       <c r="L19">
         <v>-0.03100000000000003</v>
@@ -17178,7 +16989,7 @@
         <v>21.2</v>
       </c>
       <c r="J21">
-        <v>0.5329999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="L21">
         <v>0.311</v>
@@ -17239,14 +17050,11 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="H22">
-        <v>-2071</v>
-      </c>
       <c r="I22">
         <v>-0.5</v>
       </c>
       <c r="J22">
-        <v>-0.02200000000000013</v>
+        <v>-0.02200000000000002</v>
       </c>
       <c r="L22">
         <v>0.01400000000000001</v>
@@ -17329,7 +17137,7 @@
         <v>20.1</v>
       </c>
       <c r="J23">
-        <v>0.5379999999999999</v>
+        <v>0.538</v>
       </c>
       <c r="L23">
         <v>0.344</v>
@@ -17476,14 +17284,11 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="H25">
-        <v>-2430</v>
-      </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25">
-        <v>0.03000000000000003</v>
+        <v>0.02999999999999992</v>
       </c>
       <c r="L25">
         <v>0.04600000000000004</v>
@@ -17655,7 +17460,7 @@
         <v>22.5</v>
       </c>
       <c r="J27">
-        <v>0.5529999999999999</v>
+        <v>0.553</v>
       </c>
       <c r="K27">
         <v>0.027</v>
@@ -17719,14 +17524,11 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="H28">
-        <v>-2118</v>
-      </c>
       <c r="I28">
         <v>-2.899999999999999</v>
       </c>
       <c r="J28">
-        <v>-0.01500000000000001</v>
+        <v>-0.0149999999999999</v>
       </c>
       <c r="K28">
         <v>0.015</v>
@@ -17768,7 +17570,7 @@
         <v>-9.9</v>
       </c>
       <c r="Y28">
-        <v>-0.03499999999999998</v>
+        <v>-0.035</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -17812,7 +17614,7 @@
         <v>25.1</v>
       </c>
       <c r="J29">
-        <v>0.5720000000000001</v>
+        <v>0.572</v>
       </c>
       <c r="K29">
         <v>0.012</v>
@@ -17965,20 +17767,17 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="H31">
-        <v>-2282</v>
-      </c>
       <c r="I31">
         <v>-4.5</v>
       </c>
       <c r="J31">
-        <v>-0.04500000000000004</v>
+        <v>-0.04499999999999993</v>
       </c>
       <c r="K31">
         <v>-0.009000000000000001</v>
       </c>
       <c r="L31">
-        <v>0.002999999999999947</v>
+        <v>0.003000000000000003</v>
       </c>
       <c r="M31">
         <v>0.5</v>
@@ -18211,9 +18010,6 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="H34">
-        <v>-2009</v>
-      </c>
       <c r="I34">
         <v>-3.399999999999999</v>
       </c>
@@ -18260,7 +18056,7 @@
         <v>-10.3</v>
       </c>
       <c r="Y34">
-        <v>-0.04399999999999998</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="AA34">
         <v>0.5999999999999996</v>
@@ -18304,13 +18100,13 @@
         <v>23.1</v>
       </c>
       <c r="J35">
-        <v>0.5660000000000001</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="K35">
         <v>0.006</v>
       </c>
       <c r="L35">
-        <v>0.3720000000000001</v>
+        <v>0.372</v>
       </c>
       <c r="M35">
         <v>7.9</v>
@@ -18457,20 +18253,17 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="H37">
-        <v>-1928</v>
-      </c>
       <c r="I37">
         <v>-7.100000000000001</v>
       </c>
       <c r="J37">
-        <v>-0.07000000000000006</v>
+        <v>-0.06999999999999995</v>
       </c>
       <c r="K37">
         <v>-0.001</v>
       </c>
       <c r="L37">
-        <v>-0.05000000000000004</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="M37">
         <v>-0.5</v>
@@ -18703,9 +18496,6 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="H40">
-        <v>-2489</v>
-      </c>
       <c r="I40">
         <v>-7.699999999999999</v>
       </c>
@@ -18713,7 +18503,7 @@
         <v>-0.03100000000000003</v>
       </c>
       <c r="K40">
-        <v>-0.002999999999999999</v>
+        <v>-0.003000000000000001</v>
       </c>
       <c r="L40">
         <v>-0.07600000000000001</v>
@@ -18949,9 +18739,6 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="H43">
-        <v>-2101</v>
-      </c>
       <c r="I43">
         <v>-3.100000000000001</v>
       </c>
@@ -18959,7 +18746,7 @@
         <v>-0.02900000000000003</v>
       </c>
       <c r="K43">
-        <v>-0.006000000000000001</v>
+        <v>-0.005999999999999999</v>
       </c>
       <c r="L43">
         <v>-0.02099999999999996</v>
@@ -18998,7 +18785,7 @@
         <v>-6.5</v>
       </c>
       <c r="Y43">
-        <v>-0.02700000000000002</v>
+        <v>-0.02699999999999998</v>
       </c>
       <c r="AA43">
         <v>-0.7000000000000002</v>
@@ -19195,9 +18982,6 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="H46">
-        <v>-2041</v>
-      </c>
       <c r="I46">
         <v>-3.299999999999999</v>
       </c>
@@ -19208,7 +18992,7 @@
         <v>0.032</v>
       </c>
       <c r="L46">
-        <v>0.02200000000000002</v>
+        <v>0.02199999999999996</v>
       </c>
       <c r="M46">
         <v>-0.6000000000000005</v>
@@ -19330,7 +19114,7 @@
         <v>3.5</v>
       </c>
       <c r="Y47">
-        <v>0.08800000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="AA47">
         <v>1.7</v>
@@ -19441,9 +19225,6 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="H49">
-        <v>-1738</v>
-      </c>
       <c r="I49">
         <v>-2.1</v>
       </c>
@@ -19490,7 +19271,7 @@
         <v>-3.2</v>
       </c>
       <c r="Y49">
-        <v>-0.005000000000000004</v>
+        <v>-0.004999999999999991</v>
       </c>
       <c r="AA49">
         <v>0.5000000000000002</v>
@@ -19611,7 +19392,7 @@
         <v>26.7</v>
       </c>
       <c r="J51">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="K51">
         <v>0.045</v>
@@ -19675,14 +19456,11 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="H52">
-        <v>-8703</v>
-      </c>
       <c r="I52">
         <v>-0.1000000000000014</v>
       </c>
       <c r="J52">
-        <v>0.01200000000000012</v>
+        <v>0.01200000000000001</v>
       </c>
       <c r="K52">
         <v>0.002000000000000002</v>
@@ -19762,7 +19540,7 @@
         <v>22</v>
       </c>
       <c r="J53">
-        <v>0.5579999999999999</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="K53">
         <v>0.012</v>
@@ -19851,7 +19629,7 @@
         <v>0.015</v>
       </c>
       <c r="L54">
-        <v>0.3720000000000001</v>
+        <v>0.372</v>
       </c>
       <c r="M54">
         <v>7.7</v>
@@ -19909,14 +19687,11 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="H55">
-        <v>-23389</v>
-      </c>
       <c r="I55">
         <v>-2</v>
       </c>
       <c r="J55">
-        <v>-0.0139999999999999</v>
+        <v>-0.01400000000000001</v>
       </c>
       <c r="K55">
         <v>0.002999999999999999</v>
@@ -19958,7 +19733,7 @@
         <v>-89.80000000000001</v>
       </c>
       <c r="Y55">
-        <v>-0.02900000000000003</v>
+        <v>-0.029</v>
       </c>
       <c r="AA55">
         <v>0.5999999999999996</v>
@@ -20107,9 +19882,6 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="H58">
-        <v>-5783</v>
-      </c>
       <c r="I58">
         <v>3.100000000000001</v>
       </c>
@@ -20117,7 +19889,7 @@
         <v>0.02399999999999991</v>
       </c>
       <c r="K58">
-        <v>0.007000000000000001</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="L58">
         <v>-0.02500000000000002</v>
@@ -20144,7 +19916,7 @@
         <v>-19.7</v>
       </c>
       <c r="Y58">
-        <v>0.05399999999999996</v>
+        <v>0.05399999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -20167,7 +19939,7 @@
         <v>23.6</v>
       </c>
       <c r="J59">
-        <v>0.5579999999999999</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="K59">
         <v>0.019</v>
@@ -20247,7 +20019,7 @@
         <v>22.1</v>
       </c>
       <c r="J60">
-        <v>0.5529999999999999</v>
+        <v>0.553</v>
       </c>
       <c r="K60">
         <v>0.021</v>
@@ -20311,9 +20083,6 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="H61">
-        <v>-37875</v>
-      </c>
       <c r="I61">
         <v>-1.5</v>
       </c>
@@ -20324,7 +20093,7 @@
         <v>0.002000000000000002</v>
       </c>
       <c r="L61">
-        <v>0.02200000000000008</v>
+        <v>0.02200000000000002</v>
       </c>
       <c r="M61">
         <v>-0.6999999999999993</v>
@@ -20360,7 +20129,7 @@
         <v>-154.2</v>
       </c>
       <c r="Y61">
-        <v>-0.01599999999999999</v>
+        <v>-0.01600000000000001</v>
       </c>
       <c r="AA61">
         <v>0.7000000000000002</v>

--- a/output/ervinju01.xlsx
+++ b/output/ervinju01.xlsx
@@ -25,7 +25,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Team</t>
+    <t>Tm</t>
   </si>
   <si>
     <t>Lg</t>
@@ -5144,9 +5144,6 @@
       <c r="N53">
         <v>0.3</v>
       </c>
-      <c r="O53">
-        <v>0.261</v>
-      </c>
       <c r="P53">
         <v>8.6</v>
       </c>
@@ -5236,9 +5233,6 @@
       <c r="N54">
         <v>0.3</v>
       </c>
-      <c r="O54">
-        <v>0.194</v>
-      </c>
       <c r="P54">
         <v>8.4</v>
       </c>
@@ -5310,9 +5304,6 @@
       <c r="N55">
         <v>0</v>
       </c>
-      <c r="O55">
-        <v>-0.067</v>
-      </c>
       <c r="P55">
         <v>-0.1999999999999993</v>
       </c>
@@ -5633,9 +5624,6 @@
       <c r="N59">
         <v>0.4</v>
       </c>
-      <c r="O59">
-        <v>0.298</v>
-      </c>
       <c r="P59">
         <v>9.4</v>
       </c>
@@ -5722,9 +5710,6 @@
       <c r="N60">
         <v>0.5</v>
       </c>
-      <c r="O60">
-        <v>0.224</v>
-      </c>
       <c r="P60">
         <v>9.300000000000001</v>
       </c>
@@ -5795,9 +5780,6 @@
       </c>
       <c r="N61">
         <v>0.09999999999999998</v>
-      </c>
-      <c r="O61">
-        <v>-0.07399999999999998</v>
       </c>
       <c r="P61">
         <v>-0.09999999999999964</v>
@@ -10172,9 +10154,6 @@
       <c r="N53">
         <v>0.3</v>
       </c>
-      <c r="O53">
-        <v>0.261</v>
-      </c>
       <c r="P53">
         <v>9</v>
       </c>
@@ -10261,9 +10240,6 @@
       <c r="N54">
         <v>0.3</v>
       </c>
-      <c r="O54">
-        <v>0.194</v>
-      </c>
       <c r="P54">
         <v>8</v>
       </c>
@@ -10332,9 +10308,6 @@
       <c r="N55">
         <v>0</v>
       </c>
-      <c r="O55">
-        <v>-0.067</v>
-      </c>
       <c r="P55">
         <v>-1</v>
       </c>
@@ -10643,9 +10616,6 @@
       <c r="N59">
         <v>0.4</v>
       </c>
-      <c r="O59">
-        <v>0.298</v>
-      </c>
       <c r="P59">
         <v>9.300000000000001</v>
       </c>
@@ -10729,9 +10699,6 @@
       <c r="N60">
         <v>0.5</v>
       </c>
-      <c r="O60">
-        <v>0.224</v>
-      </c>
       <c r="P60">
         <v>8.6</v>
       </c>
@@ -10799,9 +10766,6 @@
       </c>
       <c r="N61">
         <v>0.09999999999999998</v>
-      </c>
-      <c r="O61">
-        <v>-0.07399999999999998</v>
       </c>
       <c r="P61">
         <v>-0.7000000000000011</v>
@@ -14979,9 +14943,6 @@
       <c r="N47">
         <v>0.4</v>
       </c>
-      <c r="O47">
-        <v>0.261</v>
-      </c>
       <c r="P47">
         <v>11.7</v>
       </c>
@@ -15074,9 +15035,6 @@
       <c r="N48">
         <v>0.5</v>
       </c>
-      <c r="O48">
-        <v>0.194</v>
-      </c>
       <c r="P48">
         <v>10.6</v>
       </c>
@@ -15151,9 +15109,6 @@
       <c r="N49">
         <v>0.09999999999999998</v>
       </c>
-      <c r="O49">
-        <v>-0.067</v>
-      </c>
       <c r="P49">
         <v>-1.1</v>
       </c>
@@ -15240,9 +15195,6 @@
       <c r="N50">
         <v>0.6</v>
       </c>
-      <c r="O50">
-        <v>0.308</v>
-      </c>
       <c r="P50">
         <v>11.8</v>
       </c>
@@ -15332,9 +15284,6 @@
       <c r="N51">
         <v>0.6</v>
       </c>
-      <c r="O51">
-        <v>0.232</v>
-      </c>
       <c r="P51">
         <v>11.1</v>
       </c>
@@ -15408,9 +15357,6 @@
       </c>
       <c r="N52">
         <v>0</v>
-      </c>
-      <c r="O52">
-        <v>-0.07599999999999998</v>
       </c>
       <c r="P52">
         <v>-0.7000000000000011</v>
@@ -16578,13 +16524,13 @@
         <v>0.321</v>
       </c>
       <c r="AA15">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="AB15">
         <v>2.2</v>
       </c>
       <c r="AC15">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="AD15">
         <v>2.2</v>
@@ -16646,13 +16592,13 @@
         <v>0.059</v>
       </c>
       <c r="AA16">
-        <v>3.5</v>
+        <v>3.300000000000001</v>
       </c>
       <c r="AB16">
         <v>-0.2999999999999998</v>
       </c>
       <c r="AC16">
-        <v>3.200000000000001</v>
+        <v>3</v>
       </c>
       <c r="AD16">
         <v>-8.100000000000001</v>
@@ -17271,7 +17217,7 @@
         <v>0.7</v>
       </c>
       <c r="AC24">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AD24">
         <v>0.8</v>
@@ -17336,7 +17282,7 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="AC25">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AD25">
         <v>-3.1</v>
@@ -18483,7 +18429,7 @@
         <v>0.3</v>
       </c>
       <c r="AC39">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD39">
         <v>0.2</v>
@@ -18551,7 +18497,7 @@
         <v>-1.3</v>
       </c>
       <c r="AC40">
-        <v>-3.9</v>
+        <v>-3.8</v>
       </c>
       <c r="AD40">
         <v>-5.1</v>
